--- a/Config/Release5.xlsx
+++ b/Config/Release5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejarcebido/Documents/Projects/Python/MeralcoOnline/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ED832A-B08F-5F40-8D39-A6B25DF3C194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE7C5E0-BF2A-B043-8BE0-6BCF4E822D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="1920" windowWidth="18420" windowHeight="13580" tabRatio="673" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10380" yWindow="1920" windowWidth="18420" windowHeight="13580" tabRatio="673" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="1" r:id="rId1"/>
@@ -47,14 +47,14 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ayezha Abanador - Personal View" guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" mergeInterval="0" personalView="1" maximized="1" xWindow="66" yWindow="-8" windowWidth="1222" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Jerome Allan G. Florendo - Personal View" guid="{7089F64A-F77B-480F-9643-8730755F04D6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Laminuette Emata - Personal View" guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="673" activeSheetId="2"/>
+    <customWorkbookView name="Angelito P. Magat (CheQ Systems Inc.) - Personal View" guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="583" activeSheetId="2"/>
+    <customWorkbookView name="Ayezha Abanador (CheQ Systems Inc.) - Personal View" guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" mergeInterval="0" personalView="1" maximized="1" xWindow="70" yWindow="-8" windowWidth="1218" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Ma. Diana D. Carbon (CheQ Systems Inc.) - Personal View" guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="2"/>
+    <customWorkbookView name="Sheena Marie F. Diaz (CheQ Systems Inc.) - Personal View" guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="674" activeSheetId="4"/>
     <customWorkbookView name="Yvi  Aligam - Personal View" guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Sheena Marie F. Diaz (CheQ Systems Inc.) - Personal View" guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="674" activeSheetId="4"/>
-    <customWorkbookView name="Ma. Diana D. Carbon (CheQ Systems Inc.) - Personal View" guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="2"/>
-    <customWorkbookView name="Ayezha Abanador (CheQ Systems Inc.) - Personal View" guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" mergeInterval="0" personalView="1" maximized="1" xWindow="70" yWindow="-8" windowWidth="1218" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Angelito P. Magat (CheQ Systems Inc.) - Personal View" guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="583" activeSheetId="2"/>
-    <customWorkbookView name="Laminuette Emata - Personal View" guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="673" activeSheetId="2"/>
-    <customWorkbookView name="Jerome Allan G. Florendo - Personal View" guid="{7089F64A-F77B-480F-9643-8730755F04D6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Ayezha Abanador - Personal View" guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" mergeInterval="0" personalView="1" maximized="1" xWindow="66" yWindow="-8" windowWidth="1222" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4030" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4033" uniqueCount="1158">
   <si>
     <t>Revision History</t>
   </si>
@@ -4162,6 +4162,9 @@
   </si>
   <si>
     <t>TC024</t>
+  </si>
+  <si>
+    <t>TC087</t>
   </si>
 </sst>
 </file>
@@ -4602,8 +4605,8 @@
   </cellStyleXfs>
   <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4904,18 +4907,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4925,20 +4916,11 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4952,8 +4934,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4961,14 +4970,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6175,15 +6178,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}">
-      <selection activeCell="F15" sqref="F15"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}">
+      <selection activeCell="C17" sqref="C17"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
-      <selection activeCell="D8" sqref="D7:D8"/>
+    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}">
+      <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}">
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}">
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
@@ -6191,19 +6197,16 @@
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}">
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}">
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
+      <selection activeCell="D8" sqref="D7:D8"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}">
-      <selection activeCell="C4" sqref="C4"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}">
-      <selection activeCell="C17" sqref="C17"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}">
+      <selection activeCell="F15" sqref="F15"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -6222,8 +6225,8 @@
   </sheetPr>
   <dimension ref="A1:J631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B211" sqref="B211"/>
+    <sheetView tabSelected="1" topLeftCell="A270" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B288" sqref="B288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -6239,27 +6242,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
       <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
       <c r="H2" s="66"/>
     </row>
     <row r="3" spans="1:9" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6287,27 +6290,27 @@
       <c r="H3" s="66"/>
     </row>
     <row r="4" spans="1:9" s="27" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
       <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="105"/>
       <c r="I5" s="31" t="s">
         <v>24</v>
       </c>
@@ -6433,15 +6436,15 @@
       </c>
     </row>
     <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="109"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="105"/>
     </row>
     <row r="13" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
@@ -6524,27 +6527,27 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
       <c r="H17" s="70"/>
     </row>
     <row r="18" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="109"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="105"/>
     </row>
     <row r="19" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="str">
@@ -7771,15 +7774,15 @@
       <c r="G90" s="36"/>
     </row>
     <row r="91" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="107" t="s">
+      <c r="A91" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="108"/>
-      <c r="G91" s="109"/>
+      <c r="B91" s="104"/>
+      <c r="C91" s="104"/>
+      <c r="D91" s="104"/>
+      <c r="E91" s="104"/>
+      <c r="F91" s="104"/>
+      <c r="G91" s="105"/>
     </row>
     <row r="92" spans="1:9" ht="23.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="32" t="s">
@@ -8416,15 +8419,15 @@
       <c r="G127" s="36"/>
     </row>
     <row r="128" spans="1:9" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="103" t="s">
+      <c r="A128" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="B128" s="104"/>
-      <c r="C128" s="104"/>
-      <c r="D128" s="104"/>
-      <c r="E128" s="104"/>
-      <c r="F128" s="104"/>
-      <c r="G128" s="104"/>
+      <c r="B128" s="114"/>
+      <c r="C128" s="114"/>
+      <c r="D128" s="114"/>
+      <c r="E128" s="114"/>
+      <c r="F128" s="114"/>
+      <c r="G128" s="114"/>
       <c r="H128" s="66"/>
     </row>
     <row r="129" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -9274,27 +9277,27 @@
       <c r="G176" s="36"/>
     </row>
     <row r="177" spans="1:10" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A177" s="105" t="s">
+      <c r="A177" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="B177" s="106"/>
-      <c r="C177" s="106"/>
-      <c r="D177" s="106"/>
-      <c r="E177" s="106"/>
-      <c r="F177" s="106"/>
-      <c r="G177" s="106"/>
+      <c r="B177" s="107"/>
+      <c r="C177" s="107"/>
+      <c r="D177" s="107"/>
+      <c r="E177" s="107"/>
+      <c r="F177" s="107"/>
+      <c r="G177" s="107"/>
       <c r="H177" s="70"/>
     </row>
     <row r="178" spans="1:10" s="38" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="112" t="s">
+      <c r="A178" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="B178" s="113"/>
-      <c r="C178" s="113"/>
-      <c r="D178" s="113"/>
-      <c r="E178" s="113"/>
-      <c r="F178" s="113"/>
-      <c r="G178" s="113"/>
+      <c r="B178" s="116"/>
+      <c r="C178" s="116"/>
+      <c r="D178" s="116"/>
+      <c r="E178" s="116"/>
+      <c r="F178" s="116"/>
+      <c r="G178" s="116"/>
       <c r="H178" s="70"/>
     </row>
     <row r="179" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -10136,15 +10139,15 @@
       </c>
     </row>
     <row r="224" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="103" t="s">
+      <c r="A224" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="B224" s="104"/>
-      <c r="C224" s="104"/>
-      <c r="D224" s="104"/>
-      <c r="E224" s="104"/>
-      <c r="F224" s="104"/>
-      <c r="G224" s="104"/>
+      <c r="B224" s="114"/>
+      <c r="C224" s="114"/>
+      <c r="D224" s="114"/>
+      <c r="E224" s="114"/>
+      <c r="F224" s="114"/>
+      <c r="G224" s="114"/>
     </row>
     <row r="225" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A225" s="32" t="str">
@@ -12099,15 +12102,15 @@
       <c r="G325" s="36"/>
     </row>
     <row r="326" spans="1:9" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="103" t="s">
+      <c r="A326" s="113" t="s">
         <v>215</v>
       </c>
-      <c r="B326" s="104"/>
-      <c r="C326" s="104"/>
-      <c r="D326" s="104"/>
-      <c r="E326" s="104"/>
-      <c r="F326" s="104"/>
-      <c r="G326" s="104"/>
+      <c r="B326" s="114"/>
+      <c r="C326" s="114"/>
+      <c r="D326" s="114"/>
+      <c r="E326" s="114"/>
+      <c r="F326" s="114"/>
+      <c r="G326" s="114"/>
       <c r="H326" s="66"/>
     </row>
     <row r="327" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -12755,15 +12758,15 @@
       </c>
     </row>
     <row r="360" spans="1:9" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="103" t="s">
+      <c r="A360" s="113" t="s">
         <v>236</v>
       </c>
-      <c r="B360" s="104"/>
-      <c r="C360" s="104"/>
-      <c r="D360" s="104"/>
-      <c r="E360" s="104"/>
-      <c r="F360" s="104"/>
-      <c r="G360" s="104"/>
+      <c r="B360" s="114"/>
+      <c r="C360" s="114"/>
+      <c r="D360" s="114"/>
+      <c r="E360" s="114"/>
+      <c r="F360" s="114"/>
+      <c r="G360" s="114"/>
       <c r="H360" s="66"/>
     </row>
     <row r="361" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -13434,15 +13437,15 @@
       </c>
     </row>
     <row r="397" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A397" s="105" t="s">
+      <c r="A397" s="106" t="s">
         <v>257</v>
       </c>
-      <c r="B397" s="106"/>
-      <c r="C397" s="106"/>
-      <c r="D397" s="106"/>
-      <c r="E397" s="106"/>
-      <c r="F397" s="106"/>
-      <c r="G397" s="106"/>
+      <c r="B397" s="107"/>
+      <c r="C397" s="107"/>
+      <c r="D397" s="107"/>
+      <c r="E397" s="107"/>
+      <c r="F397" s="107"/>
+      <c r="G397" s="107"/>
     </row>
     <row r="398" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A398" s="32" t="str">
@@ -13726,15 +13729,15 @@
       <c r="G412" s="36"/>
     </row>
     <row r="413" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="105" t="s">
+      <c r="A413" s="106" t="s">
         <v>277</v>
       </c>
-      <c r="B413" s="106"/>
-      <c r="C413" s="106"/>
-      <c r="D413" s="106"/>
-      <c r="E413" s="106"/>
-      <c r="F413" s="106"/>
-      <c r="G413" s="106"/>
+      <c r="B413" s="107"/>
+      <c r="C413" s="107"/>
+      <c r="D413" s="107"/>
+      <c r="E413" s="107"/>
+      <c r="F413" s="107"/>
+      <c r="G413" s="107"/>
     </row>
     <row r="414" spans="1:10" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A414" s="32" t="str">
@@ -13773,26 +13776,26 @@
       <c r="G415" s="36"/>
     </row>
     <row r="416" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="105" t="s">
+      <c r="A416" s="106" t="s">
         <v>281</v>
       </c>
-      <c r="B416" s="106"/>
-      <c r="C416" s="106"/>
-      <c r="D416" s="106"/>
-      <c r="E416" s="106"/>
-      <c r="F416" s="106"/>
-      <c r="G416" s="106"/>
+      <c r="B416" s="107"/>
+      <c r="C416" s="107"/>
+      <c r="D416" s="107"/>
+      <c r="E416" s="107"/>
+      <c r="F416" s="107"/>
+      <c r="G416" s="107"/>
     </row>
     <row r="417" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A417" s="107" t="s">
+      <c r="A417" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="B417" s="108"/>
-      <c r="C417" s="108"/>
-      <c r="D417" s="108"/>
-      <c r="E417" s="108"/>
-      <c r="F417" s="108"/>
-      <c r="G417" s="109"/>
+      <c r="B417" s="104"/>
+      <c r="C417" s="104"/>
+      <c r="D417" s="104"/>
+      <c r="E417" s="104"/>
+      <c r="F417" s="104"/>
+      <c r="G417" s="105"/>
     </row>
     <row r="418" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A418" s="32" t="str">
@@ -13809,7 +13812,7 @@
       <c r="E418" s="46"/>
       <c r="F418" s="45"/>
       <c r="G418" s="26"/>
-      <c r="H418" s="1" t="s">
+      <c r="H418" s="112" t="s">
         <v>284</v>
       </c>
       <c r="I418" s="31" t="s">
@@ -13830,7 +13833,7 @@
         <v>146</v>
       </c>
       <c r="G419" s="36"/>
-      <c r="H419" s="1"/>
+      <c r="H419" s="112"/>
     </row>
     <row r="420" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A420" s="36"/>
@@ -13846,7 +13849,7 @@
         <v>146</v>
       </c>
       <c r="G420" s="36"/>
-      <c r="H420" s="1"/>
+      <c r="H420" s="112"/>
     </row>
     <row r="421" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A421" s="36"/>
@@ -13862,7 +13865,7 @@
         <v>146</v>
       </c>
       <c r="G421" s="36"/>
-      <c r="H421" s="1"/>
+      <c r="H421" s="112"/>
     </row>
     <row r="422" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A422" s="36"/>
@@ -13878,7 +13881,7 @@
         <v>146</v>
       </c>
       <c r="G422" s="36"/>
-      <c r="H422" s="1"/>
+      <c r="H422" s="112"/>
     </row>
     <row r="423" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A423" s="36"/>
@@ -13894,7 +13897,7 @@
         <v>146</v>
       </c>
       <c r="G423" s="36"/>
-      <c r="H423" s="1"/>
+      <c r="H423" s="112"/>
     </row>
     <row r="424" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A424" s="32" t="str">
@@ -13911,7 +13914,7 @@
       <c r="E424" s="46"/>
       <c r="F424" s="33"/>
       <c r="G424" s="37"/>
-      <c r="H424" s="1"/>
+      <c r="H424" s="112"/>
       <c r="I424" s="31" t="s">
         <v>146</v>
       </c>
@@ -13930,7 +13933,7 @@
         <v>146</v>
       </c>
       <c r="G425" s="36"/>
-      <c r="H425" s="1"/>
+      <c r="H425" s="112"/>
     </row>
     <row r="426" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A426" s="32" t="str">
@@ -13947,7 +13950,7 @@
       <c r="E426" s="46"/>
       <c r="F426" s="33"/>
       <c r="G426" s="37"/>
-      <c r="H426" s="1"/>
+      <c r="H426" s="112"/>
       <c r="I426" s="31" t="s">
         <v>146</v>
       </c>
@@ -13966,7 +13969,7 @@
         <v>146</v>
       </c>
       <c r="G427" s="36"/>
-      <c r="H427" s="1"/>
+      <c r="H427" s="112"/>
     </row>
     <row r="428" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A428" s="36"/>
@@ -13982,7 +13985,7 @@
         <v>146</v>
       </c>
       <c r="G428" s="36"/>
-      <c r="H428" s="1"/>
+      <c r="H428" s="112"/>
     </row>
     <row r="429" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A429" s="36"/>
@@ -13998,7 +14001,7 @@
         <v>146</v>
       </c>
       <c r="G429" s="36"/>
-      <c r="H429" s="1"/>
+      <c r="H429" s="112"/>
     </row>
     <row r="430" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A430" s="36"/>
@@ -14014,7 +14017,7 @@
         <v>146</v>
       </c>
       <c r="G430" s="36"/>
-      <c r="H430" s="1"/>
+      <c r="H430" s="112"/>
     </row>
     <row r="431" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A431" s="36"/>
@@ -14030,7 +14033,7 @@
         <v>146</v>
       </c>
       <c r="G431" s="36"/>
-      <c r="H431" s="1"/>
+      <c r="H431" s="112"/>
     </row>
     <row r="432" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A432" s="36"/>
@@ -14046,7 +14049,7 @@
         <v>146</v>
       </c>
       <c r="G432" s="36"/>
-      <c r="H432" s="1"/>
+      <c r="H432" s="112"/>
     </row>
     <row r="433" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A433" s="36"/>
@@ -14062,7 +14065,7 @@
         <v>146</v>
       </c>
       <c r="G433" s="36"/>
-      <c r="H433" s="1"/>
+      <c r="H433" s="112"/>
     </row>
     <row r="434" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A434" s="36"/>
@@ -14078,7 +14081,7 @@
         <v>146</v>
       </c>
       <c r="G434" s="36"/>
-      <c r="H434" s="1"/>
+      <c r="H434" s="112"/>
     </row>
     <row r="435" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A435" s="36"/>
@@ -14094,7 +14097,7 @@
         <v>146</v>
       </c>
       <c r="G435" s="36"/>
-      <c r="H435" s="1"/>
+      <c r="H435" s="112"/>
     </row>
     <row r="436" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A436" s="36"/>
@@ -14110,7 +14113,7 @@
         <v>146</v>
       </c>
       <c r="G436" s="36"/>
-      <c r="H436" s="1"/>
+      <c r="H436" s="112"/>
     </row>
     <row r="437" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A437" s="36"/>
@@ -14126,7 +14129,7 @@
         <v>146</v>
       </c>
       <c r="G437" s="36"/>
-      <c r="H437" s="1"/>
+      <c r="H437" s="112"/>
     </row>
     <row r="438" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A438" s="36"/>
@@ -14142,7 +14145,7 @@
         <v>146</v>
       </c>
       <c r="G438" s="36"/>
-      <c r="H438" s="1"/>
+      <c r="H438" s="112"/>
     </row>
     <row r="439" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A439" s="36"/>
@@ -14158,7 +14161,7 @@
         <v>146</v>
       </c>
       <c r="G439" s="36"/>
-      <c r="H439" s="1"/>
+      <c r="H439" s="112"/>
     </row>
     <row r="440" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A440" s="32" t="str">
@@ -14175,7 +14178,7 @@
       <c r="E440" s="46"/>
       <c r="F440" s="33"/>
       <c r="G440" s="37"/>
-      <c r="H440" s="1"/>
+      <c r="H440" s="112"/>
       <c r="I440" s="31" t="s">
         <v>146</v>
       </c>
@@ -14194,7 +14197,7 @@
         <v>146</v>
       </c>
       <c r="G441" s="36"/>
-      <c r="H441" s="1"/>
+      <c r="H441" s="112"/>
     </row>
     <row r="442" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A442" s="36"/>
@@ -14210,7 +14213,7 @@
         <v>146</v>
       </c>
       <c r="G442" s="36"/>
-      <c r="H442" s="1"/>
+      <c r="H442" s="112"/>
     </row>
     <row r="443" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A443" s="36"/>
@@ -14226,7 +14229,7 @@
         <v>146</v>
       </c>
       <c r="G443" s="36"/>
-      <c r="H443" s="1"/>
+      <c r="H443" s="112"/>
     </row>
     <row r="444" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A444" s="36"/>
@@ -14242,18 +14245,18 @@
         <v>146</v>
       </c>
       <c r="G444" s="36"/>
-      <c r="H444" s="1"/>
+      <c r="H444" s="112"/>
     </row>
     <row r="445" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="107" t="s">
+      <c r="A445" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="B445" s="108"/>
-      <c r="C445" s="108"/>
-      <c r="D445" s="108"/>
-      <c r="E445" s="108"/>
-      <c r="F445" s="108"/>
-      <c r="G445" s="109"/>
+      <c r="B445" s="104"/>
+      <c r="C445" s="104"/>
+      <c r="D445" s="104"/>
+      <c r="E445" s="104"/>
+      <c r="F445" s="104"/>
+      <c r="G445" s="105"/>
     </row>
     <row r="446" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A446" s="32" t="str">
@@ -14680,7 +14683,7 @@
       <c r="E467" s="46"/>
       <c r="F467" s="33"/>
       <c r="G467" s="37"/>
-      <c r="H467" s="1" t="s">
+      <c r="H467" s="112" t="s">
         <v>284</v>
       </c>
       <c r="I467" s="31" t="s">
@@ -14699,7 +14702,7 @@
       <c r="E468" s="35"/>
       <c r="F468" s="35"/>
       <c r="G468" s="36"/>
-      <c r="H468" s="1"/>
+      <c r="H468" s="112"/>
     </row>
     <row r="469" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A469" s="36"/>
@@ -14715,7 +14718,7 @@
         <v>146</v>
       </c>
       <c r="G469" s="36"/>
-      <c r="H469" s="1"/>
+      <c r="H469" s="112"/>
     </row>
     <row r="470" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A470" s="36"/>
@@ -14731,7 +14734,7 @@
         <v>146</v>
       </c>
       <c r="G470" s="36"/>
-      <c r="H470" s="1"/>
+      <c r="H470" s="112"/>
     </row>
     <row r="471" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A471" s="36"/>
@@ -14747,7 +14750,7 @@
         <v>146</v>
       </c>
       <c r="G471" s="36"/>
-      <c r="H471" s="1"/>
+      <c r="H471" s="112"/>
     </row>
     <row r="472" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A472" s="36"/>
@@ -14763,7 +14766,7 @@
         <v>146</v>
       </c>
       <c r="G472" s="36"/>
-      <c r="H472" s="1"/>
+      <c r="H472" s="112"/>
     </row>
     <row r="473" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A473" s="36"/>
@@ -14779,7 +14782,7 @@
         <v>146</v>
       </c>
       <c r="G473" s="36"/>
-      <c r="H473" s="1"/>
+      <c r="H473" s="112"/>
     </row>
     <row r="474" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A474" s="32" t="str">
@@ -15211,7 +15214,7 @@
       <c r="E495" s="46"/>
       <c r="F495" s="33"/>
       <c r="G495" s="37"/>
-      <c r="H495" s="1" t="s">
+      <c r="H495" s="112" t="s">
         <v>284</v>
       </c>
       <c r="I495" s="31" t="s">
@@ -15230,7 +15233,7 @@
       <c r="E496" s="35"/>
       <c r="F496" s="35"/>
       <c r="G496" s="36"/>
-      <c r="H496" s="1"/>
+      <c r="H496" s="112"/>
     </row>
     <row r="497" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A497" s="36"/>
@@ -15246,7 +15249,7 @@
         <v>146</v>
       </c>
       <c r="G497" s="36"/>
-      <c r="H497" s="1"/>
+      <c r="H497" s="112"/>
     </row>
     <row r="498" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A498" s="36"/>
@@ -15262,7 +15265,7 @@
         <v>146</v>
       </c>
       <c r="G498" s="36"/>
-      <c r="H498" s="1"/>
+      <c r="H498" s="112"/>
     </row>
     <row r="499" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A499" s="36"/>
@@ -15278,7 +15281,7 @@
         <v>146</v>
       </c>
       <c r="G499" s="36"/>
-      <c r="H499" s="1"/>
+      <c r="H499" s="112"/>
     </row>
     <row r="500" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A500" s="36"/>
@@ -15294,7 +15297,7 @@
         <v>146</v>
       </c>
       <c r="G500" s="36"/>
-      <c r="H500" s="1"/>
+      <c r="H500" s="112"/>
     </row>
     <row r="501" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A501" s="36"/>
@@ -15310,29 +15313,29 @@
         <v>146</v>
       </c>
       <c r="G501" s="36"/>
-      <c r="H501" s="1"/>
+      <c r="H501" s="112"/>
     </row>
     <row r="502" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A502" s="105" t="s">
+      <c r="A502" s="106" t="s">
         <v>396</v>
       </c>
-      <c r="B502" s="106"/>
-      <c r="C502" s="106"/>
-      <c r="D502" s="106"/>
-      <c r="E502" s="106"/>
-      <c r="F502" s="106"/>
-      <c r="G502" s="106"/>
+      <c r="B502" s="107"/>
+      <c r="C502" s="107"/>
+      <c r="D502" s="107"/>
+      <c r="E502" s="107"/>
+      <c r="F502" s="107"/>
+      <c r="G502" s="107"/>
     </row>
     <row r="503" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A503" s="107" t="s">
+      <c r="A503" s="103" t="s">
         <v>397</v>
       </c>
-      <c r="B503" s="108"/>
-      <c r="C503" s="108"/>
-      <c r="D503" s="108"/>
-      <c r="E503" s="108"/>
-      <c r="F503" s="108"/>
-      <c r="G503" s="109"/>
+      <c r="B503" s="104"/>
+      <c r="C503" s="104"/>
+      <c r="D503" s="104"/>
+      <c r="E503" s="104"/>
+      <c r="F503" s="104"/>
+      <c r="G503" s="105"/>
     </row>
     <row r="504" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A504" s="32" t="str">
@@ -15362,12 +15365,12 @@
       <c r="B505" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="C505" s="115"/>
-      <c r="D505" s="116"/>
-      <c r="E505" s="116"/>
-      <c r="F505" s="117"/>
-      <c r="G505" s="117"/>
-      <c r="H505" s="118"/>
+      <c r="C505" s="108"/>
+      <c r="D505" s="109"/>
+      <c r="E505" s="109"/>
+      <c r="F505" s="110"/>
+      <c r="G505" s="110"/>
+      <c r="H505" s="111"/>
       <c r="I505" s="79"/>
       <c r="J505" s="80"/>
     </row>
@@ -15387,15 +15390,15 @@
       <c r="G506" s="36"/>
     </row>
     <row r="507" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A507" s="107" t="s">
+      <c r="A507" s="103" t="s">
         <v>403</v>
       </c>
-      <c r="B507" s="108"/>
-      <c r="C507" s="108"/>
-      <c r="D507" s="108"/>
-      <c r="E507" s="108"/>
-      <c r="F507" s="108"/>
-      <c r="G507" s="109"/>
+      <c r="B507" s="104"/>
+      <c r="C507" s="104"/>
+      <c r="D507" s="104"/>
+      <c r="E507" s="104"/>
+      <c r="F507" s="104"/>
+      <c r="G507" s="105"/>
     </row>
     <row r="508" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A508" s="32" t="str">
@@ -15499,26 +15502,26 @@
       <c r="G513" s="36"/>
     </row>
     <row r="514" spans="1:9" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A514" s="105" t="s">
+      <c r="A514" s="106" t="s">
         <v>410</v>
       </c>
-      <c r="B514" s="106"/>
-      <c r="C514" s="106"/>
-      <c r="D514" s="106"/>
-      <c r="E514" s="106"/>
-      <c r="F514" s="106"/>
-      <c r="G514" s="106"/>
+      <c r="B514" s="107"/>
+      <c r="C514" s="107"/>
+      <c r="D514" s="107"/>
+      <c r="E514" s="107"/>
+      <c r="F514" s="107"/>
+      <c r="G514" s="107"/>
     </row>
     <row r="515" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A515" s="107" t="s">
+      <c r="A515" s="103" t="s">
         <v>411</v>
       </c>
-      <c r="B515" s="108"/>
-      <c r="C515" s="108"/>
-      <c r="D515" s="108"/>
-      <c r="E515" s="108"/>
-      <c r="F515" s="108"/>
-      <c r="G515" s="109"/>
+      <c r="B515" s="104"/>
+      <c r="C515" s="104"/>
+      <c r="D515" s="104"/>
+      <c r="E515" s="104"/>
+      <c r="F515" s="104"/>
+      <c r="G515" s="105"/>
     </row>
     <row r="516" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A516" s="32" t="str">
@@ -16301,15 +16304,15 @@
       <c r="I555" s="48"/>
     </row>
     <row r="556" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="107" t="s">
+      <c r="A556" s="103" t="s">
         <v>429</v>
       </c>
-      <c r="B556" s="108"/>
-      <c r="C556" s="108"/>
-      <c r="D556" s="108"/>
-      <c r="E556" s="108"/>
-      <c r="F556" s="108"/>
-      <c r="G556" s="109"/>
+      <c r="B556" s="104"/>
+      <c r="C556" s="104"/>
+      <c r="D556" s="104"/>
+      <c r="E556" s="104"/>
+      <c r="F556" s="104"/>
+      <c r="G556" s="105"/>
     </row>
     <row r="557" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A557" s="32" t="str">
@@ -16547,15 +16550,15 @@
       </c>
     </row>
     <row r="569" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A569" s="107" t="s">
+      <c r="A569" s="103" t="s">
         <v>440</v>
       </c>
-      <c r="B569" s="108"/>
-      <c r="C569" s="108"/>
-      <c r="D569" s="108"/>
-      <c r="E569" s="108"/>
-      <c r="F569" s="108"/>
-      <c r="G569" s="109"/>
+      <c r="B569" s="104"/>
+      <c r="C569" s="104"/>
+      <c r="D569" s="104"/>
+      <c r="E569" s="104"/>
+      <c r="F569" s="104"/>
+      <c r="G569" s="105"/>
     </row>
     <row r="570" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A570" s="32" t="str">
@@ -16948,15 +16951,15 @@
       </c>
     </row>
     <row r="590" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="107" t="s">
+      <c r="A590" s="103" t="s">
         <v>453</v>
       </c>
-      <c r="B590" s="108"/>
-      <c r="C590" s="108"/>
-      <c r="D590" s="108"/>
-      <c r="E590" s="108"/>
-      <c r="F590" s="108"/>
-      <c r="G590" s="109"/>
+      <c r="B590" s="104"/>
+      <c r="C590" s="104"/>
+      <c r="D590" s="104"/>
+      <c r="E590" s="104"/>
+      <c r="F590" s="104"/>
+      <c r="G590" s="105"/>
     </row>
     <row r="591" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A591" s="32" t="str">
@@ -17233,15 +17236,15 @@
       </c>
     </row>
     <row r="605" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A605" s="107" t="s">
+      <c r="A605" s="103" t="s">
         <v>466</v>
       </c>
-      <c r="B605" s="108"/>
-      <c r="C605" s="108"/>
-      <c r="D605" s="108"/>
-      <c r="E605" s="108"/>
-      <c r="F605" s="108"/>
-      <c r="G605" s="109"/>
+      <c r="B605" s="104"/>
+      <c r="C605" s="104"/>
+      <c r="D605" s="104"/>
+      <c r="E605" s="104"/>
+      <c r="F605" s="104"/>
+      <c r="G605" s="105"/>
     </row>
     <row r="606" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A606" s="32" t="str">
@@ -17426,15 +17429,15 @@
       </c>
     </row>
     <row r="616" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A616" s="107" t="s">
+      <c r="A616" s="103" t="s">
         <v>477</v>
       </c>
-      <c r="B616" s="108"/>
-      <c r="C616" s="108"/>
-      <c r="D616" s="108"/>
-      <c r="E616" s="108"/>
-      <c r="F616" s="108"/>
-      <c r="G616" s="109"/>
+      <c r="B616" s="104"/>
+      <c r="C616" s="104"/>
+      <c r="D616" s="104"/>
+      <c r="E616" s="104"/>
+      <c r="F616" s="104"/>
+      <c r="G616" s="105"/>
     </row>
     <row r="617" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A617" s="32" t="str">
@@ -17525,10 +17528,10 @@
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F623" s="114" t="s">
+      <c r="F623" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G623" s="114"/>
+      <c r="G623" s="1"/>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F624" s="49" t="s">
@@ -17661,48 +17664,66 @@
   <autoFilter ref="A3:I3" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <dataConsolidate/>
   <customSheetViews>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" hiddenRows="1">
-      <selection activeCell="B5" sqref="B5"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" hiddenRows="1">
+      <selection activeCell="A52" sqref="A52"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" hiddenRows="1">
+      <selection activeCell="B8" sqref="B8"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" showPageBreaks="1">
+      <selection sqref="A1:D1"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" showPageBreaks="1">
+      <selection activeCell="E129" sqref="E129"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+    </customSheetView>
+    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="85">
+      <selection activeCell="B103" sqref="B103"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+    </customSheetView>
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85" topLeftCell="A4">
+      <selection activeCell="E13" sqref="E13"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
     </customSheetView>
     <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" topLeftCell="A16">
       <selection activeCell="B40" sqref="B40"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85" topLeftCell="A4">
-      <selection activeCell="E13" sqref="E13"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="85">
-      <selection activeCell="B103" sqref="B103"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" showPageBreaks="1">
-      <selection activeCell="E129" sqref="E129"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
-    </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" showPageBreaks="1">
-      <selection sqref="A1:D1"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
-    </customSheetView>
-    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" hiddenRows="1">
-      <selection activeCell="B8" sqref="B8"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
     </customSheetView>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" hiddenRows="1">
-      <selection activeCell="A52" sqref="A52"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" hiddenRows="1">
+      <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="34">
+    <mergeCell ref="H467:H473"/>
+    <mergeCell ref="H495:H501"/>
+    <mergeCell ref="A360:G360"/>
+    <mergeCell ref="A326:G326"/>
+    <mergeCell ref="A397:G397"/>
+    <mergeCell ref="A445:G445"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A177:G177"/>
+    <mergeCell ref="A224:G224"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A128:G128"/>
+    <mergeCell ref="A178:G178"/>
     <mergeCell ref="F623:G623"/>
     <mergeCell ref="A417:G417"/>
     <mergeCell ref="A413:G413"/>
@@ -17719,24 +17740,6 @@
     <mergeCell ref="A416:G416"/>
     <mergeCell ref="C505:H505"/>
     <mergeCell ref="H418:H444"/>
-    <mergeCell ref="A177:G177"/>
-    <mergeCell ref="A224:G224"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A128:G128"/>
-    <mergeCell ref="A178:G178"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="H467:H473"/>
-    <mergeCell ref="H495:H501"/>
-    <mergeCell ref="A360:G360"/>
-    <mergeCell ref="A326:G326"/>
-    <mergeCell ref="A397:G397"/>
-    <mergeCell ref="A445:G445"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="F450:F476 F388:F392 F379:F381 F394:F395 F478:F516 F520:F597 F272 F277 F282 F287 F292 F297 F302 F306 F311 F316 F321 F326:F377 F1:F230 F599:F1048576 F232:F267 F397:F448">
@@ -18164,11 +18167,11 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" state="hidden">
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
       <selection activeCell="K30" sqref="K30"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" state="hidden">
       <selection activeCell="K30" sqref="K30"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
@@ -18187,8 +18190,8 @@
   </sheetPr>
   <dimension ref="A1:F685"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145"/>
+    <sheetView topLeftCell="A236" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="65.33203125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -21185,7 +21188,9 @@
       <c r="F215" s="53"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" s="119"/>
+      <c r="A216" s="119" t="s">
+        <v>169</v>
+      </c>
       <c r="B216" s="119"/>
       <c r="C216" s="119"/>
       <c r="D216" s="119"/>
@@ -21425,14 +21430,14 @@
       <c r="F233" s="34"/>
     </row>
     <row r="234" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="122" t="s">
+      <c r="A234" s="120" t="s">
         <v>176</v>
       </c>
-      <c r="B234" s="122"/>
-      <c r="C234" s="122"/>
-      <c r="D234" s="122"/>
-      <c r="E234" s="122"/>
-      <c r="F234" s="122"/>
+      <c r="B234" s="120"/>
+      <c r="C234" s="120"/>
+      <c r="D234" s="120"/>
+      <c r="E234" s="120"/>
+      <c r="F234" s="120"/>
     </row>
     <row r="235" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A235" s="34"/>
@@ -21896,7 +21901,7 @@
       <c r="F268" s="34"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A269" s="123" t="s">
+      <c r="A269" s="124" t="s">
         <v>34</v>
       </c>
       <c r="B269" s="119"/>
@@ -21948,7 +21953,7 @@
       <c r="F272" s="35"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273" s="123" t="s">
+      <c r="A273" s="124" t="s">
         <v>37</v>
       </c>
       <c r="B273" s="119"/>
@@ -21986,7 +21991,7 @@
       <c r="F275" s="34"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A276" s="123" t="s">
+      <c r="A276" s="124" t="s">
         <v>40</v>
       </c>
       <c r="B276" s="119"/>
@@ -23294,12 +23299,12 @@
       <c r="F379" s="36"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A380" s="122"/>
-      <c r="B380" s="122"/>
-      <c r="C380" s="122"/>
-      <c r="D380" s="122"/>
-      <c r="E380" s="122"/>
-      <c r="F380" s="122"/>
+      <c r="A380" s="120"/>
+      <c r="B380" s="120"/>
+      <c r="C380" s="120"/>
+      <c r="D380" s="120"/>
+      <c r="E380" s="120"/>
+      <c r="F380" s="120"/>
     </row>
     <row r="381" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B381" s="51" t="s">
@@ -23380,12 +23385,12 @@
       <c r="F386" s="36"/>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A387" s="122"/>
-      <c r="B387" s="122"/>
-      <c r="C387" s="122"/>
-      <c r="D387" s="122"/>
-      <c r="E387" s="122"/>
-      <c r="F387" s="122"/>
+      <c r="A387" s="120"/>
+      <c r="B387" s="120"/>
+      <c r="C387" s="120"/>
+      <c r="D387" s="120"/>
+      <c r="E387" s="120"/>
+      <c r="F387" s="120"/>
     </row>
     <row r="388" spans="1:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B388" s="51" t="s">
@@ -23401,12 +23406,12 @@
       <c r="F388" s="36"/>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A389" s="122"/>
-      <c r="B389" s="122"/>
-      <c r="C389" s="122"/>
-      <c r="D389" s="122"/>
-      <c r="E389" s="122"/>
-      <c r="F389" s="122"/>
+      <c r="A389" s="120"/>
+      <c r="B389" s="120"/>
+      <c r="C389" s="120"/>
+      <c r="D389" s="120"/>
+      <c r="E389" s="120"/>
+      <c r="F389" s="120"/>
     </row>
     <row r="390" spans="1:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B390" s="51" t="s">
@@ -24072,7 +24077,9 @@
       <c r="F442" s="119"/>
     </row>
     <row r="443" spans="1:6" s="5" customFormat="1" ht="150" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A443" s="53"/>
+      <c r="A443" s="36" t="s">
+        <v>1157</v>
+      </c>
       <c r="B443" s="51" t="s">
         <v>987</v>
       </c>
@@ -24086,7 +24093,9 @@
       <c r="F443" s="53"/>
     </row>
     <row r="444" spans="1:6" s="5" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A444" s="53"/>
+      <c r="A444" s="36" t="s">
+        <v>1157</v>
+      </c>
       <c r="B444" s="51" t="s">
         <v>989</v>
       </c>
@@ -25490,14 +25499,14 @@
       <c r="F551" s="53"/>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A552" s="122" t="s">
+      <c r="A552" s="120" t="s">
         <v>275</v>
       </c>
-      <c r="B552" s="122"/>
-      <c r="C552" s="122"/>
-      <c r="D552" s="122"/>
-      <c r="E552" s="122"/>
-      <c r="F552" s="122"/>
+      <c r="B552" s="120"/>
+      <c r="C552" s="120"/>
+      <c r="D552" s="120"/>
+      <c r="E552" s="120"/>
+      <c r="F552" s="120"/>
     </row>
     <row r="553" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B553" s="9" t="s">
@@ -25513,14 +25522,14 @@
       <c r="F553" s="36"/>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A554" s="122" t="s">
+      <c r="A554" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="B554" s="122"/>
-      <c r="C554" s="122"/>
-      <c r="D554" s="122"/>
-      <c r="E554" s="122"/>
-      <c r="F554" s="122"/>
+      <c r="B554" s="120"/>
+      <c r="C554" s="120"/>
+      <c r="D554" s="120"/>
+      <c r="E554" s="120"/>
+      <c r="F554" s="120"/>
     </row>
     <row r="555" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B555" s="51" t="s">
@@ -25549,14 +25558,14 @@
       <c r="F556" s="36"/>
     </row>
     <row r="557" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A557" s="124" t="s">
+      <c r="A557" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="B557" s="120"/>
-      <c r="C557" s="120"/>
-      <c r="D557" s="120"/>
-      <c r="E557" s="120"/>
-      <c r="F557" s="121"/>
+      <c r="B557" s="122"/>
+      <c r="C557" s="122"/>
+      <c r="D557" s="122"/>
+      <c r="E557" s="122"/>
+      <c r="F557" s="123"/>
     </row>
     <row r="558" spans="1:6" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B558" s="51" t="s">
@@ -25572,14 +25581,14 @@
       <c r="F558" s="36"/>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A559" s="122" t="s">
+      <c r="A559" s="120" t="s">
         <v>480</v>
       </c>
-      <c r="B559" s="122"/>
-      <c r="C559" s="122"/>
-      <c r="D559" s="122"/>
-      <c r="E559" s="122"/>
-      <c r="F559" s="122"/>
+      <c r="B559" s="120"/>
+      <c r="C559" s="120"/>
+      <c r="D559" s="120"/>
+      <c r="E559" s="120"/>
+      <c r="F559" s="120"/>
     </row>
     <row r="560" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B560" s="51" t="s">
@@ -25595,14 +25604,14 @@
       <c r="F560" s="36"/>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A561" s="122" t="s">
+      <c r="A561" s="120" t="s">
         <v>483</v>
       </c>
-      <c r="B561" s="122"/>
-      <c r="C561" s="122"/>
-      <c r="D561" s="122"/>
-      <c r="E561" s="122"/>
-      <c r="F561" s="122"/>
+      <c r="B561" s="120"/>
+      <c r="C561" s="120"/>
+      <c r="D561" s="120"/>
+      <c r="E561" s="120"/>
+      <c r="F561" s="120"/>
     </row>
     <row r="562" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B562" s="51" t="s">
@@ -25618,14 +25627,14 @@
       <c r="F562" s="36"/>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A563" s="122" t="s">
+      <c r="A563" s="120" t="s">
         <v>240</v>
       </c>
-      <c r="B563" s="122"/>
-      <c r="C563" s="122"/>
-      <c r="D563" s="122"/>
-      <c r="E563" s="122"/>
-      <c r="F563" s="122"/>
+      <c r="B563" s="120"/>
+      <c r="C563" s="120"/>
+      <c r="D563" s="120"/>
+      <c r="E563" s="120"/>
+      <c r="F563" s="120"/>
     </row>
     <row r="564" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B564" s="51" t="s">
@@ -25843,14 +25852,14 @@
       <c r="F579" s="53"/>
     </row>
     <row r="580" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A580" s="122" t="s">
+      <c r="A580" s="120" t="s">
         <v>192</v>
       </c>
-      <c r="B580" s="122"/>
-      <c r="C580" s="122"/>
-      <c r="D580" s="122"/>
-      <c r="E580" s="122"/>
-      <c r="F580" s="122"/>
+      <c r="B580" s="120"/>
+      <c r="C580" s="120"/>
+      <c r="D580" s="120"/>
+      <c r="E580" s="120"/>
+      <c r="F580" s="120"/>
     </row>
     <row r="581" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A581" s="34"/>
@@ -26021,12 +26030,12 @@
       <c r="F592" s="53"/>
     </row>
     <row r="593" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="120"/>
-      <c r="B593" s="120"/>
-      <c r="C593" s="120"/>
-      <c r="D593" s="120"/>
-      <c r="E593" s="120"/>
-      <c r="F593" s="121"/>
+      <c r="A593" s="122"/>
+      <c r="B593" s="122"/>
+      <c r="C593" s="122"/>
+      <c r="D593" s="122"/>
+      <c r="E593" s="122"/>
+      <c r="F593" s="123"/>
     </row>
     <row r="594" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A594" s="34"/>
@@ -26169,12 +26178,12 @@
       <c r="F603" s="53"/>
     </row>
     <row r="604" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A604" s="120"/>
-      <c r="B604" s="120"/>
-      <c r="C604" s="120"/>
-      <c r="D604" s="120"/>
-      <c r="E604" s="120"/>
-      <c r="F604" s="121"/>
+      <c r="A604" s="122"/>
+      <c r="B604" s="122"/>
+      <c r="C604" s="122"/>
+      <c r="D604" s="122"/>
+      <c r="E604" s="122"/>
+      <c r="F604" s="123"/>
     </row>
     <row r="605" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A605" s="34" t="s">
@@ -26321,12 +26330,12 @@
       <c r="F613" s="34"/>
     </row>
     <row r="614" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="120"/>
-      <c r="B614" s="120"/>
-      <c r="C614" s="120"/>
-      <c r="D614" s="120"/>
-      <c r="E614" s="120"/>
-      <c r="F614" s="121"/>
+      <c r="A614" s="122"/>
+      <c r="B614" s="122"/>
+      <c r="C614" s="122"/>
+      <c r="D614" s="122"/>
+      <c r="E614" s="122"/>
+      <c r="F614" s="123"/>
     </row>
     <row r="615" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A615" s="34"/>
@@ -26455,14 +26464,14 @@
       <c r="F623" s="34"/>
     </row>
     <row r="624" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A624" s="122" t="s">
+      <c r="A624" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="B624" s="122"/>
-      <c r="C624" s="122"/>
-      <c r="D624" s="122"/>
-      <c r="E624" s="122"/>
-      <c r="F624" s="122"/>
+      <c r="B624" s="120"/>
+      <c r="C624" s="120"/>
+      <c r="D624" s="120"/>
+      <c r="E624" s="120"/>
+      <c r="F624" s="120"/>
     </row>
     <row r="625" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A625" s="34"/>
@@ -27260,118 +27269,75 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" scale="60" topLeftCell="A4">
-      <selection activeCell="F13" sqref="F13"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" scale="85" topLeftCell="B1">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" scale="87" showPageBreaks="1" topLeftCell="A226">
-      <selection activeCell="F237" sqref="F237"/>
+    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" scale="85">
+      <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85">
-      <selection activeCell="G19" sqref="G19"/>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" scale="85" state="hidden">
+      <selection activeCell="A3" sqref="A3"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" scale="85">
+      <selection activeCell="F6" sqref="F6"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
     <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="55">
       <selection activeCell="C9" sqref="C9"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" scale="85">
-      <selection activeCell="F6" sqref="F6"/>
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85">
+      <selection activeCell="G19" sqref="G19"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" scale="85" state="hidden">
-      <selection activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" scale="87" showPageBreaks="1" topLeftCell="A226">
+      <selection activeCell="F237" sqref="F237"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" scale="85">
-      <selection activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" scale="60" topLeftCell="A4">
+      <selection activeCell="F13" sqref="F13"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" scale="85" topLeftCell="B1">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="133">
-    <mergeCell ref="A682:F682"/>
-    <mergeCell ref="A665:F665"/>
-    <mergeCell ref="A526:F526"/>
-    <mergeCell ref="A533:F533"/>
-    <mergeCell ref="A538:F538"/>
-    <mergeCell ref="A567:F567"/>
-    <mergeCell ref="A624:F624"/>
-    <mergeCell ref="A634:F634"/>
-    <mergeCell ref="A645:F645"/>
-    <mergeCell ref="A580:F580"/>
-    <mergeCell ref="A559:F559"/>
-    <mergeCell ref="A561:F561"/>
-    <mergeCell ref="A563:F563"/>
-    <mergeCell ref="A557:F557"/>
-    <mergeCell ref="A552:F552"/>
-    <mergeCell ref="A554:F554"/>
-    <mergeCell ref="A543:F543"/>
-    <mergeCell ref="A670:F670"/>
-    <mergeCell ref="A672:F672"/>
-    <mergeCell ref="A674:F674"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A473:F473"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A445:F445"/>
-    <mergeCell ref="A449:F449"/>
-    <mergeCell ref="A454:F454"/>
-    <mergeCell ref="A457:F457"/>
-    <mergeCell ref="A521:F521"/>
-    <mergeCell ref="A680:F680"/>
-    <mergeCell ref="A510:F510"/>
-    <mergeCell ref="A516:F516"/>
-    <mergeCell ref="A479:F479"/>
-    <mergeCell ref="A489:F489"/>
-    <mergeCell ref="A491:F491"/>
-    <mergeCell ref="A493:F493"/>
-    <mergeCell ref="A499:F499"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A678:F678"/>
-    <mergeCell ref="A405:F405"/>
-    <mergeCell ref="A407:F407"/>
-    <mergeCell ref="A409:F409"/>
-    <mergeCell ref="A461:F461"/>
-    <mergeCell ref="A465:F465"/>
-    <mergeCell ref="A426:F426"/>
-    <mergeCell ref="A396:F396"/>
-    <mergeCell ref="A399:F399"/>
-    <mergeCell ref="A401:F401"/>
-    <mergeCell ref="A403:F403"/>
-    <mergeCell ref="A414:F414"/>
-    <mergeCell ref="A417:F417"/>
-    <mergeCell ref="A420:F420"/>
-    <mergeCell ref="A423:F423"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A300:F300"/>
-    <mergeCell ref="A303:F303"/>
-    <mergeCell ref="A197:F197"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A175:F175"/>
-    <mergeCell ref="A243:F243"/>
-    <mergeCell ref="A234:F234"/>
-    <mergeCell ref="A266:F266"/>
-    <mergeCell ref="A269:F269"/>
-    <mergeCell ref="A216:F216"/>
-    <mergeCell ref="A225:F225"/>
-    <mergeCell ref="A253:F253"/>
-    <mergeCell ref="A273:F273"/>
-    <mergeCell ref="A276:F276"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:F293"/>
-    <mergeCell ref="A279:F279"/>
-    <mergeCell ref="A287:F287"/>
-    <mergeCell ref="A291:F291"/>
-    <mergeCell ref="A284:F284"/>
+    <mergeCell ref="A684:F684"/>
+    <mergeCell ref="A593:F593"/>
+    <mergeCell ref="A604:F604"/>
+    <mergeCell ref="A614:F614"/>
+    <mergeCell ref="A358:F358"/>
+    <mergeCell ref="A661:F661"/>
+    <mergeCell ref="A340:F340"/>
+    <mergeCell ref="A345:F345"/>
+    <mergeCell ref="A355:F355"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A360:F360"/>
+    <mergeCell ref="A658:F658"/>
+    <mergeCell ref="A378:F378"/>
+    <mergeCell ref="A365:F365"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="A372:F372"/>
+    <mergeCell ref="A374:F374"/>
+    <mergeCell ref="A389:F389"/>
+    <mergeCell ref="A411:F411"/>
+    <mergeCell ref="A391:F391"/>
+    <mergeCell ref="A394:F394"/>
+    <mergeCell ref="A380:F380"/>
+    <mergeCell ref="A387:F387"/>
+    <mergeCell ref="A376:F376"/>
+    <mergeCell ref="A337:F337"/>
+    <mergeCell ref="A305:F305"/>
+    <mergeCell ref="A314:F314"/>
+    <mergeCell ref="A320:F320"/>
+    <mergeCell ref="A327:F327"/>
+    <mergeCell ref="A309:F309"/>
+    <mergeCell ref="A317:F317"/>
+    <mergeCell ref="A323:F323"/>
+    <mergeCell ref="A334:F334"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A35:F35"/>
@@ -27396,39 +27362,82 @@
     <mergeCell ref="A116:F116"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A337:F337"/>
-    <mergeCell ref="A305:F305"/>
-    <mergeCell ref="A314:F314"/>
-    <mergeCell ref="A320:F320"/>
-    <mergeCell ref="A327:F327"/>
-    <mergeCell ref="A309:F309"/>
-    <mergeCell ref="A317:F317"/>
-    <mergeCell ref="A323:F323"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A684:F684"/>
-    <mergeCell ref="A593:F593"/>
-    <mergeCell ref="A604:F604"/>
-    <mergeCell ref="A614:F614"/>
-    <mergeCell ref="A358:F358"/>
-    <mergeCell ref="A661:F661"/>
-    <mergeCell ref="A340:F340"/>
-    <mergeCell ref="A345:F345"/>
-    <mergeCell ref="A355:F355"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A360:F360"/>
-    <mergeCell ref="A658:F658"/>
-    <mergeCell ref="A378:F378"/>
-    <mergeCell ref="A365:F365"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="A372:F372"/>
-    <mergeCell ref="A374:F374"/>
-    <mergeCell ref="A389:F389"/>
-    <mergeCell ref="A411:F411"/>
-    <mergeCell ref="A391:F391"/>
-    <mergeCell ref="A394:F394"/>
-    <mergeCell ref="A380:F380"/>
-    <mergeCell ref="A387:F387"/>
-    <mergeCell ref="A376:F376"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A300:F300"/>
+    <mergeCell ref="A303:F303"/>
+    <mergeCell ref="A197:F197"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A175:F175"/>
+    <mergeCell ref="A243:F243"/>
+    <mergeCell ref="A234:F234"/>
+    <mergeCell ref="A266:F266"/>
+    <mergeCell ref="A269:F269"/>
+    <mergeCell ref="A216:F216"/>
+    <mergeCell ref="A225:F225"/>
+    <mergeCell ref="A253:F253"/>
+    <mergeCell ref="A273:F273"/>
+    <mergeCell ref="A276:F276"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:F293"/>
+    <mergeCell ref="A279:F279"/>
+    <mergeCell ref="A287:F287"/>
+    <mergeCell ref="A291:F291"/>
+    <mergeCell ref="A284:F284"/>
+    <mergeCell ref="A405:F405"/>
+    <mergeCell ref="A407:F407"/>
+    <mergeCell ref="A409:F409"/>
+    <mergeCell ref="A461:F461"/>
+    <mergeCell ref="A465:F465"/>
+    <mergeCell ref="A426:F426"/>
+    <mergeCell ref="A396:F396"/>
+    <mergeCell ref="A399:F399"/>
+    <mergeCell ref="A401:F401"/>
+    <mergeCell ref="A403:F403"/>
+    <mergeCell ref="A414:F414"/>
+    <mergeCell ref="A417:F417"/>
+    <mergeCell ref="A420:F420"/>
+    <mergeCell ref="A423:F423"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A473:F473"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A445:F445"/>
+    <mergeCell ref="A449:F449"/>
+    <mergeCell ref="A454:F454"/>
+    <mergeCell ref="A457:F457"/>
+    <mergeCell ref="A521:F521"/>
+    <mergeCell ref="A680:F680"/>
+    <mergeCell ref="A510:F510"/>
+    <mergeCell ref="A516:F516"/>
+    <mergeCell ref="A479:F479"/>
+    <mergeCell ref="A489:F489"/>
+    <mergeCell ref="A491:F491"/>
+    <mergeCell ref="A493:F493"/>
+    <mergeCell ref="A499:F499"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A678:F678"/>
+    <mergeCell ref="A682:F682"/>
+    <mergeCell ref="A665:F665"/>
+    <mergeCell ref="A526:F526"/>
+    <mergeCell ref="A533:F533"/>
+    <mergeCell ref="A538:F538"/>
+    <mergeCell ref="A567:F567"/>
+    <mergeCell ref="A624:F624"/>
+    <mergeCell ref="A634:F634"/>
+    <mergeCell ref="A645:F645"/>
+    <mergeCell ref="A580:F580"/>
+    <mergeCell ref="A559:F559"/>
+    <mergeCell ref="A561:F561"/>
+    <mergeCell ref="A563:F563"/>
+    <mergeCell ref="A557:F557"/>
+    <mergeCell ref="A552:F552"/>
+    <mergeCell ref="A554:F554"/>
+    <mergeCell ref="A543:F543"/>
+    <mergeCell ref="A670:F670"/>
+    <mergeCell ref="A672:F672"/>
+    <mergeCell ref="A674:F674"/>
+    <mergeCell ref="A676:F676"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId3"/>
@@ -27439,21 +27448,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C71B05ED7860F1429BB192A8AD3ECF9C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7bb17ca7624675e957ee0f1a62aa5509">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1dc586d3-033a-453c-a736-0de408b0dcee" xmlns:ns4="da96f4a7-4178-4915-9502-40e1bdbdebc7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f4946a5cb97ee8e437c64f89eb7aa62" ns3:_="" ns4:_="">
     <xsd:import namespace="1dc586d3-033a-453c-a736-0de408b0dcee"/>
@@ -27676,24 +27670,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F03A4E3-7AEE-4350-9C0D-B148727606F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51AF712D-A5A0-4EDF-9D46-785D33BE3E6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28ED1B3B-119A-4870-957A-0D939EB4F5C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27710,4 +27702,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51AF712D-A5A0-4EDF-9D46-785D33BE3E6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F03A4E3-7AEE-4350-9C0D-B148727606F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Config/Release5.xlsx
+++ b/Config/Release5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejarcebido/Documents/Projects/Python/MeralcoOnline/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE7C5E0-BF2A-B043-8BE0-6BCF4E822D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4C8B16-3B8A-A943-A5AB-B11F5059B455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10380" yWindow="1920" windowWidth="18420" windowHeight="13580" tabRatio="673" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,14 +47,14 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yvi  Aligam - Personal View" guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Sheena Marie F. Diaz (CheQ Systems Inc.) - Personal View" guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="674" activeSheetId="4"/>
+    <customWorkbookView name="Ma. Diana D. Carbon (CheQ Systems Inc.) - Personal View" guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="2"/>
+    <customWorkbookView name="Ayezha Abanador (CheQ Systems Inc.) - Personal View" guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" mergeInterval="0" personalView="1" maximized="1" xWindow="70" yWindow="-8" windowWidth="1218" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Angelito P. Magat (CheQ Systems Inc.) - Personal View" guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="583" activeSheetId="2"/>
+    <customWorkbookView name="Laminuette Emata - Personal View" guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="673" activeSheetId="2"/>
+    <customWorkbookView name="Jerome Allan G. Florendo - Personal View" guid="{7089F64A-F77B-480F-9643-8730755F04D6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
     <customWorkbookView name="Ayezha Abanador - Personal View" guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" mergeInterval="0" personalView="1" maximized="1" xWindow="66" yWindow="-8" windowWidth="1222" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Jerome Allan G. Florendo - Personal View" guid="{7089F64A-F77B-480F-9643-8730755F04D6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Laminuette Emata - Personal View" guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="673" activeSheetId="2"/>
-    <customWorkbookView name="Angelito P. Magat (CheQ Systems Inc.) - Personal View" guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="583" activeSheetId="2"/>
-    <customWorkbookView name="Ayezha Abanador (CheQ Systems Inc.) - Personal View" guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" mergeInterval="0" personalView="1" maximized="1" xWindow="70" yWindow="-8" windowWidth="1218" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Ma. Diana D. Carbon (CheQ Systems Inc.) - Personal View" guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="2"/>
-    <customWorkbookView name="Sheena Marie F. Diaz (CheQ Systems Inc.) - Personal View" guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="674" activeSheetId="4"/>
-    <customWorkbookView name="Yvi  Aligam - Personal View" guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4605,8 +4605,8 @@
   </cellStyleXfs>
   <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4907,6 +4907,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4916,11 +4928,20 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4934,35 +4955,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4970,8 +4964,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6178,18 +6178,15 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}">
-      <selection activeCell="C17" sqref="C17"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}">
+      <selection activeCell="F15" sqref="F15"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}">
-      <selection activeCell="C4" sqref="C4"/>
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
+      <selection activeCell="D8" sqref="D7:D8"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}">
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}">
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
@@ -6197,16 +6194,19 @@
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}">
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
-      <selection activeCell="D8" sqref="D7:D8"/>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}">
-      <selection activeCell="F15" sqref="F15"/>
+    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}">
+      <selection activeCell="C4" sqref="C4"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}">
+      <selection activeCell="C17" sqref="C17"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -6225,8 +6225,8 @@
   </sheetPr>
   <dimension ref="A1:J631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B288" sqref="B288"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -6242,27 +6242,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
       <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="66"/>
     </row>
     <row r="3" spans="1:9" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6290,27 +6290,27 @@
       <c r="H3" s="66"/>
     </row>
     <row r="4" spans="1:9" s="27" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="I5" s="31" t="s">
         <v>24</v>
       </c>
@@ -6436,15 +6436,15 @@
       </c>
     </row>
     <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="105"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109"/>
     </row>
     <row r="13" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
@@ -6527,27 +6527,27 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
       <c r="H17" s="70"/>
     </row>
     <row r="18" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="103" t="s">
+      <c r="A18" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="105"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="109"/>
     </row>
     <row r="19" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="str">
@@ -7774,15 +7774,15 @@
       <c r="G90" s="36"/>
     </row>
     <row r="91" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="103" t="s">
+      <c r="A91" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="104"/>
-      <c r="C91" s="104"/>
-      <c r="D91" s="104"/>
-      <c r="E91" s="104"/>
-      <c r="F91" s="104"/>
-      <c r="G91" s="105"/>
+      <c r="B91" s="108"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="108"/>
+      <c r="F91" s="108"/>
+      <c r="G91" s="109"/>
     </row>
     <row r="92" spans="1:9" ht="23.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="32" t="s">
@@ -8419,15 +8419,15 @@
       <c r="G127" s="36"/>
     </row>
     <row r="128" spans="1:9" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="113" t="s">
+      <c r="A128" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="B128" s="114"/>
-      <c r="C128" s="114"/>
-      <c r="D128" s="114"/>
-      <c r="E128" s="114"/>
-      <c r="F128" s="114"/>
-      <c r="G128" s="114"/>
+      <c r="B128" s="104"/>
+      <c r="C128" s="104"/>
+      <c r="D128" s="104"/>
+      <c r="E128" s="104"/>
+      <c r="F128" s="104"/>
+      <c r="G128" s="104"/>
       <c r="H128" s="66"/>
     </row>
     <row r="129" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -9277,27 +9277,27 @@
       <c r="G176" s="36"/>
     </row>
     <row r="177" spans="1:10" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A177" s="106" t="s">
+      <c r="A177" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="B177" s="107"/>
-      <c r="C177" s="107"/>
-      <c r="D177" s="107"/>
-      <c r="E177" s="107"/>
-      <c r="F177" s="107"/>
-      <c r="G177" s="107"/>
+      <c r="B177" s="106"/>
+      <c r="C177" s="106"/>
+      <c r="D177" s="106"/>
+      <c r="E177" s="106"/>
+      <c r="F177" s="106"/>
+      <c r="G177" s="106"/>
       <c r="H177" s="70"/>
     </row>
     <row r="178" spans="1:10" s="38" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="115" t="s">
+      <c r="A178" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="B178" s="116"/>
-      <c r="C178" s="116"/>
-      <c r="D178" s="116"/>
-      <c r="E178" s="116"/>
-      <c r="F178" s="116"/>
-      <c r="G178" s="116"/>
+      <c r="B178" s="113"/>
+      <c r="C178" s="113"/>
+      <c r="D178" s="113"/>
+      <c r="E178" s="113"/>
+      <c r="F178" s="113"/>
+      <c r="G178" s="113"/>
       <c r="H178" s="70"/>
     </row>
     <row r="179" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -10139,15 +10139,15 @@
       </c>
     </row>
     <row r="224" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="113" t="s">
+      <c r="A224" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="B224" s="114"/>
-      <c r="C224" s="114"/>
-      <c r="D224" s="114"/>
-      <c r="E224" s="114"/>
-      <c r="F224" s="114"/>
-      <c r="G224" s="114"/>
+      <c r="B224" s="104"/>
+      <c r="C224" s="104"/>
+      <c r="D224" s="104"/>
+      <c r="E224" s="104"/>
+      <c r="F224" s="104"/>
+      <c r="G224" s="104"/>
     </row>
     <row r="225" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A225" s="32" t="str">
@@ -12102,15 +12102,15 @@
       <c r="G325" s="36"/>
     </row>
     <row r="326" spans="1:9" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="113" t="s">
+      <c r="A326" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="B326" s="114"/>
-      <c r="C326" s="114"/>
-      <c r="D326" s="114"/>
-      <c r="E326" s="114"/>
-      <c r="F326" s="114"/>
-      <c r="G326" s="114"/>
+      <c r="B326" s="104"/>
+      <c r="C326" s="104"/>
+      <c r="D326" s="104"/>
+      <c r="E326" s="104"/>
+      <c r="F326" s="104"/>
+      <c r="G326" s="104"/>
       <c r="H326" s="66"/>
     </row>
     <row r="327" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -12758,15 +12758,15 @@
       </c>
     </row>
     <row r="360" spans="1:9" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="113" t="s">
+      <c r="A360" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="B360" s="114"/>
-      <c r="C360" s="114"/>
-      <c r="D360" s="114"/>
-      <c r="E360" s="114"/>
-      <c r="F360" s="114"/>
-      <c r="G360" s="114"/>
+      <c r="B360" s="104"/>
+      <c r="C360" s="104"/>
+      <c r="D360" s="104"/>
+      <c r="E360" s="104"/>
+      <c r="F360" s="104"/>
+      <c r="G360" s="104"/>
       <c r="H360" s="66"/>
     </row>
     <row r="361" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -13437,15 +13437,15 @@
       </c>
     </row>
     <row r="397" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A397" s="106" t="s">
+      <c r="A397" s="105" t="s">
         <v>257</v>
       </c>
-      <c r="B397" s="107"/>
-      <c r="C397" s="107"/>
-      <c r="D397" s="107"/>
-      <c r="E397" s="107"/>
-      <c r="F397" s="107"/>
-      <c r="G397" s="107"/>
+      <c r="B397" s="106"/>
+      <c r="C397" s="106"/>
+      <c r="D397" s="106"/>
+      <c r="E397" s="106"/>
+      <c r="F397" s="106"/>
+      <c r="G397" s="106"/>
     </row>
     <row r="398" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A398" s="32" t="str">
@@ -13729,15 +13729,15 @@
       <c r="G412" s="36"/>
     </row>
     <row r="413" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="106" t="s">
+      <c r="A413" s="105" t="s">
         <v>277</v>
       </c>
-      <c r="B413" s="107"/>
-      <c r="C413" s="107"/>
-      <c r="D413" s="107"/>
-      <c r="E413" s="107"/>
-      <c r="F413" s="107"/>
-      <c r="G413" s="107"/>
+      <c r="B413" s="106"/>
+      <c r="C413" s="106"/>
+      <c r="D413" s="106"/>
+      <c r="E413" s="106"/>
+      <c r="F413" s="106"/>
+      <c r="G413" s="106"/>
     </row>
     <row r="414" spans="1:10" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A414" s="32" t="str">
@@ -13776,26 +13776,26 @@
       <c r="G415" s="36"/>
     </row>
     <row r="416" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="106" t="s">
+      <c r="A416" s="105" t="s">
         <v>281</v>
       </c>
-      <c r="B416" s="107"/>
-      <c r="C416" s="107"/>
-      <c r="D416" s="107"/>
-      <c r="E416" s="107"/>
-      <c r="F416" s="107"/>
-      <c r="G416" s="107"/>
+      <c r="B416" s="106"/>
+      <c r="C416" s="106"/>
+      <c r="D416" s="106"/>
+      <c r="E416" s="106"/>
+      <c r="F416" s="106"/>
+      <c r="G416" s="106"/>
     </row>
     <row r="417" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A417" s="103" t="s">
+      <c r="A417" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B417" s="104"/>
-      <c r="C417" s="104"/>
-      <c r="D417" s="104"/>
-      <c r="E417" s="104"/>
-      <c r="F417" s="104"/>
-      <c r="G417" s="105"/>
+      <c r="B417" s="108"/>
+      <c r="C417" s="108"/>
+      <c r="D417" s="108"/>
+      <c r="E417" s="108"/>
+      <c r="F417" s="108"/>
+      <c r="G417" s="109"/>
     </row>
     <row r="418" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A418" s="32" t="str">
@@ -13812,7 +13812,7 @@
       <c r="E418" s="46"/>
       <c r="F418" s="45"/>
       <c r="G418" s="26"/>
-      <c r="H418" s="112" t="s">
+      <c r="H418" s="1" t="s">
         <v>284</v>
       </c>
       <c r="I418" s="31" t="s">
@@ -13833,7 +13833,7 @@
         <v>146</v>
       </c>
       <c r="G419" s="36"/>
-      <c r="H419" s="112"/>
+      <c r="H419" s="1"/>
     </row>
     <row r="420" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A420" s="36"/>
@@ -13849,7 +13849,7 @@
         <v>146</v>
       </c>
       <c r="G420" s="36"/>
-      <c r="H420" s="112"/>
+      <c r="H420" s="1"/>
     </row>
     <row r="421" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A421" s="36"/>
@@ -13865,7 +13865,7 @@
         <v>146</v>
       </c>
       <c r="G421" s="36"/>
-      <c r="H421" s="112"/>
+      <c r="H421" s="1"/>
     </row>
     <row r="422" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A422" s="36"/>
@@ -13881,7 +13881,7 @@
         <v>146</v>
       </c>
       <c r="G422" s="36"/>
-      <c r="H422" s="112"/>
+      <c r="H422" s="1"/>
     </row>
     <row r="423" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A423" s="36"/>
@@ -13897,7 +13897,7 @@
         <v>146</v>
       </c>
       <c r="G423" s="36"/>
-      <c r="H423" s="112"/>
+      <c r="H423" s="1"/>
     </row>
     <row r="424" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A424" s="32" t="str">
@@ -13914,7 +13914,7 @@
       <c r="E424" s="46"/>
       <c r="F424" s="33"/>
       <c r="G424" s="37"/>
-      <c r="H424" s="112"/>
+      <c r="H424" s="1"/>
       <c r="I424" s="31" t="s">
         <v>146</v>
       </c>
@@ -13933,7 +13933,7 @@
         <v>146</v>
       </c>
       <c r="G425" s="36"/>
-      <c r="H425" s="112"/>
+      <c r="H425" s="1"/>
     </row>
     <row r="426" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A426" s="32" t="str">
@@ -13950,7 +13950,7 @@
       <c r="E426" s="46"/>
       <c r="F426" s="33"/>
       <c r="G426" s="37"/>
-      <c r="H426" s="112"/>
+      <c r="H426" s="1"/>
       <c r="I426" s="31" t="s">
         <v>146</v>
       </c>
@@ -13969,7 +13969,7 @@
         <v>146</v>
       </c>
       <c r="G427" s="36"/>
-      <c r="H427" s="112"/>
+      <c r="H427" s="1"/>
     </row>
     <row r="428" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A428" s="36"/>
@@ -13985,7 +13985,7 @@
         <v>146</v>
       </c>
       <c r="G428" s="36"/>
-      <c r="H428" s="112"/>
+      <c r="H428" s="1"/>
     </row>
     <row r="429" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A429" s="36"/>
@@ -14001,7 +14001,7 @@
         <v>146</v>
       </c>
       <c r="G429" s="36"/>
-      <c r="H429" s="112"/>
+      <c r="H429" s="1"/>
     </row>
     <row r="430" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A430" s="36"/>
@@ -14017,7 +14017,7 @@
         <v>146</v>
       </c>
       <c r="G430" s="36"/>
-      <c r="H430" s="112"/>
+      <c r="H430" s="1"/>
     </row>
     <row r="431" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A431" s="36"/>
@@ -14033,7 +14033,7 @@
         <v>146</v>
       </c>
       <c r="G431" s="36"/>
-      <c r="H431" s="112"/>
+      <c r="H431" s="1"/>
     </row>
     <row r="432" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A432" s="36"/>
@@ -14049,7 +14049,7 @@
         <v>146</v>
       </c>
       <c r="G432" s="36"/>
-      <c r="H432" s="112"/>
+      <c r="H432" s="1"/>
     </row>
     <row r="433" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A433" s="36"/>
@@ -14065,7 +14065,7 @@
         <v>146</v>
       </c>
       <c r="G433" s="36"/>
-      <c r="H433" s="112"/>
+      <c r="H433" s="1"/>
     </row>
     <row r="434" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A434" s="36"/>
@@ -14081,7 +14081,7 @@
         <v>146</v>
       </c>
       <c r="G434" s="36"/>
-      <c r="H434" s="112"/>
+      <c r="H434" s="1"/>
     </row>
     <row r="435" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A435" s="36"/>
@@ -14097,7 +14097,7 @@
         <v>146</v>
       </c>
       <c r="G435" s="36"/>
-      <c r="H435" s="112"/>
+      <c r="H435" s="1"/>
     </row>
     <row r="436" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A436" s="36"/>
@@ -14113,7 +14113,7 @@
         <v>146</v>
       </c>
       <c r="G436" s="36"/>
-      <c r="H436" s="112"/>
+      <c r="H436" s="1"/>
     </row>
     <row r="437" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A437" s="36"/>
@@ -14129,7 +14129,7 @@
         <v>146</v>
       </c>
       <c r="G437" s="36"/>
-      <c r="H437" s="112"/>
+      <c r="H437" s="1"/>
     </row>
     <row r="438" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A438" s="36"/>
@@ -14145,7 +14145,7 @@
         <v>146</v>
       </c>
       <c r="G438" s="36"/>
-      <c r="H438" s="112"/>
+      <c r="H438" s="1"/>
     </row>
     <row r="439" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A439" s="36"/>
@@ -14161,7 +14161,7 @@
         <v>146</v>
       </c>
       <c r="G439" s="36"/>
-      <c r="H439" s="112"/>
+      <c r="H439" s="1"/>
     </row>
     <row r="440" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A440" s="32" t="str">
@@ -14178,7 +14178,7 @@
       <c r="E440" s="46"/>
       <c r="F440" s="33"/>
       <c r="G440" s="37"/>
-      <c r="H440" s="112"/>
+      <c r="H440" s="1"/>
       <c r="I440" s="31" t="s">
         <v>146</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>146</v>
       </c>
       <c r="G441" s="36"/>
-      <c r="H441" s="112"/>
+      <c r="H441" s="1"/>
     </row>
     <row r="442" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A442" s="36"/>
@@ -14213,7 +14213,7 @@
         <v>146</v>
       </c>
       <c r="G442" s="36"/>
-      <c r="H442" s="112"/>
+      <c r="H442" s="1"/>
     </row>
     <row r="443" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A443" s="36"/>
@@ -14229,7 +14229,7 @@
         <v>146</v>
       </c>
       <c r="G443" s="36"/>
-      <c r="H443" s="112"/>
+      <c r="H443" s="1"/>
     </row>
     <row r="444" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A444" s="36"/>
@@ -14245,18 +14245,18 @@
         <v>146</v>
       </c>
       <c r="G444" s="36"/>
-      <c r="H444" s="112"/>
+      <c r="H444" s="1"/>
     </row>
     <row r="445" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="103" t="s">
+      <c r="A445" s="107" t="s">
         <v>336</v>
       </c>
-      <c r="B445" s="104"/>
-      <c r="C445" s="104"/>
-      <c r="D445" s="104"/>
-      <c r="E445" s="104"/>
-      <c r="F445" s="104"/>
-      <c r="G445" s="105"/>
+      <c r="B445" s="108"/>
+      <c r="C445" s="108"/>
+      <c r="D445" s="108"/>
+      <c r="E445" s="108"/>
+      <c r="F445" s="108"/>
+      <c r="G445" s="109"/>
     </row>
     <row r="446" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A446" s="32" t="str">
@@ -14683,7 +14683,7 @@
       <c r="E467" s="46"/>
       <c r="F467" s="33"/>
       <c r="G467" s="37"/>
-      <c r="H467" s="112" t="s">
+      <c r="H467" s="1" t="s">
         <v>284</v>
       </c>
       <c r="I467" s="31" t="s">
@@ -14702,7 +14702,7 @@
       <c r="E468" s="35"/>
       <c r="F468" s="35"/>
       <c r="G468" s="36"/>
-      <c r="H468" s="112"/>
+      <c r="H468" s="1"/>
     </row>
     <row r="469" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A469" s="36"/>
@@ -14718,7 +14718,7 @@
         <v>146</v>
       </c>
       <c r="G469" s="36"/>
-      <c r="H469" s="112"/>
+      <c r="H469" s="1"/>
     </row>
     <row r="470" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A470" s="36"/>
@@ -14734,7 +14734,7 @@
         <v>146</v>
       </c>
       <c r="G470" s="36"/>
-      <c r="H470" s="112"/>
+      <c r="H470" s="1"/>
     </row>
     <row r="471" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A471" s="36"/>
@@ -14750,7 +14750,7 @@
         <v>146</v>
       </c>
       <c r="G471" s="36"/>
-      <c r="H471" s="112"/>
+      <c r="H471" s="1"/>
     </row>
     <row r="472" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A472" s="36"/>
@@ -14766,7 +14766,7 @@
         <v>146</v>
       </c>
       <c r="G472" s="36"/>
-      <c r="H472" s="112"/>
+      <c r="H472" s="1"/>
     </row>
     <row r="473" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A473" s="36"/>
@@ -14782,7 +14782,7 @@
         <v>146</v>
       </c>
       <c r="G473" s="36"/>
-      <c r="H473" s="112"/>
+      <c r="H473" s="1"/>
     </row>
     <row r="474" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A474" s="32" t="str">
@@ -15214,7 +15214,7 @@
       <c r="E495" s="46"/>
       <c r="F495" s="33"/>
       <c r="G495" s="37"/>
-      <c r="H495" s="112" t="s">
+      <c r="H495" s="1" t="s">
         <v>284</v>
       </c>
       <c r="I495" s="31" t="s">
@@ -15233,7 +15233,7 @@
       <c r="E496" s="35"/>
       <c r="F496" s="35"/>
       <c r="G496" s="36"/>
-      <c r="H496" s="112"/>
+      <c r="H496" s="1"/>
     </row>
     <row r="497" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A497" s="36"/>
@@ -15249,7 +15249,7 @@
         <v>146</v>
       </c>
       <c r="G497" s="36"/>
-      <c r="H497" s="112"/>
+      <c r="H497" s="1"/>
     </row>
     <row r="498" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A498" s="36"/>
@@ -15265,7 +15265,7 @@
         <v>146</v>
       </c>
       <c r="G498" s="36"/>
-      <c r="H498" s="112"/>
+      <c r="H498" s="1"/>
     </row>
     <row r="499" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A499" s="36"/>
@@ -15281,7 +15281,7 @@
         <v>146</v>
       </c>
       <c r="G499" s="36"/>
-      <c r="H499" s="112"/>
+      <c r="H499" s="1"/>
     </row>
     <row r="500" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A500" s="36"/>
@@ -15297,7 +15297,7 @@
         <v>146</v>
       </c>
       <c r="G500" s="36"/>
-      <c r="H500" s="112"/>
+      <c r="H500" s="1"/>
     </row>
     <row r="501" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A501" s="36"/>
@@ -15313,29 +15313,29 @@
         <v>146</v>
       </c>
       <c r="G501" s="36"/>
-      <c r="H501" s="112"/>
+      <c r="H501" s="1"/>
     </row>
     <row r="502" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A502" s="106" t="s">
+      <c r="A502" s="105" t="s">
         <v>396</v>
       </c>
-      <c r="B502" s="107"/>
-      <c r="C502" s="107"/>
-      <c r="D502" s="107"/>
-      <c r="E502" s="107"/>
-      <c r="F502" s="107"/>
-      <c r="G502" s="107"/>
+      <c r="B502" s="106"/>
+      <c r="C502" s="106"/>
+      <c r="D502" s="106"/>
+      <c r="E502" s="106"/>
+      <c r="F502" s="106"/>
+      <c r="G502" s="106"/>
     </row>
     <row r="503" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A503" s="103" t="s">
+      <c r="A503" s="107" t="s">
         <v>397</v>
       </c>
-      <c r="B503" s="104"/>
-      <c r="C503" s="104"/>
-      <c r="D503" s="104"/>
-      <c r="E503" s="104"/>
-      <c r="F503" s="104"/>
-      <c r="G503" s="105"/>
+      <c r="B503" s="108"/>
+      <c r="C503" s="108"/>
+      <c r="D503" s="108"/>
+      <c r="E503" s="108"/>
+      <c r="F503" s="108"/>
+      <c r="G503" s="109"/>
     </row>
     <row r="504" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A504" s="32" t="str">
@@ -15365,12 +15365,12 @@
       <c r="B505" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="C505" s="108"/>
-      <c r="D505" s="109"/>
-      <c r="E505" s="109"/>
-      <c r="F505" s="110"/>
-      <c r="G505" s="110"/>
-      <c r="H505" s="111"/>
+      <c r="C505" s="115"/>
+      <c r="D505" s="116"/>
+      <c r="E505" s="116"/>
+      <c r="F505" s="117"/>
+      <c r="G505" s="117"/>
+      <c r="H505" s="118"/>
       <c r="I505" s="79"/>
       <c r="J505" s="80"/>
     </row>
@@ -15390,15 +15390,15 @@
       <c r="G506" s="36"/>
     </row>
     <row r="507" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A507" s="103" t="s">
+      <c r="A507" s="107" t="s">
         <v>403</v>
       </c>
-      <c r="B507" s="104"/>
-      <c r="C507" s="104"/>
-      <c r="D507" s="104"/>
-      <c r="E507" s="104"/>
-      <c r="F507" s="104"/>
-      <c r="G507" s="105"/>
+      <c r="B507" s="108"/>
+      <c r="C507" s="108"/>
+      <c r="D507" s="108"/>
+      <c r="E507" s="108"/>
+      <c r="F507" s="108"/>
+      <c r="G507" s="109"/>
     </row>
     <row r="508" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A508" s="32" t="str">
@@ -15502,26 +15502,26 @@
       <c r="G513" s="36"/>
     </row>
     <row r="514" spans="1:9" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A514" s="106" t="s">
+      <c r="A514" s="105" t="s">
         <v>410</v>
       </c>
-      <c r="B514" s="107"/>
-      <c r="C514" s="107"/>
-      <c r="D514" s="107"/>
-      <c r="E514" s="107"/>
-      <c r="F514" s="107"/>
-      <c r="G514" s="107"/>
+      <c r="B514" s="106"/>
+      <c r="C514" s="106"/>
+      <c r="D514" s="106"/>
+      <c r="E514" s="106"/>
+      <c r="F514" s="106"/>
+      <c r="G514" s="106"/>
     </row>
     <row r="515" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A515" s="103" t="s">
+      <c r="A515" s="107" t="s">
         <v>411</v>
       </c>
-      <c r="B515" s="104"/>
-      <c r="C515" s="104"/>
-      <c r="D515" s="104"/>
-      <c r="E515" s="104"/>
-      <c r="F515" s="104"/>
-      <c r="G515" s="105"/>
+      <c r="B515" s="108"/>
+      <c r="C515" s="108"/>
+      <c r="D515" s="108"/>
+      <c r="E515" s="108"/>
+      <c r="F515" s="108"/>
+      <c r="G515" s="109"/>
     </row>
     <row r="516" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A516" s="32" t="str">
@@ -16304,15 +16304,15 @@
       <c r="I555" s="48"/>
     </row>
     <row r="556" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="103" t="s">
+      <c r="A556" s="107" t="s">
         <v>429</v>
       </c>
-      <c r="B556" s="104"/>
-      <c r="C556" s="104"/>
-      <c r="D556" s="104"/>
-      <c r="E556" s="104"/>
-      <c r="F556" s="104"/>
-      <c r="G556" s="105"/>
+      <c r="B556" s="108"/>
+      <c r="C556" s="108"/>
+      <c r="D556" s="108"/>
+      <c r="E556" s="108"/>
+      <c r="F556" s="108"/>
+      <c r="G556" s="109"/>
     </row>
     <row r="557" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A557" s="32" t="str">
@@ -16550,15 +16550,15 @@
       </c>
     </row>
     <row r="569" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A569" s="103" t="s">
+      <c r="A569" s="107" t="s">
         <v>440</v>
       </c>
-      <c r="B569" s="104"/>
-      <c r="C569" s="104"/>
-      <c r="D569" s="104"/>
-      <c r="E569" s="104"/>
-      <c r="F569" s="104"/>
-      <c r="G569" s="105"/>
+      <c r="B569" s="108"/>
+      <c r="C569" s="108"/>
+      <c r="D569" s="108"/>
+      <c r="E569" s="108"/>
+      <c r="F569" s="108"/>
+      <c r="G569" s="109"/>
     </row>
     <row r="570" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A570" s="32" t="str">
@@ -16951,15 +16951,15 @@
       </c>
     </row>
     <row r="590" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="103" t="s">
+      <c r="A590" s="107" t="s">
         <v>453</v>
       </c>
-      <c r="B590" s="104"/>
-      <c r="C590" s="104"/>
-      <c r="D590" s="104"/>
-      <c r="E590" s="104"/>
-      <c r="F590" s="104"/>
-      <c r="G590" s="105"/>
+      <c r="B590" s="108"/>
+      <c r="C590" s="108"/>
+      <c r="D590" s="108"/>
+      <c r="E590" s="108"/>
+      <c r="F590" s="108"/>
+      <c r="G590" s="109"/>
     </row>
     <row r="591" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A591" s="32" t="str">
@@ -17236,15 +17236,15 @@
       </c>
     </row>
     <row r="605" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A605" s="103" t="s">
+      <c r="A605" s="107" t="s">
         <v>466</v>
       </c>
-      <c r="B605" s="104"/>
-      <c r="C605" s="104"/>
-      <c r="D605" s="104"/>
-      <c r="E605" s="104"/>
-      <c r="F605" s="104"/>
-      <c r="G605" s="105"/>
+      <c r="B605" s="108"/>
+      <c r="C605" s="108"/>
+      <c r="D605" s="108"/>
+      <c r="E605" s="108"/>
+      <c r="F605" s="108"/>
+      <c r="G605" s="109"/>
     </row>
     <row r="606" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A606" s="32" t="str">
@@ -17429,15 +17429,15 @@
       </c>
     </row>
     <row r="616" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A616" s="103" t="s">
+      <c r="A616" s="107" t="s">
         <v>477</v>
       </c>
-      <c r="B616" s="104"/>
-      <c r="C616" s="104"/>
-      <c r="D616" s="104"/>
-      <c r="E616" s="104"/>
-      <c r="F616" s="104"/>
-      <c r="G616" s="105"/>
+      <c r="B616" s="108"/>
+      <c r="C616" s="108"/>
+      <c r="D616" s="108"/>
+      <c r="E616" s="108"/>
+      <c r="F616" s="108"/>
+      <c r="G616" s="109"/>
     </row>
     <row r="617" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A617" s="32" t="str">
@@ -17528,10 +17528,10 @@
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F623" s="1" t="s">
+      <c r="F623" s="114" t="s">
         <v>484</v>
       </c>
-      <c r="G623" s="1"/>
+      <c r="G623" s="114"/>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F624" s="49" t="s">
@@ -17664,66 +17664,48 @@
   <autoFilter ref="A3:I3" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <dataConsolidate/>
   <customSheetViews>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" hiddenRows="1">
-      <selection activeCell="A52" sqref="A52"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" hiddenRows="1">
+      <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" topLeftCell="A16">
+      <selection activeCell="B40" sqref="B40"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85" topLeftCell="A4">
+      <selection activeCell="E13" sqref="E13"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="85">
+      <selection activeCell="B103" sqref="B103"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" showPageBreaks="1">
+      <selection activeCell="E129" sqref="E129"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+    </customSheetView>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" showPageBreaks="1">
+      <selection sqref="A1:D1"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
     </customSheetView>
     <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" hiddenRows="1">
       <selection activeCell="B8" sqref="B8"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" showPageBreaks="1">
-      <selection sqref="A1:D1"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" showPageBreaks="1">
-      <selection activeCell="E129" sqref="E129"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="85">
-      <selection activeCell="B103" sqref="B103"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
-    </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85" topLeftCell="A4">
-      <selection activeCell="E13" sqref="E13"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
-    </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" topLeftCell="A16">
-      <selection activeCell="B40" sqref="B40"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
     </customSheetView>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" hiddenRows="1">
-      <selection activeCell="B5" sqref="B5"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" hiddenRows="1">
+      <selection activeCell="A52" sqref="A52"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="34">
-    <mergeCell ref="H467:H473"/>
-    <mergeCell ref="H495:H501"/>
-    <mergeCell ref="A360:G360"/>
-    <mergeCell ref="A326:G326"/>
-    <mergeCell ref="A397:G397"/>
-    <mergeCell ref="A445:G445"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A177:G177"/>
-    <mergeCell ref="A224:G224"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A128:G128"/>
-    <mergeCell ref="A178:G178"/>
     <mergeCell ref="F623:G623"/>
     <mergeCell ref="A417:G417"/>
     <mergeCell ref="A413:G413"/>
@@ -17740,6 +17722,24 @@
     <mergeCell ref="A416:G416"/>
     <mergeCell ref="C505:H505"/>
     <mergeCell ref="H418:H444"/>
+    <mergeCell ref="A177:G177"/>
+    <mergeCell ref="A224:G224"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A128:G128"/>
+    <mergeCell ref="A178:G178"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="H467:H473"/>
+    <mergeCell ref="H495:H501"/>
+    <mergeCell ref="A360:G360"/>
+    <mergeCell ref="A326:G326"/>
+    <mergeCell ref="A397:G397"/>
+    <mergeCell ref="A445:G445"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="F450:F476 F388:F392 F379:F381 F394:F395 F478:F516 F520:F597 F272 F277 F282 F287 F292 F297 F302 F306 F311 F316 F321 F326:F377 F1:F230 F599:F1048576 F232:F267 F397:F448">
@@ -18167,11 +18167,11 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" state="hidden">
       <selection activeCell="K30" sqref="K30"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" state="hidden">
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
       <selection activeCell="K30" sqref="K30"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
@@ -18190,8 +18190,8 @@
   </sheetPr>
   <dimension ref="A1:F685"/>
   <sheetViews>
-    <sheetView topLeftCell="A236" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="A217" sqref="A217"/>
+    <sheetView topLeftCell="A249" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="A253" sqref="A253:F253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="65.33203125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -21430,14 +21430,14 @@
       <c r="F233" s="34"/>
     </row>
     <row r="234" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="120" t="s">
+      <c r="A234" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="B234" s="120"/>
-      <c r="C234" s="120"/>
-      <c r="D234" s="120"/>
-      <c r="E234" s="120"/>
-      <c r="F234" s="120"/>
+      <c r="B234" s="122"/>
+      <c r="C234" s="122"/>
+      <c r="D234" s="122"/>
+      <c r="E234" s="122"/>
+      <c r="F234" s="122"/>
     </row>
     <row r="235" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A235" s="34"/>
@@ -21686,7 +21686,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="119" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B253" s="119"/>
       <c r="C253" s="119"/>
@@ -21901,7 +21901,7 @@
       <c r="F268" s="34"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A269" s="124" t="s">
+      <c r="A269" s="123" t="s">
         <v>34</v>
       </c>
       <c r="B269" s="119"/>
@@ -21953,7 +21953,7 @@
       <c r="F272" s="35"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273" s="124" t="s">
+      <c r="A273" s="123" t="s">
         <v>37</v>
       </c>
       <c r="B273" s="119"/>
@@ -21991,7 +21991,7 @@
       <c r="F275" s="34"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A276" s="124" t="s">
+      <c r="A276" s="123" t="s">
         <v>40</v>
       </c>
       <c r="B276" s="119"/>
@@ -23299,12 +23299,12 @@
       <c r="F379" s="36"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A380" s="120"/>
-      <c r="B380" s="120"/>
-      <c r="C380" s="120"/>
-      <c r="D380" s="120"/>
-      <c r="E380" s="120"/>
-      <c r="F380" s="120"/>
+      <c r="A380" s="122"/>
+      <c r="B380" s="122"/>
+      <c r="C380" s="122"/>
+      <c r="D380" s="122"/>
+      <c r="E380" s="122"/>
+      <c r="F380" s="122"/>
     </row>
     <row r="381" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B381" s="51" t="s">
@@ -23385,12 +23385,12 @@
       <c r="F386" s="36"/>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A387" s="120"/>
-      <c r="B387" s="120"/>
-      <c r="C387" s="120"/>
-      <c r="D387" s="120"/>
-      <c r="E387" s="120"/>
-      <c r="F387" s="120"/>
+      <c r="A387" s="122"/>
+      <c r="B387" s="122"/>
+      <c r="C387" s="122"/>
+      <c r="D387" s="122"/>
+      <c r="E387" s="122"/>
+      <c r="F387" s="122"/>
     </row>
     <row r="388" spans="1:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B388" s="51" t="s">
@@ -23406,12 +23406,12 @@
       <c r="F388" s="36"/>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A389" s="120"/>
-      <c r="B389" s="120"/>
-      <c r="C389" s="120"/>
-      <c r="D389" s="120"/>
-      <c r="E389" s="120"/>
-      <c r="F389" s="120"/>
+      <c r="A389" s="122"/>
+      <c r="B389" s="122"/>
+      <c r="C389" s="122"/>
+      <c r="D389" s="122"/>
+      <c r="E389" s="122"/>
+      <c r="F389" s="122"/>
     </row>
     <row r="390" spans="1:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B390" s="51" t="s">
@@ -25499,14 +25499,14 @@
       <c r="F551" s="53"/>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A552" s="120" t="s">
+      <c r="A552" s="122" t="s">
         <v>275</v>
       </c>
-      <c r="B552" s="120"/>
-      <c r="C552" s="120"/>
-      <c r="D552" s="120"/>
-      <c r="E552" s="120"/>
-      <c r="F552" s="120"/>
+      <c r="B552" s="122"/>
+      <c r="C552" s="122"/>
+      <c r="D552" s="122"/>
+      <c r="E552" s="122"/>
+      <c r="F552" s="122"/>
     </row>
     <row r="553" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B553" s="9" t="s">
@@ -25522,14 +25522,14 @@
       <c r="F553" s="36"/>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A554" s="120" t="s">
+      <c r="A554" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="B554" s="120"/>
-      <c r="C554" s="120"/>
-      <c r="D554" s="120"/>
-      <c r="E554" s="120"/>
-      <c r="F554" s="120"/>
+      <c r="B554" s="122"/>
+      <c r="C554" s="122"/>
+      <c r="D554" s="122"/>
+      <c r="E554" s="122"/>
+      <c r="F554" s="122"/>
     </row>
     <row r="555" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B555" s="51" t="s">
@@ -25558,14 +25558,14 @@
       <c r="F556" s="36"/>
     </row>
     <row r="557" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A557" s="121" t="s">
+      <c r="A557" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="B557" s="122"/>
-      <c r="C557" s="122"/>
-      <c r="D557" s="122"/>
-      <c r="E557" s="122"/>
-      <c r="F557" s="123"/>
+      <c r="B557" s="120"/>
+      <c r="C557" s="120"/>
+      <c r="D557" s="120"/>
+      <c r="E557" s="120"/>
+      <c r="F557" s="121"/>
     </row>
     <row r="558" spans="1:6" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B558" s="51" t="s">
@@ -25581,14 +25581,14 @@
       <c r="F558" s="36"/>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A559" s="120" t="s">
+      <c r="A559" s="122" t="s">
         <v>480</v>
       </c>
-      <c r="B559" s="120"/>
-      <c r="C559" s="120"/>
-      <c r="D559" s="120"/>
-      <c r="E559" s="120"/>
-      <c r="F559" s="120"/>
+      <c r="B559" s="122"/>
+      <c r="C559" s="122"/>
+      <c r="D559" s="122"/>
+      <c r="E559" s="122"/>
+      <c r="F559" s="122"/>
     </row>
     <row r="560" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B560" s="51" t="s">
@@ -25604,14 +25604,14 @@
       <c r="F560" s="36"/>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A561" s="120" t="s">
+      <c r="A561" s="122" t="s">
         <v>483</v>
       </c>
-      <c r="B561" s="120"/>
-      <c r="C561" s="120"/>
-      <c r="D561" s="120"/>
-      <c r="E561" s="120"/>
-      <c r="F561" s="120"/>
+      <c r="B561" s="122"/>
+      <c r="C561" s="122"/>
+      <c r="D561" s="122"/>
+      <c r="E561" s="122"/>
+      <c r="F561" s="122"/>
     </row>
     <row r="562" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B562" s="51" t="s">
@@ -25627,14 +25627,14 @@
       <c r="F562" s="36"/>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A563" s="120" t="s">
+      <c r="A563" s="122" t="s">
         <v>240</v>
       </c>
-      <c r="B563" s="120"/>
-      <c r="C563" s="120"/>
-      <c r="D563" s="120"/>
-      <c r="E563" s="120"/>
-      <c r="F563" s="120"/>
+      <c r="B563" s="122"/>
+      <c r="C563" s="122"/>
+      <c r="D563" s="122"/>
+      <c r="E563" s="122"/>
+      <c r="F563" s="122"/>
     </row>
     <row r="564" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B564" s="51" t="s">
@@ -25852,14 +25852,14 @@
       <c r="F579" s="53"/>
     </row>
     <row r="580" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A580" s="120" t="s">
+      <c r="A580" s="122" t="s">
         <v>192</v>
       </c>
-      <c r="B580" s="120"/>
-      <c r="C580" s="120"/>
-      <c r="D580" s="120"/>
-      <c r="E580" s="120"/>
-      <c r="F580" s="120"/>
+      <c r="B580" s="122"/>
+      <c r="C580" s="122"/>
+      <c r="D580" s="122"/>
+      <c r="E580" s="122"/>
+      <c r="F580" s="122"/>
     </row>
     <row r="581" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A581" s="34"/>
@@ -26030,12 +26030,12 @@
       <c r="F592" s="53"/>
     </row>
     <row r="593" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="122"/>
-      <c r="B593" s="122"/>
-      <c r="C593" s="122"/>
-      <c r="D593" s="122"/>
-      <c r="E593" s="122"/>
-      <c r="F593" s="123"/>
+      <c r="A593" s="120"/>
+      <c r="B593" s="120"/>
+      <c r="C593" s="120"/>
+      <c r="D593" s="120"/>
+      <c r="E593" s="120"/>
+      <c r="F593" s="121"/>
     </row>
     <row r="594" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A594" s="34"/>
@@ -26178,12 +26178,12 @@
       <c r="F603" s="53"/>
     </row>
     <row r="604" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A604" s="122"/>
-      <c r="B604" s="122"/>
-      <c r="C604" s="122"/>
-      <c r="D604" s="122"/>
-      <c r="E604" s="122"/>
-      <c r="F604" s="123"/>
+      <c r="A604" s="120"/>
+      <c r="B604" s="120"/>
+      <c r="C604" s="120"/>
+      <c r="D604" s="120"/>
+      <c r="E604" s="120"/>
+      <c r="F604" s="121"/>
     </row>
     <row r="605" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A605" s="34" t="s">
@@ -26330,12 +26330,12 @@
       <c r="F613" s="34"/>
     </row>
     <row r="614" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="122"/>
-      <c r="B614" s="122"/>
-      <c r="C614" s="122"/>
-      <c r="D614" s="122"/>
-      <c r="E614" s="122"/>
-      <c r="F614" s="123"/>
+      <c r="A614" s="120"/>
+      <c r="B614" s="120"/>
+      <c r="C614" s="120"/>
+      <c r="D614" s="120"/>
+      <c r="E614" s="120"/>
+      <c r="F614" s="121"/>
     </row>
     <row r="615" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A615" s="34"/>
@@ -26464,14 +26464,14 @@
       <c r="F623" s="34"/>
     </row>
     <row r="624" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A624" s="120" t="s">
+      <c r="A624" s="122" t="s">
         <v>205</v>
       </c>
-      <c r="B624" s="120"/>
-      <c r="C624" s="120"/>
-      <c r="D624" s="120"/>
-      <c r="E624" s="120"/>
-      <c r="F624" s="120"/>
+      <c r="B624" s="122"/>
+      <c r="C624" s="122"/>
+      <c r="D624" s="122"/>
+      <c r="E624" s="122"/>
+      <c r="F624" s="122"/>
     </row>
     <row r="625" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A625" s="34"/>
@@ -27269,42 +27269,151 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" scale="85" topLeftCell="B1">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" scale="60" topLeftCell="A4">
+      <selection activeCell="F13" sqref="F13"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" scale="87" showPageBreaks="1" topLeftCell="A226">
+      <selection activeCell="F237" sqref="F237"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85">
+      <selection activeCell="G19" sqref="G19"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="55">
+      <selection activeCell="C9" sqref="C9"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" scale="85">
+      <selection activeCell="F6" sqref="F6"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" scale="85" state="hidden">
+      <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
     <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" scale="85">
       <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" scale="85" state="hidden">
-      <selection activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" scale="85" topLeftCell="B1">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" scale="85">
-      <selection activeCell="F6" sqref="F6"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="55">
-      <selection activeCell="C9" sqref="C9"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85">
-      <selection activeCell="G19" sqref="G19"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" scale="87" showPageBreaks="1" topLeftCell="A226">
-      <selection activeCell="F237" sqref="F237"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" scale="60" topLeftCell="A4">
-      <selection activeCell="F13" sqref="F13"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="133">
+    <mergeCell ref="A682:F682"/>
+    <mergeCell ref="A665:F665"/>
+    <mergeCell ref="A526:F526"/>
+    <mergeCell ref="A533:F533"/>
+    <mergeCell ref="A538:F538"/>
+    <mergeCell ref="A567:F567"/>
+    <mergeCell ref="A624:F624"/>
+    <mergeCell ref="A634:F634"/>
+    <mergeCell ref="A645:F645"/>
+    <mergeCell ref="A580:F580"/>
+    <mergeCell ref="A559:F559"/>
+    <mergeCell ref="A561:F561"/>
+    <mergeCell ref="A563:F563"/>
+    <mergeCell ref="A557:F557"/>
+    <mergeCell ref="A552:F552"/>
+    <mergeCell ref="A554:F554"/>
+    <mergeCell ref="A543:F543"/>
+    <mergeCell ref="A670:F670"/>
+    <mergeCell ref="A672:F672"/>
+    <mergeCell ref="A674:F674"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A473:F473"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A445:F445"/>
+    <mergeCell ref="A449:F449"/>
+    <mergeCell ref="A454:F454"/>
+    <mergeCell ref="A457:F457"/>
+    <mergeCell ref="A521:F521"/>
+    <mergeCell ref="A680:F680"/>
+    <mergeCell ref="A510:F510"/>
+    <mergeCell ref="A516:F516"/>
+    <mergeCell ref="A479:F479"/>
+    <mergeCell ref="A489:F489"/>
+    <mergeCell ref="A491:F491"/>
+    <mergeCell ref="A493:F493"/>
+    <mergeCell ref="A499:F499"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A678:F678"/>
+    <mergeCell ref="A405:F405"/>
+    <mergeCell ref="A407:F407"/>
+    <mergeCell ref="A409:F409"/>
+    <mergeCell ref="A461:F461"/>
+    <mergeCell ref="A465:F465"/>
+    <mergeCell ref="A426:F426"/>
+    <mergeCell ref="A396:F396"/>
+    <mergeCell ref="A399:F399"/>
+    <mergeCell ref="A401:F401"/>
+    <mergeCell ref="A403:F403"/>
+    <mergeCell ref="A414:F414"/>
+    <mergeCell ref="A417:F417"/>
+    <mergeCell ref="A420:F420"/>
+    <mergeCell ref="A423:F423"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A300:F300"/>
+    <mergeCell ref="A303:F303"/>
+    <mergeCell ref="A197:F197"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A175:F175"/>
+    <mergeCell ref="A243:F243"/>
+    <mergeCell ref="A234:F234"/>
+    <mergeCell ref="A266:F266"/>
+    <mergeCell ref="A269:F269"/>
+    <mergeCell ref="A216:F216"/>
+    <mergeCell ref="A225:F225"/>
+    <mergeCell ref="A253:F253"/>
+    <mergeCell ref="A273:F273"/>
+    <mergeCell ref="A276:F276"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:F293"/>
+    <mergeCell ref="A279:F279"/>
+    <mergeCell ref="A287:F287"/>
+    <mergeCell ref="A291:F291"/>
+    <mergeCell ref="A284:F284"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="A187:F187"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A337:F337"/>
+    <mergeCell ref="A305:F305"/>
+    <mergeCell ref="A314:F314"/>
+    <mergeCell ref="A320:F320"/>
+    <mergeCell ref="A327:F327"/>
+    <mergeCell ref="A309:F309"/>
+    <mergeCell ref="A317:F317"/>
+    <mergeCell ref="A323:F323"/>
+    <mergeCell ref="A334:F334"/>
     <mergeCell ref="A684:F684"/>
     <mergeCell ref="A593:F593"/>
     <mergeCell ref="A604:F604"/>
@@ -27329,115 +27438,6 @@
     <mergeCell ref="A380:F380"/>
     <mergeCell ref="A387:F387"/>
     <mergeCell ref="A376:F376"/>
-    <mergeCell ref="A337:F337"/>
-    <mergeCell ref="A305:F305"/>
-    <mergeCell ref="A314:F314"/>
-    <mergeCell ref="A320:F320"/>
-    <mergeCell ref="A327:F327"/>
-    <mergeCell ref="A309:F309"/>
-    <mergeCell ref="A317:F317"/>
-    <mergeCell ref="A323:F323"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="A187:F187"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A146:F146"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A300:F300"/>
-    <mergeCell ref="A303:F303"/>
-    <mergeCell ref="A197:F197"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A175:F175"/>
-    <mergeCell ref="A243:F243"/>
-    <mergeCell ref="A234:F234"/>
-    <mergeCell ref="A266:F266"/>
-    <mergeCell ref="A269:F269"/>
-    <mergeCell ref="A216:F216"/>
-    <mergeCell ref="A225:F225"/>
-    <mergeCell ref="A253:F253"/>
-    <mergeCell ref="A273:F273"/>
-    <mergeCell ref="A276:F276"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:F293"/>
-    <mergeCell ref="A279:F279"/>
-    <mergeCell ref="A287:F287"/>
-    <mergeCell ref="A291:F291"/>
-    <mergeCell ref="A284:F284"/>
-    <mergeCell ref="A405:F405"/>
-    <mergeCell ref="A407:F407"/>
-    <mergeCell ref="A409:F409"/>
-    <mergeCell ref="A461:F461"/>
-    <mergeCell ref="A465:F465"/>
-    <mergeCell ref="A426:F426"/>
-    <mergeCell ref="A396:F396"/>
-    <mergeCell ref="A399:F399"/>
-    <mergeCell ref="A401:F401"/>
-    <mergeCell ref="A403:F403"/>
-    <mergeCell ref="A414:F414"/>
-    <mergeCell ref="A417:F417"/>
-    <mergeCell ref="A420:F420"/>
-    <mergeCell ref="A423:F423"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A473:F473"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A445:F445"/>
-    <mergeCell ref="A449:F449"/>
-    <mergeCell ref="A454:F454"/>
-    <mergeCell ref="A457:F457"/>
-    <mergeCell ref="A521:F521"/>
-    <mergeCell ref="A680:F680"/>
-    <mergeCell ref="A510:F510"/>
-    <mergeCell ref="A516:F516"/>
-    <mergeCell ref="A479:F479"/>
-    <mergeCell ref="A489:F489"/>
-    <mergeCell ref="A491:F491"/>
-    <mergeCell ref="A493:F493"/>
-    <mergeCell ref="A499:F499"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A678:F678"/>
-    <mergeCell ref="A682:F682"/>
-    <mergeCell ref="A665:F665"/>
-    <mergeCell ref="A526:F526"/>
-    <mergeCell ref="A533:F533"/>
-    <mergeCell ref="A538:F538"/>
-    <mergeCell ref="A567:F567"/>
-    <mergeCell ref="A624:F624"/>
-    <mergeCell ref="A634:F634"/>
-    <mergeCell ref="A645:F645"/>
-    <mergeCell ref="A580:F580"/>
-    <mergeCell ref="A559:F559"/>
-    <mergeCell ref="A561:F561"/>
-    <mergeCell ref="A563:F563"/>
-    <mergeCell ref="A557:F557"/>
-    <mergeCell ref="A552:F552"/>
-    <mergeCell ref="A554:F554"/>
-    <mergeCell ref="A543:F543"/>
-    <mergeCell ref="A670:F670"/>
-    <mergeCell ref="A672:F672"/>
-    <mergeCell ref="A674:F674"/>
-    <mergeCell ref="A676:F676"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId3"/>
@@ -27448,6 +27448,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C71B05ED7860F1429BB192A8AD3ECF9C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7bb17ca7624675e957ee0f1a62aa5509">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1dc586d3-033a-453c-a736-0de408b0dcee" xmlns:ns4="da96f4a7-4178-4915-9502-40e1bdbdebc7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f4946a5cb97ee8e437c64f89eb7aa62" ns3:_="" ns4:_="">
     <xsd:import namespace="1dc586d3-033a-453c-a736-0de408b0dcee"/>
@@ -27670,22 +27685,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F03A4E3-7AEE-4350-9C0D-B148727606F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51AF712D-A5A0-4EDF-9D46-785D33BE3E6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28ED1B3B-119A-4870-957A-0D939EB4F5C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27702,21 +27719,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51AF712D-A5A0-4EDF-9D46-785D33BE3E6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F03A4E3-7AEE-4350-9C0D-B148727606F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Config/Release5.xlsx
+++ b/Config/Release5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lvgalvez/Documents/GitHub/MeralcoOnline/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4BC187-4F3F-9E43-B560-B5A07AC05712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42802F8C-0F15-7F45-ACD1-91E3FB03941C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="673" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="673" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="1" r:id="rId1"/>
@@ -47,14 +47,14 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ayezha Abanador - Personal View" guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" mergeInterval="0" personalView="1" maximized="1" xWindow="66" yWindow="-8" windowWidth="1222" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Jerome Allan G. Florendo - Personal View" guid="{7089F64A-F77B-480F-9643-8730755F04D6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Laminuette Emata - Personal View" guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="673" activeSheetId="2"/>
+    <customWorkbookView name="Angelito P. Magat (CheQ Systems Inc.) - Personal View" guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="583" activeSheetId="2"/>
+    <customWorkbookView name="Ayezha Abanador (CheQ Systems Inc.) - Personal View" guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" mergeInterval="0" personalView="1" maximized="1" xWindow="70" yWindow="-8" windowWidth="1218" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Ma. Diana D. Carbon (CheQ Systems Inc.) - Personal View" guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="2"/>
+    <customWorkbookView name="Sheena Marie F. Diaz (CheQ Systems Inc.) - Personal View" guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="674" activeSheetId="4"/>
     <customWorkbookView name="Yvi  Aligam - Personal View" guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Sheena Marie F. Diaz (CheQ Systems Inc.) - Personal View" guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="674" activeSheetId="4"/>
-    <customWorkbookView name="Ma. Diana D. Carbon (CheQ Systems Inc.) - Personal View" guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="2"/>
-    <customWorkbookView name="Ayezha Abanador (CheQ Systems Inc.) - Personal View" guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" mergeInterval="0" personalView="1" maximized="1" xWindow="70" yWindow="-8" windowWidth="1218" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Angelito P. Magat (CheQ Systems Inc.) - Personal View" guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="583" activeSheetId="2"/>
-    <customWorkbookView name="Laminuette Emata - Personal View" guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="673" activeSheetId="2"/>
-    <customWorkbookView name="Jerome Allan G. Florendo - Personal View" guid="{7089F64A-F77B-480F-9643-8730755F04D6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Ayezha Abanador - Personal View" guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" mergeInterval="0" personalView="1" maximized="1" xWindow="66" yWindow="-8" windowWidth="1222" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3962" uniqueCount="1137">
   <si>
     <t>Revision History</t>
   </si>
@@ -4087,6 +4087,21 @@
   </si>
   <si>
     <t>TC095</t>
+  </si>
+  <si>
+    <t>TC079</t>
+  </si>
+  <si>
+    <t>TC080</t>
+  </si>
+  <si>
+    <t>TS095</t>
+  </si>
+  <si>
+    <t>TS097</t>
+  </si>
+  <si>
+    <t>TS096</t>
   </si>
 </sst>
 </file>
@@ -4527,8 +4542,8 @@
   </cellStyleXfs>
   <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4829,18 +4844,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4850,20 +4853,11 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4877,8 +4871,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4886,14 +4907,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6100,15 +6115,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}">
-      <selection activeCell="F15" sqref="F15"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}">
+      <selection activeCell="C17" sqref="C17"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
-      <selection activeCell="D8" sqref="D7:D8"/>
+    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}">
+      <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}">
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}">
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
@@ -6116,19 +6134,16 @@
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}">
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}">
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
+      <selection activeCell="D8" sqref="D7:D8"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}">
-      <selection activeCell="C4" sqref="C4"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}">
-      <selection activeCell="C17" sqref="C17"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}">
+      <selection activeCell="F15" sqref="F15"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -6147,8 +6162,8 @@
   </sheetPr>
   <dimension ref="A1:J631"/>
   <sheetViews>
-    <sheetView topLeftCell="A332" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B349" sqref="B349"/>
+    <sheetView tabSelected="1" topLeftCell="A322" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C349" sqref="C349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -6164,27 +6179,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
       <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
       <c r="H2" s="66"/>
     </row>
     <row r="3" spans="1:9" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6212,27 +6227,27 @@
       <c r="H3" s="66"/>
     </row>
     <row r="4" spans="1:9" s="27" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
       <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="105"/>
       <c r="I5" s="31" t="s">
         <v>24</v>
       </c>
@@ -6358,15 +6373,15 @@
       </c>
     </row>
     <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="109"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="105"/>
     </row>
     <row r="13" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
@@ -6449,27 +6464,27 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
       <c r="H17" s="70"/>
     </row>
     <row r="18" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="109"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="105"/>
     </row>
     <row r="19" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="str">
@@ -7696,15 +7711,15 @@
       <c r="G90" s="36"/>
     </row>
     <row r="91" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="107" t="s">
+      <c r="A91" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="108"/>
-      <c r="G91" s="109"/>
+      <c r="B91" s="104"/>
+      <c r="C91" s="104"/>
+      <c r="D91" s="104"/>
+      <c r="E91" s="104"/>
+      <c r="F91" s="104"/>
+      <c r="G91" s="105"/>
     </row>
     <row r="92" spans="1:9" ht="23.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="32" t="s">
@@ -8341,15 +8356,15 @@
       <c r="G127" s="36"/>
     </row>
     <row r="128" spans="1:9" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="103" t="s">
+      <c r="A128" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="B128" s="104"/>
-      <c r="C128" s="104"/>
-      <c r="D128" s="104"/>
-      <c r="E128" s="104"/>
-      <c r="F128" s="104"/>
-      <c r="G128" s="104"/>
+      <c r="B128" s="114"/>
+      <c r="C128" s="114"/>
+      <c r="D128" s="114"/>
+      <c r="E128" s="114"/>
+      <c r="F128" s="114"/>
+      <c r="G128" s="114"/>
       <c r="H128" s="66"/>
     </row>
     <row r="129" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -9199,27 +9214,27 @@
       <c r="G176" s="36"/>
     </row>
     <row r="177" spans="1:10" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A177" s="105" t="s">
+      <c r="A177" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="B177" s="106"/>
-      <c r="C177" s="106"/>
-      <c r="D177" s="106"/>
-      <c r="E177" s="106"/>
-      <c r="F177" s="106"/>
-      <c r="G177" s="106"/>
+      <c r="B177" s="107"/>
+      <c r="C177" s="107"/>
+      <c r="D177" s="107"/>
+      <c r="E177" s="107"/>
+      <c r="F177" s="107"/>
+      <c r="G177" s="107"/>
       <c r="H177" s="70"/>
     </row>
     <row r="178" spans="1:10" s="38" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="112" t="s">
+      <c r="A178" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="B178" s="113"/>
-      <c r="C178" s="113"/>
-      <c r="D178" s="113"/>
-      <c r="E178" s="113"/>
-      <c r="F178" s="113"/>
-      <c r="G178" s="113"/>
+      <c r="B178" s="116"/>
+      <c r="C178" s="116"/>
+      <c r="D178" s="116"/>
+      <c r="E178" s="116"/>
+      <c r="F178" s="116"/>
+      <c r="G178" s="116"/>
       <c r="H178" s="70"/>
     </row>
     <row r="179" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -10007,15 +10022,15 @@
       </c>
     </row>
     <row r="224" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="103" t="s">
+      <c r="A224" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="B224" s="104"/>
-      <c r="C224" s="104"/>
-      <c r="D224" s="104"/>
-      <c r="E224" s="104"/>
-      <c r="F224" s="104"/>
-      <c r="G224" s="104"/>
+      <c r="B224" s="114"/>
+      <c r="C224" s="114"/>
+      <c r="D224" s="114"/>
+      <c r="E224" s="114"/>
+      <c r="F224" s="114"/>
+      <c r="G224" s="114"/>
     </row>
     <row r="225" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A225" s="32" t="str">
@@ -11970,15 +11985,15 @@
       <c r="G325" s="36"/>
     </row>
     <row r="326" spans="1:9" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="103" t="s">
+      <c r="A326" s="113" t="s">
         <v>215</v>
       </c>
-      <c r="B326" s="104"/>
-      <c r="C326" s="104"/>
-      <c r="D326" s="104"/>
-      <c r="E326" s="104"/>
-      <c r="F326" s="104"/>
-      <c r="G326" s="104"/>
+      <c r="B326" s="114"/>
+      <c r="C326" s="114"/>
+      <c r="D326" s="114"/>
+      <c r="E326" s="114"/>
+      <c r="F326" s="114"/>
+      <c r="G326" s="114"/>
       <c r="H326" s="66"/>
     </row>
     <row r="327" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -12626,15 +12641,15 @@
       </c>
     </row>
     <row r="360" spans="1:9" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="103" t="s">
+      <c r="A360" s="113" t="s">
         <v>236</v>
       </c>
-      <c r="B360" s="104"/>
-      <c r="C360" s="104"/>
-      <c r="D360" s="104"/>
-      <c r="E360" s="104"/>
-      <c r="F360" s="104"/>
-      <c r="G360" s="104"/>
+      <c r="B360" s="114"/>
+      <c r="C360" s="114"/>
+      <c r="D360" s="114"/>
+      <c r="E360" s="114"/>
+      <c r="F360" s="114"/>
+      <c r="G360" s="114"/>
       <c r="H360" s="66"/>
     </row>
     <row r="361" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -13304,18 +13319,18 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="397" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A397" s="105" t="s">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A397" s="106" t="s">
         <v>257</v>
       </c>
-      <c r="B397" s="106"/>
-      <c r="C397" s="106"/>
-      <c r="D397" s="106"/>
-      <c r="E397" s="106"/>
-      <c r="F397" s="106"/>
-      <c r="G397" s="106"/>
-    </row>
-    <row r="398" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B397" s="107"/>
+      <c r="C397" s="107"/>
+      <c r="D397" s="107"/>
+      <c r="E397" s="107"/>
+      <c r="F397" s="107"/>
+      <c r="G397" s="107"/>
+    </row>
+    <row r="398" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A398" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A394,3)+1,"000")</f>
         <v>TS081</v>
@@ -13342,7 +13357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A399" s="36" t="s">
         <v>46</v>
       </c>
@@ -13357,7 +13372,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="75.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10" ht="75.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A400" s="36"/>
       <c r="B400" s="36" t="s">
         <v>262</v>
@@ -13380,7 +13395,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="401" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A401" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A398,3)+1,"000")</f>
         <v>TS082</v>
@@ -13407,7 +13422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A402" s="36" t="s">
         <v>46</v>
       </c>
@@ -13422,7 +13437,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="403" spans="1:10" ht="64.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:10" ht="64.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A403" s="36"/>
       <c r="B403" s="36" t="s">
         <v>268</v>
@@ -13443,7 +13458,7 @@
       </c>
       <c r="I403" s="91"/>
     </row>
-    <row r="404" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A404" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A401,3)+1,"000")</f>
         <v>TS083</v>
@@ -13467,7 +13482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A405" s="36" t="s">
         <v>46</v>
       </c>
@@ -13482,7 +13497,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="406" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A406" s="36"/>
       <c r="B406" s="36" t="s">
         <v>268</v>
@@ -13502,7 +13517,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="407" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A407" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A404,3)+1,"000")</f>
         <v>TS084</v>
@@ -13521,7 +13536,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="408" spans="1:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:10" ht="30" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A408" s="36" t="s">
         <v>46</v>
       </c>
@@ -13534,7 +13549,7 @@
       <c r="F408" s="35"/>
       <c r="G408" s="36"/>
     </row>
-    <row r="409" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A409" s="36"/>
       <c r="B409" s="36" t="s">
         <v>275</v>
@@ -13549,7 +13564,7 @@
       </c>
       <c r="G409" s="36"/>
     </row>
-    <row r="410" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A410" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A407,3)+1,"000")</f>
         <v>TS085</v>
@@ -13568,7 +13583,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="411" spans="1:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:10" ht="30" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A411" s="36" t="s">
         <v>46</v>
       </c>
@@ -13581,7 +13596,7 @@
       <c r="F411" s="35"/>
       <c r="G411" s="36"/>
     </row>
-    <row r="412" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A412" s="36"/>
       <c r="B412" s="36" t="s">
         <v>275</v>
@@ -13596,18 +13611,18 @@
       </c>
       <c r="G412" s="36"/>
     </row>
-    <row r="413" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="105" t="s">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A413" s="106" t="s">
         <v>277</v>
       </c>
-      <c r="B413" s="106"/>
-      <c r="C413" s="106"/>
-      <c r="D413" s="106"/>
-      <c r="E413" s="106"/>
-      <c r="F413" s="106"/>
-      <c r="G413" s="106"/>
-    </row>
-    <row r="414" spans="1:10" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B413" s="107"/>
+      <c r="C413" s="107"/>
+      <c r="D413" s="107"/>
+      <c r="E413" s="107"/>
+      <c r="F413" s="107"/>
+      <c r="G413" s="107"/>
+    </row>
+    <row r="414" spans="1:10" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A414" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A410,3)+1,"000")</f>
         <v>TS086</v>
@@ -13628,7 +13643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="415" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A415" s="36"/>
       <c r="B415" s="36" t="s">
         <v>280</v>
@@ -13643,29 +13658,29 @@
       </c>
       <c r="G415" s="36"/>
     </row>
-    <row r="416" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="105" t="s">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A416" s="106" t="s">
         <v>281</v>
       </c>
-      <c r="B416" s="106"/>
-      <c r="C416" s="106"/>
-      <c r="D416" s="106"/>
-      <c r="E416" s="106"/>
-      <c r="F416" s="106"/>
-      <c r="G416" s="106"/>
-    </row>
-    <row r="417" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A417" s="107" t="s">
+      <c r="B416" s="107"/>
+      <c r="C416" s="107"/>
+      <c r="D416" s="107"/>
+      <c r="E416" s="107"/>
+      <c r="F416" s="107"/>
+      <c r="G416" s="107"/>
+    </row>
+    <row r="417" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A417" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="B417" s="108"/>
-      <c r="C417" s="108"/>
-      <c r="D417" s="108"/>
-      <c r="E417" s="108"/>
-      <c r="F417" s="108"/>
-      <c r="G417" s="109"/>
-    </row>
-    <row r="418" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B417" s="104"/>
+      <c r="C417" s="104"/>
+      <c r="D417" s="104"/>
+      <c r="E417" s="104"/>
+      <c r="F417" s="104"/>
+      <c r="G417" s="105"/>
+    </row>
+    <row r="418" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A418" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A414,3)+1,"000")</f>
         <v>TS087</v>
@@ -13680,14 +13695,14 @@
       <c r="E418" s="46"/>
       <c r="F418" s="45"/>
       <c r="G418" s="26"/>
-      <c r="H418" s="1" t="s">
+      <c r="H418" s="112" t="s">
         <v>284</v>
       </c>
       <c r="I418" s="31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A419" s="36"/>
       <c r="B419" s="36" t="s">
         <v>285</v>
@@ -13701,9 +13716,9 @@
         <v>146</v>
       </c>
       <c r="G419" s="36"/>
-      <c r="H419" s="1"/>
-    </row>
-    <row r="420" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H419" s="112"/>
+    </row>
+    <row r="420" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A420" s="36"/>
       <c r="B420" s="36" t="s">
         <v>287</v>
@@ -13717,9 +13732,9 @@
         <v>146</v>
       </c>
       <c r="G420" s="36"/>
-      <c r="H420" s="1"/>
-    </row>
-    <row r="421" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H420" s="112"/>
+    </row>
+    <row r="421" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A421" s="36"/>
       <c r="B421" s="36" t="s">
         <v>289</v>
@@ -13733,9 +13748,9 @@
         <v>146</v>
       </c>
       <c r="G421" s="36"/>
-      <c r="H421" s="1"/>
-    </row>
-    <row r="422" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H421" s="112"/>
+    </row>
+    <row r="422" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A422" s="36"/>
       <c r="B422" s="36" t="s">
         <v>291</v>
@@ -13749,9 +13764,9 @@
         <v>146</v>
       </c>
       <c r="G422" s="36"/>
-      <c r="H422" s="1"/>
-    </row>
-    <row r="423" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H422" s="112"/>
+    </row>
+    <row r="423" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A423" s="36"/>
       <c r="B423" s="36" t="s">
         <v>293</v>
@@ -13765,9 +13780,9 @@
         <v>146</v>
       </c>
       <c r="G423" s="36"/>
-      <c r="H423" s="1"/>
-    </row>
-    <row r="424" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H423" s="112"/>
+    </row>
+    <row r="424" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A424" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A418,3)+1,"000")</f>
         <v>TS088</v>
@@ -13782,12 +13797,12 @@
       <c r="E424" s="46"/>
       <c r="F424" s="33"/>
       <c r="G424" s="37"/>
-      <c r="H424" s="1"/>
+      <c r="H424" s="112"/>
       <c r="I424" s="31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A425" s="36"/>
       <c r="B425" s="36" t="s">
         <v>297</v>
@@ -13801,9 +13816,9 @@
         <v>146</v>
       </c>
       <c r="G425" s="36"/>
-      <c r="H425" s="1"/>
-    </row>
-    <row r="426" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H425" s="112"/>
+    </row>
+    <row r="426" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A426" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A424,3)+1,"000")</f>
         <v>TS089</v>
@@ -13818,12 +13833,12 @@
       <c r="E426" s="46"/>
       <c r="F426" s="33"/>
       <c r="G426" s="37"/>
-      <c r="H426" s="1"/>
+      <c r="H426" s="112"/>
       <c r="I426" s="31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="427" spans="1:9" s="38" customFormat="1" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:9" s="38" customFormat="1" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A427" s="36"/>
       <c r="B427" s="36" t="s">
         <v>300</v>
@@ -13837,9 +13852,9 @@
         <v>146</v>
       </c>
       <c r="G427" s="36"/>
-      <c r="H427" s="1"/>
-    </row>
-    <row r="428" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H427" s="112"/>
+    </row>
+    <row r="428" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A428" s="36"/>
       <c r="B428" s="36" t="s">
         <v>302</v>
@@ -13853,9 +13868,9 @@
         <v>146</v>
       </c>
       <c r="G428" s="36"/>
-      <c r="H428" s="1"/>
-    </row>
-    <row r="429" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H428" s="112"/>
+    </row>
+    <row r="429" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A429" s="36"/>
       <c r="B429" s="36" t="s">
         <v>304</v>
@@ -13869,9 +13884,9 @@
         <v>146</v>
       </c>
       <c r="G429" s="36"/>
-      <c r="H429" s="1"/>
-    </row>
-    <row r="430" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H429" s="112"/>
+    </row>
+    <row r="430" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A430" s="36"/>
       <c r="B430" s="36" t="s">
         <v>306</v>
@@ -13885,9 +13900,9 @@
         <v>146</v>
       </c>
       <c r="G430" s="36"/>
-      <c r="H430" s="1"/>
-    </row>
-    <row r="431" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H430" s="112"/>
+    </row>
+    <row r="431" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A431" s="36"/>
       <c r="B431" s="36" t="s">
         <v>308</v>
@@ -13901,9 +13916,9 @@
         <v>146</v>
       </c>
       <c r="G431" s="36"/>
-      <c r="H431" s="1"/>
-    </row>
-    <row r="432" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H431" s="112"/>
+    </row>
+    <row r="432" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A432" s="36"/>
       <c r="B432" s="36" t="s">
         <v>310</v>
@@ -13917,9 +13932,9 @@
         <v>146</v>
       </c>
       <c r="G432" s="36"/>
-      <c r="H432" s="1"/>
-    </row>
-    <row r="433" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H432" s="112"/>
+    </row>
+    <row r="433" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A433" s="36"/>
       <c r="B433" s="36" t="s">
         <v>312</v>
@@ -13933,9 +13948,9 @@
         <v>146</v>
       </c>
       <c r="G433" s="36"/>
-      <c r="H433" s="1"/>
-    </row>
-    <row r="434" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H433" s="112"/>
+    </row>
+    <row r="434" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A434" s="36"/>
       <c r="B434" s="36" t="s">
         <v>314</v>
@@ -13949,9 +13964,9 @@
         <v>146</v>
       </c>
       <c r="G434" s="36"/>
-      <c r="H434" s="1"/>
-    </row>
-    <row r="435" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H434" s="112"/>
+    </row>
+    <row r="435" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A435" s="36"/>
       <c r="B435" s="36" t="s">
         <v>316</v>
@@ -13965,9 +13980,9 @@
         <v>146</v>
       </c>
       <c r="G435" s="36"/>
-      <c r="H435" s="1"/>
-    </row>
-    <row r="436" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H435" s="112"/>
+    </row>
+    <row r="436" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A436" s="36"/>
       <c r="B436" s="36" t="s">
         <v>318</v>
@@ -13981,9 +13996,9 @@
         <v>146</v>
       </c>
       <c r="G436" s="36"/>
-      <c r="H436" s="1"/>
-    </row>
-    <row r="437" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H436" s="112"/>
+    </row>
+    <row r="437" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A437" s="36"/>
       <c r="B437" s="36" t="s">
         <v>320</v>
@@ -13997,9 +14012,9 @@
         <v>146</v>
       </c>
       <c r="G437" s="36"/>
-      <c r="H437" s="1"/>
-    </row>
-    <row r="438" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H437" s="112"/>
+    </row>
+    <row r="438" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A438" s="36"/>
       <c r="B438" s="36" t="s">
         <v>322</v>
@@ -14013,9 +14028,9 @@
         <v>146</v>
       </c>
       <c r="G438" s="36"/>
-      <c r="H438" s="1"/>
-    </row>
-    <row r="439" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H438" s="112"/>
+    </row>
+    <row r="439" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A439" s="36"/>
       <c r="B439" s="36" t="s">
         <v>324</v>
@@ -14029,9 +14044,9 @@
         <v>146</v>
       </c>
       <c r="G439" s="36"/>
-      <c r="H439" s="1"/>
-    </row>
-    <row r="440" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H439" s="112"/>
+    </row>
+    <row r="440" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A440" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A426,3)+1,"000")</f>
         <v>TS090</v>
@@ -14046,12 +14061,12 @@
       <c r="E440" s="46"/>
       <c r="F440" s="33"/>
       <c r="G440" s="37"/>
-      <c r="H440" s="1"/>
+      <c r="H440" s="112"/>
       <c r="I440" s="31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A441" s="36"/>
       <c r="B441" s="36" t="s">
         <v>328</v>
@@ -14065,9 +14080,9 @@
         <v>146</v>
       </c>
       <c r="G441" s="36"/>
-      <c r="H441" s="1"/>
-    </row>
-    <row r="442" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H441" s="112"/>
+    </row>
+    <row r="442" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A442" s="36"/>
       <c r="B442" s="36" t="s">
         <v>330</v>
@@ -14081,9 +14096,9 @@
         <v>146</v>
       </c>
       <c r="G442" s="36"/>
-      <c r="H442" s="1"/>
-    </row>
-    <row r="443" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H442" s="112"/>
+    </row>
+    <row r="443" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A443" s="36"/>
       <c r="B443" s="36" t="s">
         <v>332</v>
@@ -14097,9 +14112,9 @@
         <v>146</v>
       </c>
       <c r="G443" s="36"/>
-      <c r="H443" s="1"/>
-    </row>
-    <row r="444" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H443" s="112"/>
+    </row>
+    <row r="444" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A444" s="36"/>
       <c r="B444" s="36" t="s">
         <v>334</v>
@@ -14113,20 +14128,20 @@
         <v>146</v>
       </c>
       <c r="G444" s="36"/>
-      <c r="H444" s="1"/>
-    </row>
-    <row r="445" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="107" t="s">
+      <c r="H444" s="112"/>
+    </row>
+    <row r="445" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="B445" s="108"/>
-      <c r="C445" s="108"/>
-      <c r="D445" s="108"/>
-      <c r="E445" s="108"/>
-      <c r="F445" s="108"/>
-      <c r="G445" s="109"/>
-    </row>
-    <row r="446" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B445" s="104"/>
+      <c r="C445" s="104"/>
+      <c r="D445" s="104"/>
+      <c r="E445" s="104"/>
+      <c r="F445" s="104"/>
+      <c r="G445" s="105"/>
+    </row>
+    <row r="446" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A446" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A440,3)+1,"000")</f>
         <v>TS091</v>
@@ -14147,7 +14162,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="447" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A447" s="36" t="s">
         <v>46</v>
       </c>
@@ -14160,7 +14175,7 @@
       <c r="F447" s="35"/>
       <c r="G447" s="36"/>
     </row>
-    <row r="448" spans="1:9" s="38" customFormat="1" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:9" s="38" customFormat="1" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A448" s="36" t="s">
         <v>340</v>
       </c>
@@ -14180,7 +14195,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="449" spans="1:8" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A449" s="36" t="s">
         <v>340</v>
       </c>
@@ -14200,7 +14215,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A450" s="36" t="s">
         <v>340</v>
       </c>
@@ -14220,7 +14235,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="451" spans="1:8" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A451" s="36" t="s">
         <v>340</v>
       </c>
@@ -14242,7 +14257,7 @@
         <v>44798</v>
       </c>
     </row>
-    <row r="452" spans="1:8" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A452" s="36" t="s">
         <v>340</v>
       </c>
@@ -14264,7 +14279,7 @@
         <v>44798</v>
       </c>
     </row>
-    <row r="453" spans="1:8" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A453" s="36"/>
       <c r="B453" s="36" t="s">
         <v>350</v>
@@ -14279,7 +14294,7 @@
       </c>
       <c r="G453" s="36"/>
     </row>
-    <row r="454" spans="1:8" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A454" s="36" t="s">
         <v>340</v>
       </c>
@@ -14299,7 +14314,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="455" spans="1:8" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A455" s="36" t="s">
         <v>340</v>
       </c>
@@ -14319,7 +14334,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="456" spans="1:8" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A456" s="36"/>
       <c r="B456" s="36" t="s">
         <v>356</v>
@@ -14334,7 +14349,7 @@
       </c>
       <c r="G456" s="36"/>
     </row>
-    <row r="457" spans="1:8" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A457" s="36" t="s">
         <v>340</v>
       </c>
@@ -14354,7 +14369,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A458" s="36" t="s">
         <v>340</v>
       </c>
@@ -14374,7 +14389,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="459" spans="1:8" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A459" s="36" t="s">
         <v>340</v>
       </c>
@@ -14394,7 +14409,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="460" spans="1:8" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A460" s="36" t="s">
         <v>340</v>
       </c>
@@ -14414,7 +14429,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="461" spans="1:8" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A461" s="36" t="s">
         <v>340</v>
       </c>
@@ -14434,7 +14449,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="462" spans="1:8" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A462" s="36" t="s">
         <v>340</v>
       </c>
@@ -14454,7 +14469,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="463" spans="1:8" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A463" s="36" t="s">
         <v>340</v>
       </c>
@@ -14474,7 +14489,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="464" spans="1:8" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A464" s="36" t="s">
         <v>340</v>
       </c>
@@ -14494,7 +14509,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="465" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A465" s="36" t="s">
         <v>340</v>
       </c>
@@ -14516,7 +14531,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="466" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A466" s="36" t="s">
         <v>340</v>
       </c>
@@ -14536,7 +14551,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="467" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A467" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A446,3)+1,"000")</f>
         <v>TS092</v>
@@ -14551,14 +14566,14 @@
       <c r="E467" s="46"/>
       <c r="F467" s="33"/>
       <c r="G467" s="37"/>
-      <c r="H467" s="1" t="s">
+      <c r="H467" s="112" t="s">
         <v>284</v>
       </c>
       <c r="I467" s="31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="468" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A468" s="36" t="s">
         <v>46</v>
       </c>
@@ -14570,9 +14585,9 @@
       <c r="E468" s="35"/>
       <c r="F468" s="35"/>
       <c r="G468" s="36"/>
-      <c r="H468" s="1"/>
-    </row>
-    <row r="469" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H468" s="112"/>
+    </row>
+    <row r="469" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A469" s="36"/>
       <c r="B469" s="36" t="s">
         <v>377</v>
@@ -14586,9 +14601,9 @@
         <v>146</v>
       </c>
       <c r="G469" s="36"/>
-      <c r="H469" s="1"/>
-    </row>
-    <row r="470" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H469" s="112"/>
+    </row>
+    <row r="470" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A470" s="36"/>
       <c r="B470" s="36" t="s">
         <v>379</v>
@@ -14602,9 +14617,9 @@
         <v>146</v>
       </c>
       <c r="G470" s="36"/>
-      <c r="H470" s="1"/>
-    </row>
-    <row r="471" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H470" s="112"/>
+    </row>
+    <row r="471" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A471" s="36"/>
       <c r="B471" s="36" t="s">
         <v>381</v>
@@ -14618,9 +14633,9 @@
         <v>146</v>
       </c>
       <c r="G471" s="36"/>
-      <c r="H471" s="1"/>
-    </row>
-    <row r="472" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H471" s="112"/>
+    </row>
+    <row r="472" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A472" s="36"/>
       <c r="B472" s="36" t="s">
         <v>383</v>
@@ -14634,9 +14649,9 @@
         <v>146</v>
       </c>
       <c r="G472" s="36"/>
-      <c r="H472" s="1"/>
-    </row>
-    <row r="473" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H472" s="112"/>
+    </row>
+    <row r="473" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A473" s="36"/>
       <c r="B473" s="36" t="s">
         <v>385</v>
@@ -14650,9 +14665,9 @@
         <v>146</v>
       </c>
       <c r="G473" s="36"/>
-      <c r="H473" s="1"/>
-    </row>
-    <row r="474" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H473" s="112"/>
+    </row>
+    <row r="474" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A474" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A467,3)+1,"000")</f>
         <v>TS093</v>
@@ -14676,7 +14691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A475" s="36" t="s">
         <v>46</v>
       </c>
@@ -14689,7 +14704,7 @@
       <c r="F475" s="35"/>
       <c r="G475" s="36"/>
     </row>
-    <row r="476" spans="1:10" s="27" customFormat="1" ht="14" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:10" s="27" customFormat="1" ht="14" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A476" s="36" t="s">
         <v>340</v>
       </c>
@@ -14709,7 +14724,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="477" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A477" s="36" t="s">
         <v>340</v>
       </c>
@@ -14729,7 +14744,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="478" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A478" s="36" t="s">
         <v>340</v>
       </c>
@@ -14749,7 +14764,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="479" spans="1:10" s="38" customFormat="1" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:10" s="38" customFormat="1" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A479" s="36" t="s">
         <v>340</v>
       </c>
@@ -14769,7 +14784,7 @@
       </c>
       <c r="H479" s="70"/>
     </row>
-    <row r="480" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A480" s="36" t="s">
         <v>340</v>
       </c>
@@ -14791,7 +14806,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A481" s="36"/>
       <c r="B481" s="36" t="s">
         <v>350</v>
@@ -14806,7 +14821,7 @@
       </c>
       <c r="G481" s="36"/>
     </row>
-    <row r="482" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A482" s="36" t="s">
         <v>340</v>
       </c>
@@ -14828,7 +14843,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="483" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A483" s="36" t="s">
         <v>340</v>
       </c>
@@ -14848,7 +14863,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="484" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A484" s="36"/>
       <c r="B484" s="36" t="s">
         <v>356</v>
@@ -14863,7 +14878,7 @@
       </c>
       <c r="G484" s="36"/>
     </row>
-    <row r="485" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A485" s="36" t="s">
         <v>340</v>
       </c>
@@ -14883,7 +14898,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="486" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A486" s="36" t="s">
         <v>340</v>
       </c>
@@ -14903,7 +14918,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A487" s="36" t="s">
         <v>340</v>
       </c>
@@ -14923,7 +14938,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A488" s="36" t="s">
         <v>340</v>
       </c>
@@ -14943,7 +14958,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A489" s="36" t="s">
         <v>340</v>
       </c>
@@ -14963,7 +14978,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A490" s="36" t="s">
         <v>340</v>
       </c>
@@ -14983,7 +14998,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A491" s="36" t="s">
         <v>340</v>
       </c>
@@ -15003,7 +15018,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A492" s="36" t="s">
         <v>340</v>
       </c>
@@ -15025,7 +15040,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A493" s="36" t="s">
         <v>340</v>
       </c>
@@ -15047,7 +15062,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="494" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A494" s="36" t="s">
         <v>340</v>
       </c>
@@ -15067,7 +15082,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A495" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A474,3)+1,"000")</f>
         <v>TS094</v>
@@ -15082,14 +15097,14 @@
       <c r="E495" s="46"/>
       <c r="F495" s="33"/>
       <c r="G495" s="37"/>
-      <c r="H495" s="1" t="s">
+      <c r="H495" s="112" t="s">
         <v>284</v>
       </c>
       <c r="I495" s="31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="496" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A496" s="36" t="s">
         <v>46</v>
       </c>
@@ -15101,9 +15116,9 @@
       <c r="E496" s="35"/>
       <c r="F496" s="35"/>
       <c r="G496" s="36"/>
-      <c r="H496" s="1"/>
-    </row>
-    <row r="497" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H496" s="112"/>
+    </row>
+    <row r="497" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A497" s="36"/>
       <c r="B497" s="36" t="s">
         <v>377</v>
@@ -15117,9 +15132,9 @@
         <v>146</v>
       </c>
       <c r="G497" s="36"/>
-      <c r="H497" s="1"/>
-    </row>
-    <row r="498" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H497" s="112"/>
+    </row>
+    <row r="498" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A498" s="36"/>
       <c r="B498" s="36" t="s">
         <v>379</v>
@@ -15133,9 +15148,9 @@
         <v>146</v>
       </c>
       <c r="G498" s="36"/>
-      <c r="H498" s="1"/>
-    </row>
-    <row r="499" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H498" s="112"/>
+    </row>
+    <row r="499" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A499" s="36"/>
       <c r="B499" s="36" t="s">
         <v>381</v>
@@ -15149,9 +15164,9 @@
         <v>146</v>
       </c>
       <c r="G499" s="36"/>
-      <c r="H499" s="1"/>
-    </row>
-    <row r="500" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H499" s="112"/>
+    </row>
+    <row r="500" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A500" s="36"/>
       <c r="B500" s="36" t="s">
         <v>383</v>
@@ -15165,9 +15180,9 @@
         <v>146</v>
       </c>
       <c r="G500" s="36"/>
-      <c r="H500" s="1"/>
-    </row>
-    <row r="501" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="H500" s="112"/>
+    </row>
+    <row r="501" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A501" s="36"/>
       <c r="B501" s="36" t="s">
         <v>395</v>
@@ -15181,31 +15196,31 @@
         <v>146</v>
       </c>
       <c r="G501" s="36"/>
-      <c r="H501" s="1"/>
-    </row>
-    <row r="502" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A502" s="105" t="s">
+      <c r="H501" s="112"/>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A502" s="106" t="s">
         <v>396</v>
       </c>
-      <c r="B502" s="106"/>
-      <c r="C502" s="106"/>
-      <c r="D502" s="106"/>
-      <c r="E502" s="106"/>
-      <c r="F502" s="106"/>
-      <c r="G502" s="106"/>
-    </row>
-    <row r="503" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A503" s="107" t="s">
+      <c r="B502" s="107"/>
+      <c r="C502" s="107"/>
+      <c r="D502" s="107"/>
+      <c r="E502" s="107"/>
+      <c r="F502" s="107"/>
+      <c r="G502" s="107"/>
+    </row>
+    <row r="503" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A503" s="103" t="s">
         <v>397</v>
       </c>
-      <c r="B503" s="108"/>
-      <c r="C503" s="108"/>
-      <c r="D503" s="108"/>
-      <c r="E503" s="108"/>
-      <c r="F503" s="108"/>
-      <c r="G503" s="109"/>
-    </row>
-    <row r="504" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B503" s="104"/>
+      <c r="C503" s="104"/>
+      <c r="D503" s="104"/>
+      <c r="E503" s="104"/>
+      <c r="F503" s="104"/>
+      <c r="G503" s="105"/>
+    </row>
+    <row r="504" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A504" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A495,3)+1,"000")</f>
         <v>TS095</v>
@@ -15226,24 +15241,26 @@
         <v>29</v>
       </c>
     </row>
-    <row r="505" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A505" s="36" t="s">
         <v>46</v>
       </c>
       <c r="B505" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="C505" s="115"/>
-      <c r="D505" s="116"/>
-      <c r="E505" s="116"/>
-      <c r="F505" s="117"/>
-      <c r="G505" s="117"/>
-      <c r="H505" s="118"/>
+      <c r="C505" s="108"/>
+      <c r="D505" s="109"/>
+      <c r="E505" s="109"/>
+      <c r="F505" s="110"/>
+      <c r="G505" s="110"/>
+      <c r="H505" s="111"/>
       <c r="I505" s="79"/>
       <c r="J505" s="80"/>
     </row>
-    <row r="506" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A506" s="36"/>
+    <row r="506" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A506" s="36" t="s">
+        <v>1134</v>
+      </c>
       <c r="B506" s="36" t="s">
         <v>401</v>
       </c>
@@ -15257,18 +15274,18 @@
       </c>
       <c r="G506" s="36"/>
     </row>
-    <row r="507" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A507" s="107" t="s">
+    <row r="507" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A507" s="103" t="s">
         <v>403</v>
       </c>
-      <c r="B507" s="108"/>
-      <c r="C507" s="108"/>
-      <c r="D507" s="108"/>
-      <c r="E507" s="108"/>
-      <c r="F507" s="108"/>
-      <c r="G507" s="109"/>
-    </row>
-    <row r="508" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B507" s="104"/>
+      <c r="C507" s="104"/>
+      <c r="D507" s="104"/>
+      <c r="E507" s="104"/>
+      <c r="F507" s="104"/>
+      <c r="G507" s="105"/>
+    </row>
+    <row r="508" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A508" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A504,3)+1,"000")</f>
         <v>TS096</v>
@@ -15289,7 +15306,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="509" spans="1:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:10" ht="30" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A509" s="36" t="s">
         <v>46</v>
       </c>
@@ -15302,8 +15319,10 @@
       <c r="F509" s="35"/>
       <c r="G509" s="36"/>
     </row>
-    <row r="510" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A510" s="36"/>
+    <row r="510" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A510" s="36" t="s">
+        <v>1136</v>
+      </c>
       <c r="B510" s="36" t="s">
         <v>407</v>
       </c>
@@ -15317,7 +15336,7 @@
       </c>
       <c r="G510" s="36"/>
     </row>
-    <row r="511" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A511" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A508,3)+1,"000")</f>
         <v>TS097</v>
@@ -15341,7 +15360,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="512" spans="1:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:10" ht="30" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A512" s="36" t="s">
         <v>46</v>
       </c>
@@ -15354,8 +15373,10 @@
       <c r="F512" s="35"/>
       <c r="G512" s="36"/>
     </row>
-    <row r="513" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A513" s="36"/>
+    <row r="513" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A513" s="36" t="s">
+        <v>1135</v>
+      </c>
       <c r="B513" s="36" t="s">
         <v>407</v>
       </c>
@@ -15369,29 +15390,29 @@
       </c>
       <c r="G513" s="36"/>
     </row>
-    <row r="514" spans="1:9" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A514" s="105" t="s">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A514" s="106" t="s">
         <v>410</v>
       </c>
-      <c r="B514" s="106"/>
-      <c r="C514" s="106"/>
-      <c r="D514" s="106"/>
-      <c r="E514" s="106"/>
-      <c r="F514" s="106"/>
-      <c r="G514" s="106"/>
-    </row>
-    <row r="515" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A515" s="107" t="s">
+      <c r="B514" s="107"/>
+      <c r="C514" s="107"/>
+      <c r="D514" s="107"/>
+      <c r="E514" s="107"/>
+      <c r="F514" s="107"/>
+      <c r="G514" s="107"/>
+    </row>
+    <row r="515" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A515" s="103" t="s">
         <v>411</v>
       </c>
-      <c r="B515" s="108"/>
-      <c r="C515" s="108"/>
-      <c r="D515" s="108"/>
-      <c r="E515" s="108"/>
-      <c r="F515" s="108"/>
-      <c r="G515" s="109"/>
-    </row>
-    <row r="516" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B515" s="104"/>
+      <c r="C515" s="104"/>
+      <c r="D515" s="104"/>
+      <c r="E515" s="104"/>
+      <c r="F515" s="104"/>
+      <c r="G515" s="105"/>
+    </row>
+    <row r="516" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A516" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A511,3)+1,"000")</f>
         <v>TS098</v>
@@ -15412,7 +15433,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="517" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A517" s="9"/>
       <c r="B517" s="10" t="s">
         <v>414</v>
@@ -15431,7 +15452,7 @@
       </c>
       <c r="I517" s="8"/>
     </row>
-    <row r="518" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A518" s="9"/>
       <c r="B518" s="10" t="s">
         <v>415</v>
@@ -15450,7 +15471,7 @@
       </c>
       <c r="I518" s="8"/>
     </row>
-    <row r="519" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A519" s="9"/>
       <c r="B519" s="10" t="s">
         <v>417</v>
@@ -15469,7 +15490,7 @@
       </c>
       <c r="I519" s="8"/>
     </row>
-    <row r="520" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A520" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A516,3)+1,"000")</f>
         <v>TS099</v>
@@ -15490,7 +15511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="521" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A521" s="9"/>
       <c r="B521" s="10" t="s">
         <v>414</v>
@@ -15509,7 +15530,7 @@
       </c>
       <c r="I521" s="8"/>
     </row>
-    <row r="522" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A522" s="9"/>
       <c r="B522" s="10" t="s">
         <v>415</v>
@@ -15528,7 +15549,7 @@
       </c>
       <c r="I522" s="8"/>
     </row>
-    <row r="523" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A523" s="9"/>
       <c r="B523" s="10" t="s">
         <v>417</v>
@@ -15547,7 +15568,7 @@
       </c>
       <c r="I523" s="8"/>
     </row>
-    <row r="524" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A524" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A520,3)+1,"000")</f>
         <v>TS100</v>
@@ -15568,7 +15589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="525" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A525" s="9"/>
       <c r="B525" s="10" t="s">
         <v>414</v>
@@ -15587,7 +15608,7 @@
       </c>
       <c r="I525" s="8"/>
     </row>
-    <row r="526" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A526" s="9"/>
       <c r="B526" s="10" t="s">
         <v>415</v>
@@ -15606,7 +15627,7 @@
       </c>
       <c r="I526" s="8"/>
     </row>
-    <row r="527" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A527" s="9"/>
       <c r="B527" s="10" t="s">
         <v>417</v>
@@ -15625,7 +15646,7 @@
       </c>
       <c r="I527" s="8"/>
     </row>
-    <row r="528" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A528" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A524,3)+1,"000")</f>
         <v>TS101</v>
@@ -15646,7 +15667,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="529" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A529" s="9"/>
       <c r="B529" s="10" t="s">
         <v>414</v>
@@ -15665,7 +15686,7 @@
       </c>
       <c r="I529" s="48"/>
     </row>
-    <row r="530" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A530" s="9"/>
       <c r="B530" s="10" t="s">
         <v>415</v>
@@ -15684,7 +15705,7 @@
       </c>
       <c r="I530" s="48"/>
     </row>
-    <row r="531" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A531" s="9"/>
       <c r="B531" s="10" t="s">
         <v>417</v>
@@ -15703,7 +15724,7 @@
       </c>
       <c r="I531" s="48"/>
     </row>
-    <row r="532" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A532" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A528,3)+1,"000")</f>
         <v>TS102</v>
@@ -15724,7 +15745,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="533" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A533" s="9"/>
       <c r="B533" s="10" t="s">
         <v>414</v>
@@ -15743,7 +15764,7 @@
       </c>
       <c r="I533" s="48"/>
     </row>
-    <row r="534" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A534" s="9"/>
       <c r="B534" s="10" t="s">
         <v>415</v>
@@ -15762,7 +15783,7 @@
       </c>
       <c r="I534" s="48"/>
     </row>
-    <row r="535" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A535" s="9"/>
       <c r="B535" s="10" t="s">
         <v>417</v>
@@ -15781,7 +15802,7 @@
       </c>
       <c r="I535" s="48"/>
     </row>
-    <row r="536" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A536" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A532,3)+1,"000")</f>
         <v>TS103</v>
@@ -15802,7 +15823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="537" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A537" s="9"/>
       <c r="B537" s="10" t="s">
         <v>414</v>
@@ -15821,7 +15842,7 @@
       </c>
       <c r="I537" s="8"/>
     </row>
-    <row r="538" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A538" s="9"/>
       <c r="B538" s="10" t="s">
         <v>415</v>
@@ -15840,7 +15861,7 @@
       </c>
       <c r="I538" s="8"/>
     </row>
-    <row r="539" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A539" s="9"/>
       <c r="B539" s="10" t="s">
         <v>417</v>
@@ -15859,7 +15880,7 @@
       </c>
       <c r="I539" s="8"/>
     </row>
-    <row r="540" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A540" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A536,3)+1,"000")</f>
         <v>TS104</v>
@@ -15880,7 +15901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="541" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A541" s="9"/>
       <c r="B541" s="10" t="s">
         <v>414</v>
@@ -15899,7 +15920,7 @@
       </c>
       <c r="I541" s="8"/>
     </row>
-    <row r="542" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A542" s="9"/>
       <c r="B542" s="10" t="s">
         <v>415</v>
@@ -15918,7 +15939,7 @@
       </c>
       <c r="I542" s="8"/>
     </row>
-    <row r="543" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A543" s="9"/>
       <c r="B543" s="10" t="s">
         <v>417</v>
@@ -15937,7 +15958,7 @@
       </c>
       <c r="I543" s="8"/>
     </row>
-    <row r="544" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A544" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A540,3)+1,"000")</f>
         <v>TS105</v>
@@ -15958,7 +15979,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="545" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A545" s="9"/>
       <c r="B545" s="10" t="s">
         <v>414</v>
@@ -15977,7 +15998,7 @@
       </c>
       <c r="I545" s="8"/>
     </row>
-    <row r="546" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A546" s="9"/>
       <c r="B546" s="10" t="s">
         <v>415</v>
@@ -15996,7 +16017,7 @@
       </c>
       <c r="I546" s="8"/>
     </row>
-    <row r="547" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A547" s="9"/>
       <c r="B547" s="10" t="s">
         <v>417</v>
@@ -16015,7 +16036,7 @@
       </c>
       <c r="I547" s="8"/>
     </row>
-    <row r="548" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A548" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A544,3)+1,"000")</f>
         <v>TS106</v>
@@ -16036,7 +16057,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="549" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A549" s="9"/>
       <c r="B549" s="10" t="s">
         <v>414</v>
@@ -16055,7 +16076,7 @@
       </c>
       <c r="I549" s="48"/>
     </row>
-    <row r="550" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A550" s="9"/>
       <c r="B550" s="10" t="s">
         <v>415</v>
@@ -16074,7 +16095,7 @@
       </c>
       <c r="I550" s="48"/>
     </row>
-    <row r="551" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A551" s="9"/>
       <c r="B551" s="10" t="s">
         <v>417</v>
@@ -16093,7 +16114,7 @@
       </c>
       <c r="I551" s="48"/>
     </row>
-    <row r="552" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A552" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A548,3)+1,"000")</f>
         <v>TS107</v>
@@ -16114,7 +16135,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="553" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A553" s="9"/>
       <c r="B553" s="10" t="s">
         <v>414</v>
@@ -16133,7 +16154,7 @@
       </c>
       <c r="I553" s="48"/>
     </row>
-    <row r="554" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A554" s="9"/>
       <c r="B554" s="10" t="s">
         <v>415</v>
@@ -16152,7 +16173,7 @@
       </c>
       <c r="I554" s="48"/>
     </row>
-    <row r="555" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A555" s="9"/>
       <c r="B555" s="10" t="s">
         <v>417</v>
@@ -16171,18 +16192,18 @@
       </c>
       <c r="I555" s="48"/>
     </row>
-    <row r="556" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="107" t="s">
+    <row r="556" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A556" s="103" t="s">
         <v>429</v>
       </c>
-      <c r="B556" s="108"/>
-      <c r="C556" s="108"/>
-      <c r="D556" s="108"/>
-      <c r="E556" s="108"/>
-      <c r="F556" s="108"/>
-      <c r="G556" s="109"/>
-    </row>
-    <row r="557" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B556" s="104"/>
+      <c r="C556" s="104"/>
+      <c r="D556" s="104"/>
+      <c r="E556" s="104"/>
+      <c r="F556" s="104"/>
+      <c r="G556" s="105"/>
+    </row>
+    <row r="557" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A557" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A552,3)+1,"000")</f>
         <v>TS108</v>
@@ -16206,7 +16227,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="558" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A558" s="36"/>
       <c r="B558" s="36" t="s">
         <v>432</v>
@@ -16222,7 +16243,7 @@
       <c r="G558" s="36"/>
       <c r="H558" s="69"/>
     </row>
-    <row r="559" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A559" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A557,3)+1,"000")</f>
         <v>TS109</v>
@@ -16246,7 +16267,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="560" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A560" s="36"/>
       <c r="B560" s="36" t="s">
         <v>434</v>
@@ -16261,7 +16282,7 @@
       </c>
       <c r="G560" s="36"/>
     </row>
-    <row r="561" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A561" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A559,3)+1,"000")</f>
         <v>TS110</v>
@@ -16285,7 +16306,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="562" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A562" s="36"/>
       <c r="B562" s="36" t="s">
         <v>436</v>
@@ -16300,7 +16321,7 @@
       </c>
       <c r="G562" s="36"/>
     </row>
-    <row r="563" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A563" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A561,3)+1,"000")</f>
         <v>TS111</v>
@@ -16321,7 +16342,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="564" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A564" s="36"/>
       <c r="B564" s="36" t="s">
         <v>432</v>
@@ -16339,7 +16360,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="565" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A565" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A563,3)+1,"000")</f>
         <v>TS112</v>
@@ -16360,7 +16381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="566" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A566" s="36"/>
       <c r="B566" s="36" t="s">
         <v>434</v>
@@ -16378,7 +16399,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="567" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A567" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A565,3)+1,"000")</f>
         <v>TS113</v>
@@ -16399,7 +16420,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="568" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A568" s="36"/>
       <c r="B568" s="36" t="s">
         <v>436</v>
@@ -16417,18 +16438,18 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="569" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A569" s="107" t="s">
+    <row r="569" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A569" s="103" t="s">
         <v>440</v>
       </c>
-      <c r="B569" s="108"/>
-      <c r="C569" s="108"/>
-      <c r="D569" s="108"/>
-      <c r="E569" s="108"/>
-      <c r="F569" s="108"/>
-      <c r="G569" s="109"/>
-    </row>
-    <row r="570" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B569" s="104"/>
+      <c r="C569" s="104"/>
+      <c r="D569" s="104"/>
+      <c r="E569" s="104"/>
+      <c r="F569" s="104"/>
+      <c r="G569" s="105"/>
+    </row>
+    <row r="570" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A570" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A567,3)+1,"000")</f>
         <v>TS114</v>
@@ -16449,7 +16470,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="571" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A571" s="36"/>
       <c r="B571" s="36" t="s">
         <v>443</v>
@@ -16467,7 +16488,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="572" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A572" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A570,3)+1,"000")</f>
         <v>TS115</v>
@@ -16488,7 +16509,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="573" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A573" s="36"/>
       <c r="B573" s="36" t="s">
         <v>443</v>
@@ -16506,7 +16527,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="574" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A574" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A572,3)+1,"000")</f>
         <v>TS116</v>
@@ -16527,7 +16548,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="575" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A575" s="36"/>
       <c r="B575" s="36" t="s">
         <v>443</v>
@@ -16545,7 +16566,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="576" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A576" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A574,3)+1,"000")</f>
         <v>TS117</v>
@@ -16566,7 +16587,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="577" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A577" s="36"/>
       <c r="B577" s="36" t="s">
         <v>443</v>
@@ -16584,7 +16605,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="578" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A578" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A576,3)+1,"000")</f>
         <v>TS118</v>
@@ -16605,7 +16626,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="579" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A579" s="36"/>
       <c r="B579" s="36" t="s">
         <v>443</v>
@@ -16623,7 +16644,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="580" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A580" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A578,3)+1,"000")</f>
         <v>TS119</v>
@@ -16644,7 +16665,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="581" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A581" s="36"/>
       <c r="B581" s="36" t="s">
         <v>443</v>
@@ -16662,7 +16683,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="582" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A582" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A580,3)+1,"000")</f>
         <v>TS120</v>
@@ -16683,7 +16704,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="583" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A583" s="36"/>
       <c r="B583" s="36" t="s">
         <v>443</v>
@@ -16701,7 +16722,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="584" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A584" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A582,3)+1,"000")</f>
         <v>TS121</v>
@@ -16722,7 +16743,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="585" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A585" s="36"/>
       <c r="B585" s="36" t="s">
         <v>443</v>
@@ -16740,7 +16761,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="586" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A586" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A584,3)+1,"000")</f>
         <v>TS122</v>
@@ -16761,7 +16782,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="587" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A587" s="36"/>
       <c r="B587" s="36" t="s">
         <v>443</v>
@@ -16779,7 +16800,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="588" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A588" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A586,3)+1,"000")</f>
         <v>TS123</v>
@@ -16800,7 +16821,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="589" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A589" s="36"/>
       <c r="B589" s="36" t="s">
         <v>443</v>
@@ -16818,18 +16839,18 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="590" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="107" t="s">
+    <row r="590" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A590" s="103" t="s">
         <v>453</v>
       </c>
-      <c r="B590" s="108"/>
-      <c r="C590" s="108"/>
-      <c r="D590" s="108"/>
-      <c r="E590" s="108"/>
-      <c r="F590" s="108"/>
-      <c r="G590" s="109"/>
-    </row>
-    <row r="591" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B590" s="104"/>
+      <c r="C590" s="104"/>
+      <c r="D590" s="104"/>
+      <c r="E590" s="104"/>
+      <c r="F590" s="104"/>
+      <c r="G590" s="105"/>
+    </row>
+    <row r="591" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A591" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A588,3)+1,"000")</f>
         <v>TS124</v>
@@ -16853,7 +16874,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="592" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A592" s="36"/>
       <c r="B592" s="36" t="s">
         <v>456</v>
@@ -16868,7 +16889,7 @@
       </c>
       <c r="G592" s="64"/>
     </row>
-    <row r="593" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A593" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A591,3)+1,"000")</f>
         <v>TS125</v>
@@ -16892,7 +16913,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="594" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A594" s="36"/>
       <c r="B594" s="36" t="s">
         <v>458</v>
@@ -16908,7 +16929,7 @@
       <c r="G594" s="64"/>
       <c r="H594" s="61"/>
     </row>
-    <row r="595" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A595" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A593,3)+1,"000")</f>
         <v>TS126</v>
@@ -16929,7 +16950,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="596" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A596" s="36"/>
       <c r="B596" s="36" t="s">
         <v>460</v>
@@ -16947,7 +16968,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="597" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A597" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A595,3)+1,"000")</f>
         <v>TS127</v>
@@ -16968,7 +16989,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="598" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A598" s="36"/>
       <c r="B598" s="36" t="s">
         <v>456</v>
@@ -16986,7 +17007,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="599" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A599" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A597,3)+1,"000")</f>
         <v>TS128</v>
@@ -17007,7 +17028,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="600" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A600" s="36"/>
       <c r="B600" s="36" t="s">
         <v>458</v>
@@ -17025,7 +17046,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="601" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A601" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A599,3)+1,"000")</f>
         <v>TS129</v>
@@ -17046,7 +17067,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="602" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A602" s="36"/>
       <c r="B602" s="36" t="s">
         <v>464</v>
@@ -17064,7 +17085,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="603" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A603" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A601,3)+1,"000")</f>
         <v>TS130</v>
@@ -17085,7 +17106,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="604" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A604" s="36"/>
       <c r="B604" s="36" t="s">
         <v>460</v>
@@ -17103,18 +17124,18 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="605" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A605" s="107" t="s">
+    <row r="605" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A605" s="103" t="s">
         <v>466</v>
       </c>
-      <c r="B605" s="108"/>
-      <c r="C605" s="108"/>
-      <c r="D605" s="108"/>
-      <c r="E605" s="108"/>
-      <c r="F605" s="108"/>
-      <c r="G605" s="109"/>
-    </row>
-    <row r="606" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B605" s="104"/>
+      <c r="C605" s="104"/>
+      <c r="D605" s="104"/>
+      <c r="E605" s="104"/>
+      <c r="F605" s="104"/>
+      <c r="G605" s="105"/>
+    </row>
+    <row r="606" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A606" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A603,3)+1,"000")</f>
         <v>TS131</v>
@@ -17138,7 +17159,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="607" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A607" s="36"/>
       <c r="B607" s="36" t="s">
         <v>469</v>
@@ -17153,7 +17174,7 @@
       </c>
       <c r="G607" s="36"/>
     </row>
-    <row r="608" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A608" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A606,3)+1,"000")</f>
         <v>TS132</v>
@@ -17177,7 +17198,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="609" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A609" s="36" t="s">
         <v>46</v>
       </c>
@@ -17190,7 +17211,7 @@
       <c r="F609" s="35"/>
       <c r="G609" s="36"/>
     </row>
-    <row r="610" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A610" s="36"/>
       <c r="B610" s="36" t="s">
         <v>473</v>
@@ -17205,7 +17226,7 @@
       </c>
       <c r="G610" s="36"/>
     </row>
-    <row r="611" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A611" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A608,3)+1,"000")</f>
         <v>TS133</v>
@@ -17226,7 +17247,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="612" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A612" s="36"/>
       <c r="B612" s="36" t="s">
         <v>469</v>
@@ -17244,7 +17265,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="613" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A613" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A611,3)+1,"000")</f>
         <v>TS134</v>
@@ -17265,7 +17286,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="614" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A614" s="36" t="s">
         <v>46</v>
       </c>
@@ -17278,7 +17299,7 @@
       <c r="F614" s="35"/>
       <c r="G614" s="36"/>
     </row>
-    <row r="615" spans="1:9" ht="14" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:9" ht="14" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A615" s="36"/>
       <c r="B615" s="36" t="s">
         <v>473</v>
@@ -17296,18 +17317,18 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="616" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A616" s="107" t="s">
+    <row r="616" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A616" s="103" t="s">
         <v>477</v>
       </c>
-      <c r="B616" s="108"/>
-      <c r="C616" s="108"/>
-      <c r="D616" s="108"/>
-      <c r="E616" s="108"/>
-      <c r="F616" s="108"/>
-      <c r="G616" s="109"/>
-    </row>
-    <row r="617" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B616" s="104"/>
+      <c r="C616" s="104"/>
+      <c r="D616" s="104"/>
+      <c r="E616" s="104"/>
+      <c r="F616" s="104"/>
+      <c r="G616" s="105"/>
+    </row>
+    <row r="617" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A617" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A613,3)+1,"000")</f>
         <v>TS135</v>
@@ -17328,7 +17349,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="618" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A618" s="36"/>
       <c r="B618" s="36" t="s">
         <v>480</v>
@@ -17346,7 +17367,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="619" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A619" s="32" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A617,3)+1,"000")</f>
         <v>TS136</v>
@@ -17367,7 +17388,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="620" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A620" s="36"/>
       <c r="B620" s="36" t="s">
         <v>483</v>
@@ -17388,7 +17409,7 @@
     <row r="622" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A622" s="31">
         <f>COUNTIF(A6:A620,"TS*")</f>
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B622" s="31">
         <f>COUNTIF(B6:B620,"TC*")</f>
@@ -17396,10 +17417,10 @@
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F623" s="114" t="s">
+      <c r="F623" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G623" s="114"/>
+      <c r="G623" s="1"/>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F624" s="49" t="s">
@@ -17532,48 +17553,66 @@
   <autoFilter ref="A3:I3" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <dataConsolidate/>
   <customSheetViews>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" hiddenRows="1">
-      <selection activeCell="B5" sqref="B5"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" hiddenRows="1">
+      <selection activeCell="A52" sqref="A52"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" hiddenRows="1">
+      <selection activeCell="B8" sqref="B8"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" showPageBreaks="1">
+      <selection sqref="A1:D1"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" showPageBreaks="1">
+      <selection activeCell="E129" sqref="E129"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+    </customSheetView>
+    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="85">
+      <selection activeCell="B103" sqref="B103"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+    </customSheetView>
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85" topLeftCell="A4">
+      <selection activeCell="E13" sqref="E13"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
     </customSheetView>
     <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" topLeftCell="A16">
       <selection activeCell="B40" sqref="B40"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85" topLeftCell="A4">
-      <selection activeCell="E13" sqref="E13"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="85">
-      <selection activeCell="B103" sqref="B103"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" showPageBreaks="1">
-      <selection activeCell="E129" sqref="E129"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
-    </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" showPageBreaks="1">
-      <selection sqref="A1:D1"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
-    </customSheetView>
-    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" hiddenRows="1">
-      <selection activeCell="B8" sqref="B8"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
     </customSheetView>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" hiddenRows="1">
-      <selection activeCell="A52" sqref="A52"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" hiddenRows="1">
+      <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="34">
+    <mergeCell ref="H467:H473"/>
+    <mergeCell ref="H495:H501"/>
+    <mergeCell ref="A360:G360"/>
+    <mergeCell ref="A326:G326"/>
+    <mergeCell ref="A397:G397"/>
+    <mergeCell ref="A445:G445"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A177:G177"/>
+    <mergeCell ref="A224:G224"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A128:G128"/>
+    <mergeCell ref="A178:G178"/>
     <mergeCell ref="F623:G623"/>
     <mergeCell ref="A417:G417"/>
     <mergeCell ref="A413:G413"/>
@@ -17590,24 +17629,6 @@
     <mergeCell ref="A416:G416"/>
     <mergeCell ref="C505:H505"/>
     <mergeCell ref="H418:H444"/>
-    <mergeCell ref="A177:G177"/>
-    <mergeCell ref="A224:G224"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A128:G128"/>
-    <mergeCell ref="A178:G178"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="H467:H473"/>
-    <mergeCell ref="H495:H501"/>
-    <mergeCell ref="A360:G360"/>
-    <mergeCell ref="A326:G326"/>
-    <mergeCell ref="A397:G397"/>
-    <mergeCell ref="A445:G445"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="F450:F476 F388:F392 F379:F381 F394:F395 F478:F516 F520:F597 F272 F277 F282 F287 F292 F297 F302 F306 F311 F316 F321 F326:F377 F1:F230 F599:F1048576 F232:F267 F397:F448">
@@ -18035,11 +18056,11 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" state="hidden">
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
       <selection activeCell="K30" sqref="K30"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" state="hidden">
       <selection activeCell="K30" sqref="K30"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
@@ -18058,8 +18079,8 @@
   </sheetPr>
   <dimension ref="A1:F685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A443" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="B456" sqref="B456"/>
+    <sheetView topLeftCell="A451" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="A415" sqref="A415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="65.33203125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -21204,14 +21225,14 @@
       <c r="F233" s="34"/>
     </row>
     <row r="234" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="122" t="s">
+      <c r="A234" s="120" t="s">
         <v>176</v>
       </c>
-      <c r="B234" s="122"/>
-      <c r="C234" s="122"/>
-      <c r="D234" s="122"/>
-      <c r="E234" s="122"/>
-      <c r="F234" s="122"/>
+      <c r="B234" s="120"/>
+      <c r="C234" s="120"/>
+      <c r="D234" s="120"/>
+      <c r="E234" s="120"/>
+      <c r="F234" s="120"/>
     </row>
     <row r="235" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A235" s="34"/>
@@ -21675,7 +21696,7 @@
       <c r="F268" s="34"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A269" s="123" t="s">
+      <c r="A269" s="124" t="s">
         <v>34</v>
       </c>
       <c r="B269" s="119"/>
@@ -21727,7 +21748,7 @@
       <c r="F272" s="35"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273" s="123" t="s">
+      <c r="A273" s="124" t="s">
         <v>37</v>
       </c>
       <c r="B273" s="119"/>
@@ -21765,7 +21786,7 @@
       <c r="F275" s="34"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A276" s="123" t="s">
+      <c r="A276" s="124" t="s">
         <v>40</v>
       </c>
       <c r="B276" s="119"/>
@@ -23073,12 +23094,12 @@
       <c r="F379" s="36"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A380" s="122"/>
-      <c r="B380" s="122"/>
-      <c r="C380" s="122"/>
-      <c r="D380" s="122"/>
-      <c r="E380" s="122"/>
-      <c r="F380" s="122"/>
+      <c r="A380" s="120"/>
+      <c r="B380" s="120"/>
+      <c r="C380" s="120"/>
+      <c r="D380" s="120"/>
+      <c r="E380" s="120"/>
+      <c r="F380" s="120"/>
     </row>
     <row r="381" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B381" s="51" t="s">
@@ -23159,12 +23180,12 @@
       <c r="F386" s="36"/>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A387" s="122"/>
-      <c r="B387" s="122"/>
-      <c r="C387" s="122"/>
-      <c r="D387" s="122"/>
-      <c r="E387" s="122"/>
-      <c r="F387" s="122"/>
+      <c r="A387" s="120"/>
+      <c r="B387" s="120"/>
+      <c r="C387" s="120"/>
+      <c r="D387" s="120"/>
+      <c r="E387" s="120"/>
+      <c r="F387" s="120"/>
     </row>
     <row r="388" spans="1:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B388" s="51" t="s">
@@ -23180,12 +23201,12 @@
       <c r="F388" s="36"/>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A389" s="122"/>
-      <c r="B389" s="122"/>
-      <c r="C389" s="122"/>
-      <c r="D389" s="122"/>
-      <c r="E389" s="122"/>
-      <c r="F389" s="122"/>
+      <c r="A389" s="120"/>
+      <c r="B389" s="120"/>
+      <c r="C389" s="120"/>
+      <c r="D389" s="120"/>
+      <c r="E389" s="120"/>
+      <c r="F389" s="120"/>
     </row>
     <row r="390" spans="1:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B390" s="51" t="s">
@@ -23398,6 +23419,9 @@
       <c r="F407" s="119"/>
     </row>
     <row r="408" spans="1:6" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="36" t="s">
+        <v>1132</v>
+      </c>
       <c r="B408" s="51" t="s">
         <v>988</v>
       </c>
@@ -23421,6 +23445,9 @@
       <c r="F409" s="119"/>
     </row>
     <row r="410" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A410" s="36" t="s">
+        <v>1133</v>
+      </c>
       <c r="B410" s="51" t="s">
         <v>988</v>
       </c>
@@ -25269,14 +25296,14 @@
       <c r="F551" s="53"/>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A552" s="122" t="s">
+      <c r="A552" s="120" t="s">
         <v>275</v>
       </c>
-      <c r="B552" s="122"/>
-      <c r="C552" s="122"/>
-      <c r="D552" s="122"/>
-      <c r="E552" s="122"/>
-      <c r="F552" s="122"/>
+      <c r="B552" s="120"/>
+      <c r="C552" s="120"/>
+      <c r="D552" s="120"/>
+      <c r="E552" s="120"/>
+      <c r="F552" s="120"/>
     </row>
     <row r="553" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B553" s="9" t="s">
@@ -25292,14 +25319,14 @@
       <c r="F553" s="36"/>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A554" s="122" t="s">
+      <c r="A554" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="B554" s="122"/>
-      <c r="C554" s="122"/>
-      <c r="D554" s="122"/>
-      <c r="E554" s="122"/>
-      <c r="F554" s="122"/>
+      <c r="B554" s="120"/>
+      <c r="C554" s="120"/>
+      <c r="D554" s="120"/>
+      <c r="E554" s="120"/>
+      <c r="F554" s="120"/>
     </row>
     <row r="555" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B555" s="51" t="s">
@@ -25328,14 +25355,14 @@
       <c r="F556" s="36"/>
     </row>
     <row r="557" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A557" s="124" t="s">
+      <c r="A557" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="B557" s="120"/>
-      <c r="C557" s="120"/>
-      <c r="D557" s="120"/>
-      <c r="E557" s="120"/>
-      <c r="F557" s="121"/>
+      <c r="B557" s="122"/>
+      <c r="C557" s="122"/>
+      <c r="D557" s="122"/>
+      <c r="E557" s="122"/>
+      <c r="F557" s="123"/>
     </row>
     <row r="558" spans="1:6" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B558" s="51" t="s">
@@ -25351,14 +25378,14 @@
       <c r="F558" s="36"/>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A559" s="122" t="s">
+      <c r="A559" s="120" t="s">
         <v>480</v>
       </c>
-      <c r="B559" s="122"/>
-      <c r="C559" s="122"/>
-      <c r="D559" s="122"/>
-      <c r="E559" s="122"/>
-      <c r="F559" s="122"/>
+      <c r="B559" s="120"/>
+      <c r="C559" s="120"/>
+      <c r="D559" s="120"/>
+      <c r="E559" s="120"/>
+      <c r="F559" s="120"/>
     </row>
     <row r="560" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B560" s="51" t="s">
@@ -25374,14 +25401,14 @@
       <c r="F560" s="36"/>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A561" s="122" t="s">
+      <c r="A561" s="120" t="s">
         <v>483</v>
       </c>
-      <c r="B561" s="122"/>
-      <c r="C561" s="122"/>
-      <c r="D561" s="122"/>
-      <c r="E561" s="122"/>
-      <c r="F561" s="122"/>
+      <c r="B561" s="120"/>
+      <c r="C561" s="120"/>
+      <c r="D561" s="120"/>
+      <c r="E561" s="120"/>
+      <c r="F561" s="120"/>
     </row>
     <row r="562" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B562" s="51" t="s">
@@ -25397,14 +25424,14 @@
       <c r="F562" s="36"/>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A563" s="122" t="s">
+      <c r="A563" s="120" t="s">
         <v>240</v>
       </c>
-      <c r="B563" s="122"/>
-      <c r="C563" s="122"/>
-      <c r="D563" s="122"/>
-      <c r="E563" s="122"/>
-      <c r="F563" s="122"/>
+      <c r="B563" s="120"/>
+      <c r="C563" s="120"/>
+      <c r="D563" s="120"/>
+      <c r="E563" s="120"/>
+      <c r="F563" s="120"/>
     </row>
     <row r="564" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B564" s="51" t="s">
@@ -25622,14 +25649,14 @@
       <c r="F579" s="53"/>
     </row>
     <row r="580" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A580" s="122" t="s">
+      <c r="A580" s="120" t="s">
         <v>192</v>
       </c>
-      <c r="B580" s="122"/>
-      <c r="C580" s="122"/>
-      <c r="D580" s="122"/>
-      <c r="E580" s="122"/>
-      <c r="F580" s="122"/>
+      <c r="B580" s="120"/>
+      <c r="C580" s="120"/>
+      <c r="D580" s="120"/>
+      <c r="E580" s="120"/>
+      <c r="F580" s="120"/>
     </row>
     <row r="581" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A581" s="34"/>
@@ -25800,12 +25827,12 @@
       <c r="F592" s="53"/>
     </row>
     <row r="593" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="120"/>
-      <c r="B593" s="120"/>
-      <c r="C593" s="120"/>
-      <c r="D593" s="120"/>
-      <c r="E593" s="120"/>
-      <c r="F593" s="121"/>
+      <c r="A593" s="122"/>
+      <c r="B593" s="122"/>
+      <c r="C593" s="122"/>
+      <c r="D593" s="122"/>
+      <c r="E593" s="122"/>
+      <c r="F593" s="123"/>
     </row>
     <row r="594" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A594" s="34"/>
@@ -25948,12 +25975,12 @@
       <c r="F603" s="53"/>
     </row>
     <row r="604" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A604" s="120"/>
-      <c r="B604" s="120"/>
-      <c r="C604" s="120"/>
-      <c r="D604" s="120"/>
-      <c r="E604" s="120"/>
-      <c r="F604" s="121"/>
+      <c r="A604" s="122"/>
+      <c r="B604" s="122"/>
+      <c r="C604" s="122"/>
+      <c r="D604" s="122"/>
+      <c r="E604" s="122"/>
+      <c r="F604" s="123"/>
     </row>
     <row r="605" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A605" s="34" t="s">
@@ -26100,12 +26127,12 @@
       <c r="F613" s="34"/>
     </row>
     <row r="614" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="120"/>
-      <c r="B614" s="120"/>
-      <c r="C614" s="120"/>
-      <c r="D614" s="120"/>
-      <c r="E614" s="120"/>
-      <c r="F614" s="121"/>
+      <c r="A614" s="122"/>
+      <c r="B614" s="122"/>
+      <c r="C614" s="122"/>
+      <c r="D614" s="122"/>
+      <c r="E614" s="122"/>
+      <c r="F614" s="123"/>
     </row>
     <row r="615" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A615" s="34"/>
@@ -26234,14 +26261,14 @@
       <c r="F623" s="34"/>
     </row>
     <row r="624" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A624" s="122" t="s">
+      <c r="A624" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="B624" s="122"/>
-      <c r="C624" s="122"/>
-      <c r="D624" s="122"/>
-      <c r="E624" s="122"/>
-      <c r="F624" s="122"/>
+      <c r="B624" s="120"/>
+      <c r="C624" s="120"/>
+      <c r="D624" s="120"/>
+      <c r="E624" s="120"/>
+      <c r="F624" s="120"/>
     </row>
     <row r="625" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A625" s="34"/>
@@ -27039,118 +27066,75 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" scale="60" topLeftCell="A4">
-      <selection activeCell="F13" sqref="F13"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" scale="85" topLeftCell="B1">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" scale="87" showPageBreaks="1" topLeftCell="A226">
-      <selection activeCell="F237" sqref="F237"/>
+    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" scale="85">
+      <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85">
-      <selection activeCell="G19" sqref="G19"/>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" scale="85" state="hidden">
+      <selection activeCell="A3" sqref="A3"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" scale="85">
+      <selection activeCell="F6" sqref="F6"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
     <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="55">
       <selection activeCell="C9" sqref="C9"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" scale="85">
-      <selection activeCell="F6" sqref="F6"/>
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85">
+      <selection activeCell="G19" sqref="G19"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" scale="85" state="hidden">
-      <selection activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" scale="87" showPageBreaks="1" topLeftCell="A226">
+      <selection activeCell="F237" sqref="F237"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" scale="85">
-      <selection activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" scale="60" topLeftCell="A4">
+      <selection activeCell="F13" sqref="F13"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" scale="85" topLeftCell="B1">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="133">
-    <mergeCell ref="A682:F682"/>
-    <mergeCell ref="A665:F665"/>
-    <mergeCell ref="A526:F526"/>
-    <mergeCell ref="A533:F533"/>
-    <mergeCell ref="A538:F538"/>
-    <mergeCell ref="A567:F567"/>
-    <mergeCell ref="A624:F624"/>
-    <mergeCell ref="A634:F634"/>
-    <mergeCell ref="A645:F645"/>
-    <mergeCell ref="A580:F580"/>
-    <mergeCell ref="A559:F559"/>
-    <mergeCell ref="A561:F561"/>
-    <mergeCell ref="A563:F563"/>
-    <mergeCell ref="A557:F557"/>
-    <mergeCell ref="A552:F552"/>
-    <mergeCell ref="A554:F554"/>
-    <mergeCell ref="A543:F543"/>
-    <mergeCell ref="A670:F670"/>
-    <mergeCell ref="A672:F672"/>
-    <mergeCell ref="A674:F674"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A473:F473"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A445:F445"/>
-    <mergeCell ref="A449:F449"/>
-    <mergeCell ref="A454:F454"/>
-    <mergeCell ref="A457:F457"/>
-    <mergeCell ref="A521:F521"/>
-    <mergeCell ref="A680:F680"/>
-    <mergeCell ref="A510:F510"/>
-    <mergeCell ref="A516:F516"/>
-    <mergeCell ref="A479:F479"/>
-    <mergeCell ref="A489:F489"/>
-    <mergeCell ref="A491:F491"/>
-    <mergeCell ref="A493:F493"/>
-    <mergeCell ref="A499:F499"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A678:F678"/>
-    <mergeCell ref="A405:F405"/>
-    <mergeCell ref="A407:F407"/>
-    <mergeCell ref="A409:F409"/>
-    <mergeCell ref="A461:F461"/>
-    <mergeCell ref="A465:F465"/>
-    <mergeCell ref="A426:F426"/>
-    <mergeCell ref="A396:F396"/>
-    <mergeCell ref="A399:F399"/>
-    <mergeCell ref="A401:F401"/>
-    <mergeCell ref="A403:F403"/>
-    <mergeCell ref="A414:F414"/>
-    <mergeCell ref="A417:F417"/>
-    <mergeCell ref="A420:F420"/>
-    <mergeCell ref="A423:F423"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A300:F300"/>
-    <mergeCell ref="A303:F303"/>
-    <mergeCell ref="A197:F197"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A175:F175"/>
-    <mergeCell ref="A243:F243"/>
-    <mergeCell ref="A234:F234"/>
-    <mergeCell ref="A266:F266"/>
-    <mergeCell ref="A269:F269"/>
-    <mergeCell ref="A216:F216"/>
-    <mergeCell ref="A225:F225"/>
-    <mergeCell ref="A253:F253"/>
-    <mergeCell ref="A273:F273"/>
-    <mergeCell ref="A276:F276"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:F293"/>
-    <mergeCell ref="A279:F279"/>
-    <mergeCell ref="A287:F287"/>
-    <mergeCell ref="A291:F291"/>
-    <mergeCell ref="A284:F284"/>
+    <mergeCell ref="A684:F684"/>
+    <mergeCell ref="A593:F593"/>
+    <mergeCell ref="A604:F604"/>
+    <mergeCell ref="A614:F614"/>
+    <mergeCell ref="A358:F358"/>
+    <mergeCell ref="A661:F661"/>
+    <mergeCell ref="A340:F340"/>
+    <mergeCell ref="A345:F345"/>
+    <mergeCell ref="A355:F355"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A360:F360"/>
+    <mergeCell ref="A658:F658"/>
+    <mergeCell ref="A378:F378"/>
+    <mergeCell ref="A365:F365"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="A372:F372"/>
+    <mergeCell ref="A374:F374"/>
+    <mergeCell ref="A389:F389"/>
+    <mergeCell ref="A411:F411"/>
+    <mergeCell ref="A391:F391"/>
+    <mergeCell ref="A394:F394"/>
+    <mergeCell ref="A380:F380"/>
+    <mergeCell ref="A387:F387"/>
+    <mergeCell ref="A376:F376"/>
+    <mergeCell ref="A337:F337"/>
+    <mergeCell ref="A305:F305"/>
+    <mergeCell ref="A314:F314"/>
+    <mergeCell ref="A320:F320"/>
+    <mergeCell ref="A327:F327"/>
+    <mergeCell ref="A309:F309"/>
+    <mergeCell ref="A317:F317"/>
+    <mergeCell ref="A323:F323"/>
+    <mergeCell ref="A334:F334"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A35:F35"/>
@@ -27175,39 +27159,82 @@
     <mergeCell ref="A116:F116"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A337:F337"/>
-    <mergeCell ref="A305:F305"/>
-    <mergeCell ref="A314:F314"/>
-    <mergeCell ref="A320:F320"/>
-    <mergeCell ref="A327:F327"/>
-    <mergeCell ref="A309:F309"/>
-    <mergeCell ref="A317:F317"/>
-    <mergeCell ref="A323:F323"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A684:F684"/>
-    <mergeCell ref="A593:F593"/>
-    <mergeCell ref="A604:F604"/>
-    <mergeCell ref="A614:F614"/>
-    <mergeCell ref="A358:F358"/>
-    <mergeCell ref="A661:F661"/>
-    <mergeCell ref="A340:F340"/>
-    <mergeCell ref="A345:F345"/>
-    <mergeCell ref="A355:F355"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A360:F360"/>
-    <mergeCell ref="A658:F658"/>
-    <mergeCell ref="A378:F378"/>
-    <mergeCell ref="A365:F365"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="A372:F372"/>
-    <mergeCell ref="A374:F374"/>
-    <mergeCell ref="A389:F389"/>
-    <mergeCell ref="A411:F411"/>
-    <mergeCell ref="A391:F391"/>
-    <mergeCell ref="A394:F394"/>
-    <mergeCell ref="A380:F380"/>
-    <mergeCell ref="A387:F387"/>
-    <mergeCell ref="A376:F376"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A300:F300"/>
+    <mergeCell ref="A303:F303"/>
+    <mergeCell ref="A197:F197"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A175:F175"/>
+    <mergeCell ref="A243:F243"/>
+    <mergeCell ref="A234:F234"/>
+    <mergeCell ref="A266:F266"/>
+    <mergeCell ref="A269:F269"/>
+    <mergeCell ref="A216:F216"/>
+    <mergeCell ref="A225:F225"/>
+    <mergeCell ref="A253:F253"/>
+    <mergeCell ref="A273:F273"/>
+    <mergeCell ref="A276:F276"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:F293"/>
+    <mergeCell ref="A279:F279"/>
+    <mergeCell ref="A287:F287"/>
+    <mergeCell ref="A291:F291"/>
+    <mergeCell ref="A284:F284"/>
+    <mergeCell ref="A405:F405"/>
+    <mergeCell ref="A407:F407"/>
+    <mergeCell ref="A409:F409"/>
+    <mergeCell ref="A461:F461"/>
+    <mergeCell ref="A465:F465"/>
+    <mergeCell ref="A426:F426"/>
+    <mergeCell ref="A396:F396"/>
+    <mergeCell ref="A399:F399"/>
+    <mergeCell ref="A401:F401"/>
+    <mergeCell ref="A403:F403"/>
+    <mergeCell ref="A414:F414"/>
+    <mergeCell ref="A417:F417"/>
+    <mergeCell ref="A420:F420"/>
+    <mergeCell ref="A423:F423"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A473:F473"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A445:F445"/>
+    <mergeCell ref="A449:F449"/>
+    <mergeCell ref="A454:F454"/>
+    <mergeCell ref="A457:F457"/>
+    <mergeCell ref="A521:F521"/>
+    <mergeCell ref="A680:F680"/>
+    <mergeCell ref="A510:F510"/>
+    <mergeCell ref="A516:F516"/>
+    <mergeCell ref="A479:F479"/>
+    <mergeCell ref="A489:F489"/>
+    <mergeCell ref="A491:F491"/>
+    <mergeCell ref="A493:F493"/>
+    <mergeCell ref="A499:F499"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A678:F678"/>
+    <mergeCell ref="A682:F682"/>
+    <mergeCell ref="A665:F665"/>
+    <mergeCell ref="A526:F526"/>
+    <mergeCell ref="A533:F533"/>
+    <mergeCell ref="A538:F538"/>
+    <mergeCell ref="A567:F567"/>
+    <mergeCell ref="A624:F624"/>
+    <mergeCell ref="A634:F634"/>
+    <mergeCell ref="A645:F645"/>
+    <mergeCell ref="A580:F580"/>
+    <mergeCell ref="A559:F559"/>
+    <mergeCell ref="A561:F561"/>
+    <mergeCell ref="A563:F563"/>
+    <mergeCell ref="A557:F557"/>
+    <mergeCell ref="A552:F552"/>
+    <mergeCell ref="A554:F554"/>
+    <mergeCell ref="A543:F543"/>
+    <mergeCell ref="A670:F670"/>
+    <mergeCell ref="A672:F672"/>
+    <mergeCell ref="A674:F674"/>
+    <mergeCell ref="A676:F676"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId3"/>
@@ -27218,12 +27245,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27450,15 +27474,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51AF712D-A5A0-4EDF-9D46-785D33BE3E6A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F03A4E3-7AEE-4350-9C0D-B148727606F6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -27483,10 +27511,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F03A4E3-7AEE-4350-9C0D-B148727606F6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51AF712D-A5A0-4EDF-9D46-785D33BE3E6A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Config/Release5.xlsx
+++ b/Config/Release5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArronSealmoy\PycharmProjects\MeralcoOnline\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3C554D-6CFF-441B-A24B-AEB1C4BE39DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C618CD3B-61A5-4919-A811-3EB7E1A4DF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="673" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11295" tabRatio="673" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4071" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4162" uniqueCount="1178">
   <si>
     <t>Revision History</t>
   </si>
@@ -4183,6 +4183,48 @@
   </si>
   <si>
     <t xml:space="preserve">TC029 </t>
+  </si>
+  <si>
+    <t>TS049</t>
+  </si>
+  <si>
+    <t>TC033</t>
+  </si>
+  <si>
+    <t>TS048</t>
+  </si>
+  <si>
+    <t>TS047</t>
+  </si>
+  <si>
+    <t>TS050</t>
+  </si>
+  <si>
+    <t>TS051</t>
+  </si>
+  <si>
+    <t>TS052</t>
+  </si>
+  <si>
+    <t>TS053</t>
+  </si>
+  <si>
+    <t>TS054</t>
+  </si>
+  <si>
+    <t>TS056</t>
+  </si>
+  <si>
+    <t>TC115</t>
+  </si>
+  <si>
+    <t>TC116</t>
+  </si>
+  <si>
+    <t>TC117</t>
+  </si>
+  <si>
+    <t>TC119</t>
   </si>
 </sst>
 </file>
@@ -6243,8 +6285,8 @@
   </sheetPr>
   <dimension ref="A1:J631"/>
   <sheetViews>
-    <sheetView topLeftCell="A251" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B258" sqref="B258"/>
+    <sheetView topLeftCell="A301" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B307" sqref="B307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -10964,7 +11006,9 @@
       </c>
     </row>
     <row r="263" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A263" s="36"/>
+      <c r="A263" s="36" t="s">
+        <v>1167</v>
+      </c>
       <c r="B263" s="36" t="s">
         <v>169</v>
       </c>
@@ -10984,7 +11028,9 @@
       </c>
     </row>
     <row r="264" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A264" s="36"/>
+      <c r="A264" s="36" t="s">
+        <v>1167</v>
+      </c>
       <c r="B264" s="36" t="s">
         <v>110</v>
       </c>
@@ -11004,7 +11050,9 @@
       </c>
     </row>
     <row r="265" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A265" s="36"/>
+      <c r="A265" s="36" t="s">
+        <v>1167</v>
+      </c>
       <c r="B265" s="36" t="s">
         <v>170</v>
       </c>
@@ -11022,7 +11070,9 @@
       </c>
     </row>
     <row r="266" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A266" s="36"/>
+      <c r="A266" s="36" t="s">
+        <v>1167</v>
+      </c>
       <c r="B266" s="36" t="s">
         <v>158</v>
       </c>
@@ -11061,7 +11111,9 @@
       </c>
     </row>
     <row r="268" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A268" s="36"/>
+      <c r="A268" s="36" t="s">
+        <v>1166</v>
+      </c>
       <c r="B268" s="36" t="s">
         <v>172</v>
       </c>
@@ -11081,7 +11133,9 @@
       </c>
     </row>
     <row r="269" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A269" s="36"/>
+      <c r="A269" s="36" t="s">
+        <v>1166</v>
+      </c>
       <c r="B269" s="36" t="s">
         <v>110</v>
       </c>
@@ -11101,7 +11155,9 @@
       </c>
     </row>
     <row r="270" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A270" s="36"/>
+      <c r="A270" s="36" t="s">
+        <v>1166</v>
+      </c>
       <c r="B270" s="36" t="s">
         <v>170</v>
       </c>
@@ -11119,7 +11175,9 @@
       </c>
     </row>
     <row r="271" spans="1:10" s="27" customFormat="1" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A271" s="36"/>
+      <c r="A271" s="36" t="s">
+        <v>1166</v>
+      </c>
       <c r="B271" s="36" t="s">
         <v>173</v>
       </c>
@@ -11158,7 +11216,9 @@
       </c>
     </row>
     <row r="273" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A273" s="36"/>
+      <c r="A273" s="36" t="s">
+        <v>1164</v>
+      </c>
       <c r="B273" s="36" t="s">
         <v>176</v>
       </c>
@@ -11178,7 +11238,9 @@
       </c>
     </row>
     <row r="274" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A274" s="36"/>
+      <c r="A274" s="36" t="s">
+        <v>1164</v>
+      </c>
       <c r="B274" s="36" t="s">
         <v>110</v>
       </c>
@@ -11198,7 +11260,9 @@
       </c>
     </row>
     <row r="275" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A275" s="36"/>
+      <c r="A275" s="36" t="s">
+        <v>1164</v>
+      </c>
       <c r="B275" s="36" t="s">
         <v>170</v>
       </c>
@@ -11216,7 +11280,9 @@
       </c>
     </row>
     <row r="276" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A276" s="36"/>
+      <c r="A276" s="36" t="s">
+        <v>1164</v>
+      </c>
       <c r="B276" s="36" t="s">
         <v>173</v>
       </c>
@@ -11255,7 +11321,9 @@
       </c>
     </row>
     <row r="278" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A278" s="36"/>
+      <c r="A278" s="36" t="s">
+        <v>1168</v>
+      </c>
       <c r="B278" s="36" t="s">
         <v>178</v>
       </c>
@@ -11275,7 +11343,9 @@
       </c>
     </row>
     <row r="279" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A279" s="36"/>
+      <c r="A279" s="36" t="s">
+        <v>1168</v>
+      </c>
       <c r="B279" s="36" t="s">
         <v>110</v>
       </c>
@@ -11295,7 +11365,9 @@
       </c>
     </row>
     <row r="280" spans="1:10" s="27" customFormat="1" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A280" s="36"/>
+      <c r="A280" s="36" t="s">
+        <v>1168</v>
+      </c>
       <c r="B280" s="36" t="s">
         <v>179</v>
       </c>
@@ -11313,7 +11385,9 @@
       </c>
     </row>
     <row r="281" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A281" s="36"/>
+      <c r="A281" s="36" t="s">
+        <v>1168</v>
+      </c>
       <c r="B281" s="36" t="s">
         <v>180</v>
       </c>
@@ -11353,7 +11427,9 @@
       </c>
     </row>
     <row r="283" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A283" s="36"/>
+      <c r="A283" s="36" t="s">
+        <v>1169</v>
+      </c>
       <c r="B283" s="36" t="s">
         <v>184</v>
       </c>
@@ -11376,7 +11452,9 @@
       </c>
     </row>
     <row r="284" spans="1:10" s="38" customFormat="1" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A284" s="36"/>
+      <c r="A284" s="36" t="s">
+        <v>1169</v>
+      </c>
       <c r="B284" s="36" t="s">
         <v>110</v>
       </c>
@@ -11397,7 +11475,9 @@
       </c>
     </row>
     <row r="285" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A285" s="36"/>
+      <c r="A285" s="36" t="s">
+        <v>1169</v>
+      </c>
       <c r="B285" s="36" t="s">
         <v>179</v>
       </c>
@@ -11412,7 +11492,9 @@
       <c r="G285" s="36"/>
     </row>
     <row r="286" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A286" s="36"/>
+      <c r="A286" s="36" t="s">
+        <v>1169</v>
+      </c>
       <c r="B286" s="36" t="s">
         <v>180</v>
       </c>
@@ -11448,7 +11530,9 @@
       </c>
     </row>
     <row r="288" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A288" s="36"/>
+      <c r="A288" s="36" t="s">
+        <v>1170</v>
+      </c>
       <c r="B288" s="36" t="s">
         <v>189</v>
       </c>
@@ -11468,7 +11552,9 @@
       </c>
     </row>
     <row r="289" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A289" s="36"/>
+      <c r="A289" s="36" t="s">
+        <v>1170</v>
+      </c>
       <c r="B289" s="36" t="s">
         <v>110</v>
       </c>
@@ -11491,7 +11577,9 @@
       </c>
     </row>
     <row r="290" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A290" s="36"/>
+      <c r="A290" s="36" t="s">
+        <v>1170</v>
+      </c>
       <c r="B290" s="36" t="s">
         <v>157</v>
       </c>
@@ -11506,7 +11594,9 @@
       <c r="G290" s="36"/>
     </row>
     <row r="291" spans="1:10" ht="114.75" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A291" s="36"/>
+      <c r="A291" s="36" t="s">
+        <v>1170</v>
+      </c>
       <c r="B291" s="36" t="s">
         <v>158</v>
       </c>
@@ -11545,7 +11635,9 @@
       </c>
     </row>
     <row r="293" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A293" s="36"/>
+      <c r="A293" s="36" t="s">
+        <v>1171</v>
+      </c>
       <c r="B293" s="36" t="s">
         <v>192</v>
       </c>
@@ -11562,7 +11654,9 @@
       </c>
     </row>
     <row r="294" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A294" s="36"/>
+      <c r="A294" s="36" t="s">
+        <v>1171</v>
+      </c>
       <c r="B294" s="36" t="s">
         <v>110</v>
       </c>
@@ -11585,7 +11679,9 @@
       </c>
     </row>
     <row r="295" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A295" s="36"/>
+      <c r="A295" s="36" t="s">
+        <v>1171</v>
+      </c>
       <c r="B295" s="36" t="s">
         <v>163</v>
       </c>
@@ -11603,7 +11699,9 @@
       </c>
     </row>
     <row r="296" spans="1:10" ht="114.75" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A296" s="36"/>
+      <c r="A296" s="36" t="s">
+        <v>1171</v>
+      </c>
       <c r="B296" s="36" t="s">
         <v>158</v>
       </c>
@@ -11642,7 +11740,9 @@
       </c>
     </row>
     <row r="298" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A298" s="36"/>
+      <c r="A298" s="36" t="s">
+        <v>1172</v>
+      </c>
       <c r="B298" s="36" t="s">
         <v>195</v>
       </c>
@@ -11662,7 +11762,9 @@
       </c>
     </row>
     <row r="299" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A299" s="36"/>
+      <c r="A299" s="36" t="s">
+        <v>1172</v>
+      </c>
       <c r="B299" s="36" t="s">
         <v>110</v>
       </c>
@@ -11685,7 +11787,9 @@
       </c>
     </row>
     <row r="300" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A300" s="36"/>
+      <c r="A300" s="36" t="s">
+        <v>1172</v>
+      </c>
       <c r="B300" s="36" t="s">
         <v>167</v>
       </c>
@@ -11700,7 +11804,9 @@
       <c r="G300" s="36"/>
     </row>
     <row r="301" spans="1:10" ht="127.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A301" s="36"/>
+      <c r="A301" s="36" t="s">
+        <v>1172</v>
+      </c>
       <c r="B301" s="36" t="s">
         <v>158</v>
       </c>
@@ -11822,7 +11928,9 @@
       </c>
     </row>
     <row r="307" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A307" s="36"/>
+      <c r="A307" s="36" t="s">
+        <v>1173</v>
+      </c>
       <c r="B307" s="36" t="s">
         <v>201</v>
       </c>
@@ -11842,7 +11950,9 @@
       </c>
     </row>
     <row r="308" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A308" s="36"/>
+      <c r="A308" s="36" t="s">
+        <v>1173</v>
+      </c>
       <c r="B308" s="36" t="s">
         <v>110</v>
       </c>
@@ -11865,7 +11975,9 @@
       </c>
     </row>
     <row r="309" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A309" s="36"/>
+      <c r="A309" s="36" t="s">
+        <v>1173</v>
+      </c>
       <c r="B309" s="36" t="s">
         <v>170</v>
       </c>
@@ -11880,7 +11992,9 @@
       <c r="G309" s="36"/>
     </row>
     <row r="310" spans="1:10" s="27" customFormat="1" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A310" s="36"/>
+      <c r="A310" s="36" t="s">
+        <v>1173</v>
+      </c>
       <c r="B310" s="36" t="s">
         <v>173</v>
       </c>
@@ -17600,7 +17714,7 @@
     <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622" s="31">
         <f>COUNTIF(A6:A620,"TS*")</f>
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="B622" s="31">
         <f>COUNTIF(B6:B620,"TC*")</f>
@@ -18270,8 +18384,8 @@
   </sheetPr>
   <dimension ref="A1:F685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189"/>
+    <sheetView tabSelected="1" topLeftCell="A611" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="C617" sqref="C617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="65.28515625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -21538,7 +21652,9 @@
       <c r="F234" s="120"/>
     </row>
     <row r="235" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="34"/>
+      <c r="A235" s="34" t="s">
+        <v>1165</v>
+      </c>
       <c r="B235" s="51" t="s">
         <v>987</v>
       </c>
@@ -21552,7 +21668,9 @@
       <c r="F235" s="34"/>
     </row>
     <row r="236" spans="1:6" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="34"/>
+      <c r="A236" s="34" t="s">
+        <v>1165</v>
+      </c>
       <c r="B236" s="51" t="s">
         <v>989</v>
       </c>
@@ -21566,7 +21684,9 @@
       <c r="F236" s="34"/>
     </row>
     <row r="237" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="34"/>
+      <c r="A237" s="34" t="s">
+        <v>1165</v>
+      </c>
       <c r="B237" s="51" t="s">
         <v>991</v>
       </c>
@@ -21580,7 +21700,9 @@
       <c r="F237" s="34"/>
     </row>
     <row r="238" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="34"/>
+      <c r="A238" s="34" t="s">
+        <v>1165</v>
+      </c>
       <c r="B238" s="51" t="s">
         <v>994</v>
       </c>
@@ -21594,7 +21716,9 @@
       <c r="F238" s="34"/>
     </row>
     <row r="239" spans="1:6" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="55"/>
+      <c r="A239" s="34" t="s">
+        <v>1165</v>
+      </c>
       <c r="B239" s="94" t="s">
         <v>1100</v>
       </c>
@@ -21608,7 +21732,9 @@
       <c r="F239" s="55"/>
     </row>
     <row r="240" spans="1:6" ht="114.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="34"/>
+      <c r="A240" s="34" t="s">
+        <v>1165</v>
+      </c>
       <c r="B240" s="51" t="s">
         <v>1101</v>
       </c>
@@ -21622,7 +21748,9 @@
       <c r="F240" s="34"/>
     </row>
     <row r="241" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="34"/>
+      <c r="A241" s="34" t="s">
+        <v>1165</v>
+      </c>
       <c r="B241" s="51" t="s">
         <v>1102</v>
       </c>
@@ -21636,7 +21764,9 @@
       <c r="F241" s="34"/>
     </row>
     <row r="242" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="34"/>
+      <c r="A242" s="34" t="s">
+        <v>1165</v>
+      </c>
       <c r="B242" s="51" t="s">
         <v>1103</v>
       </c>
@@ -25770,7 +25900,9 @@
       <c r="F566" s="36"/>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A567" s="119"/>
+      <c r="A567" s="119" t="s">
+        <v>189</v>
+      </c>
       <c r="B567" s="119"/>
       <c r="C567" s="119"/>
       <c r="D567" s="119"/>
@@ -25778,7 +25910,9 @@
       <c r="F567" s="119"/>
     </row>
     <row r="568" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A568" s="34"/>
+      <c r="A568" s="34" t="s">
+        <v>1174</v>
+      </c>
       <c r="B568" s="51" t="s">
         <v>987</v>
       </c>
@@ -25792,12 +25926,14 @@
       <c r="F568" s="34"/>
     </row>
     <row r="569" spans="1:6" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="34"/>
+      <c r="A569" s="34" t="s">
+        <v>1174</v>
+      </c>
       <c r="B569" s="51" t="s">
         <v>989</v>
       </c>
       <c r="C569" s="34" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="D569" s="34" t="s">
         <v>675</v>
@@ -25806,7 +25942,9 @@
       <c r="F569" s="34"/>
     </row>
     <row r="570" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="34"/>
+      <c r="A570" s="34" t="s">
+        <v>1174</v>
+      </c>
       <c r="B570" s="51" t="s">
         <v>991</v>
       </c>
@@ -25820,7 +25958,9 @@
       <c r="F570" s="34"/>
     </row>
     <row r="571" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A571" s="34"/>
+      <c r="A571" s="34" t="s">
+        <v>1174</v>
+      </c>
       <c r="B571" s="51" t="s">
         <v>994</v>
       </c>
@@ -25834,7 +25974,9 @@
       <c r="F571" s="34"/>
     </row>
     <row r="572" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A572" s="55"/>
+      <c r="A572" s="34" t="s">
+        <v>1174</v>
+      </c>
       <c r="B572" s="94" t="s">
         <v>1100</v>
       </c>
@@ -25848,7 +25990,9 @@
       <c r="F572" s="55"/>
     </row>
     <row r="573" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A573" s="55"/>
+      <c r="A573" s="34" t="s">
+        <v>1174</v>
+      </c>
       <c r="B573" s="94" t="s">
         <v>1101</v>
       </c>
@@ -25862,7 +26006,9 @@
       <c r="F573" s="55"/>
     </row>
     <row r="574" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="34"/>
+      <c r="A574" s="34" t="s">
+        <v>1174</v>
+      </c>
       <c r="B574" s="51" t="s">
         <v>1102</v>
       </c>
@@ -25876,7 +26022,9 @@
       <c r="F574" s="34"/>
     </row>
     <row r="575" spans="1:6" ht="140.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="34"/>
+      <c r="A575" s="34" t="s">
+        <v>1174</v>
+      </c>
       <c r="B575" s="51" t="s">
         <v>1103</v>
       </c>
@@ -25890,7 +26038,9 @@
       <c r="F575" s="34"/>
     </row>
     <row r="576" spans="1:6" ht="89.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="34"/>
+      <c r="A576" s="34" t="s">
+        <v>1174</v>
+      </c>
       <c r="B576" s="51" t="s">
         <v>1104</v>
       </c>
@@ -25904,7 +26054,9 @@
       <c r="F576" s="34"/>
     </row>
     <row r="577" spans="1:6" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="34"/>
+      <c r="A577" s="34" t="s">
+        <v>1174</v>
+      </c>
       <c r="B577" s="51" t="s">
         <v>1116</v>
       </c>
@@ -25918,7 +26070,9 @@
       <c r="F577" s="34"/>
     </row>
     <row r="578" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="53"/>
+      <c r="A578" s="34" t="s">
+        <v>1174</v>
+      </c>
       <c r="B578" s="51" t="s">
         <v>1117</v>
       </c>
@@ -25932,7 +26086,9 @@
       <c r="F578" s="36"/>
     </row>
     <row r="579" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="53"/>
+      <c r="A579" s="34" t="s">
+        <v>1174</v>
+      </c>
       <c r="B579" s="51" t="s">
         <v>1118</v>
       </c>
@@ -25956,7 +26112,9 @@
       <c r="F580" s="120"/>
     </row>
     <row r="581" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="34"/>
+      <c r="A581" s="34" t="s">
+        <v>1175</v>
+      </c>
       <c r="B581" s="51" t="s">
         <v>987</v>
       </c>
@@ -25970,7 +26128,9 @@
       <c r="F581" s="34"/>
     </row>
     <row r="582" spans="1:6" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="34"/>
+      <c r="A582" s="34" t="s">
+        <v>1175</v>
+      </c>
       <c r="B582" s="51" t="s">
         <v>989</v>
       </c>
@@ -25984,7 +26144,9 @@
       <c r="F582" s="34"/>
     </row>
     <row r="583" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A583" s="34"/>
+      <c r="A583" s="34" t="s">
+        <v>1175</v>
+      </c>
       <c r="B583" s="51" t="s">
         <v>991</v>
       </c>
@@ -25998,7 +26160,9 @@
       <c r="F583" s="34"/>
     </row>
     <row r="584" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A584" s="34"/>
+      <c r="A584" s="34" t="s">
+        <v>1175</v>
+      </c>
       <c r="B584" s="51" t="s">
         <v>994</v>
       </c>
@@ -26012,7 +26176,9 @@
       <c r="F584" s="34"/>
     </row>
     <row r="585" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A585" s="55"/>
+      <c r="A585" s="34" t="s">
+        <v>1175</v>
+      </c>
       <c r="B585" s="94" t="s">
         <v>1100</v>
       </c>
@@ -26026,7 +26192,9 @@
       <c r="F585" s="55"/>
     </row>
     <row r="586" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A586" s="55"/>
+      <c r="A586" s="34" t="s">
+        <v>1175</v>
+      </c>
       <c r="B586" s="94" t="s">
         <v>1101</v>
       </c>
@@ -26040,7 +26208,9 @@
       <c r="F586" s="55"/>
     </row>
     <row r="587" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A587" s="34"/>
+      <c r="A587" s="34" t="s">
+        <v>1175</v>
+      </c>
       <c r="B587" s="51" t="s">
         <v>1102</v>
       </c>
@@ -26054,7 +26224,9 @@
       <c r="F587" s="34"/>
     </row>
     <row r="588" spans="1:6" ht="140.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A588" s="34"/>
+      <c r="A588" s="34" t="s">
+        <v>1175</v>
+      </c>
       <c r="B588" s="51" t="s">
         <v>1103</v>
       </c>
@@ -26068,7 +26240,9 @@
       <c r="F588" s="34"/>
     </row>
     <row r="589" spans="1:6" ht="102" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A589" s="34"/>
+      <c r="A589" s="34" t="s">
+        <v>1175</v>
+      </c>
       <c r="B589" s="51" t="s">
         <v>1104</v>
       </c>
@@ -26082,7 +26256,9 @@
       <c r="F589" s="34"/>
     </row>
     <row r="590" spans="1:6" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A590" s="34"/>
+      <c r="A590" s="34" t="s">
+        <v>1175</v>
+      </c>
       <c r="B590" s="51" t="s">
         <v>1116</v>
       </c>
@@ -26096,7 +26272,9 @@
       <c r="F590" s="34"/>
     </row>
     <row r="591" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A591" s="53"/>
+      <c r="A591" s="34" t="s">
+        <v>1175</v>
+      </c>
       <c r="B591" s="51" t="s">
         <v>1117</v>
       </c>
@@ -26110,7 +26288,9 @@
       <c r="F591" s="36"/>
     </row>
     <row r="592" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A592" s="53"/>
+      <c r="A592" s="34" t="s">
+        <v>1175</v>
+      </c>
       <c r="B592" s="51" t="s">
         <v>1118</v>
       </c>
@@ -26124,7 +26304,9 @@
       <c r="F592" s="53"/>
     </row>
     <row r="593" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A593" s="122"/>
+      <c r="A593" s="122" t="s">
+        <v>195</v>
+      </c>
       <c r="B593" s="122"/>
       <c r="C593" s="122"/>
       <c r="D593" s="122"/>
@@ -26132,7 +26314,9 @@
       <c r="F593" s="123"/>
     </row>
     <row r="594" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A594" s="34"/>
+      <c r="A594" s="34" t="s">
+        <v>1176</v>
+      </c>
       <c r="B594" s="51" t="s">
         <v>987</v>
       </c>
@@ -26146,7 +26330,9 @@
       <c r="F594" s="34"/>
     </row>
     <row r="595" spans="1:6" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A595" s="34"/>
+      <c r="A595" s="34" t="s">
+        <v>1176</v>
+      </c>
       <c r="B595" s="51" t="s">
         <v>989</v>
       </c>
@@ -26160,7 +26346,9 @@
       <c r="F595" s="34"/>
     </row>
     <row r="596" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A596" s="34"/>
+      <c r="A596" s="34" t="s">
+        <v>1176</v>
+      </c>
       <c r="B596" s="51" t="s">
         <v>991</v>
       </c>
@@ -26174,7 +26362,9 @@
       <c r="F596" s="34"/>
     </row>
     <row r="597" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A597" s="34"/>
+      <c r="A597" s="34" t="s">
+        <v>1176</v>
+      </c>
       <c r="B597" s="51" t="s">
         <v>994</v>
       </c>
@@ -26188,7 +26378,9 @@
       <c r="F597" s="34"/>
     </row>
     <row r="598" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A598" s="55"/>
+      <c r="A598" s="34" t="s">
+        <v>1176</v>
+      </c>
       <c r="B598" s="94" t="s">
         <v>1100</v>
       </c>
@@ -26202,7 +26394,9 @@
       <c r="F598" s="55"/>
     </row>
     <row r="599" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A599" s="55"/>
+      <c r="A599" s="34" t="s">
+        <v>1176</v>
+      </c>
       <c r="B599" s="94" t="s">
         <v>1101</v>
       </c>
@@ -26216,7 +26410,9 @@
       <c r="F599" s="55"/>
     </row>
     <row r="600" spans="1:6" ht="27.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A600" s="34"/>
+      <c r="A600" s="34" t="s">
+        <v>1176</v>
+      </c>
       <c r="B600" s="51" t="s">
         <v>1102</v>
       </c>
@@ -26230,7 +26426,9 @@
       <c r="F600" s="34"/>
     </row>
     <row r="601" spans="1:6" ht="125.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A601" s="34"/>
+      <c r="A601" s="34" t="s">
+        <v>1176</v>
+      </c>
       <c r="B601" s="101" t="s">
         <v>1103</v>
       </c>
@@ -26244,7 +26442,9 @@
       <c r="F601" s="34"/>
     </row>
     <row r="602" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A602" s="53"/>
+      <c r="A602" s="34" t="s">
+        <v>1176</v>
+      </c>
       <c r="B602" s="51" t="s">
         <v>1104</v>
       </c>
@@ -26258,7 +26458,9 @@
       <c r="F602" s="36"/>
     </row>
     <row r="603" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A603" s="53"/>
+      <c r="A603" s="34" t="s">
+        <v>1176</v>
+      </c>
       <c r="B603" s="101" t="s">
         <v>1116</v>
       </c>
@@ -26272,7 +26474,9 @@
       <c r="F603" s="53"/>
     </row>
     <row r="604" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A604" s="122"/>
+      <c r="A604" s="122" t="s">
+        <v>198</v>
+      </c>
       <c r="B604" s="122"/>
       <c r="C604" s="122"/>
       <c r="D604" s="122"/>
@@ -26424,7 +26628,9 @@
       <c r="F613" s="34"/>
     </row>
     <row r="614" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="122"/>
+      <c r="A614" s="122" t="s">
+        <v>201</v>
+      </c>
       <c r="B614" s="122"/>
       <c r="C614" s="122"/>
       <c r="D614" s="122"/>
@@ -26432,7 +26638,9 @@
       <c r="F614" s="123"/>
     </row>
     <row r="615" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A615" s="34"/>
+      <c r="A615" s="34" t="s">
+        <v>1177</v>
+      </c>
       <c r="B615" s="51" t="s">
         <v>987</v>
       </c>
@@ -26446,7 +26654,9 @@
       <c r="F615" s="34"/>
     </row>
     <row r="616" spans="1:6" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A616" s="34"/>
+      <c r="A616" s="34" t="s">
+        <v>1177</v>
+      </c>
       <c r="B616" s="51" t="s">
         <v>989</v>
       </c>
@@ -26460,7 +26670,9 @@
       <c r="F616" s="34"/>
     </row>
     <row r="617" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A617" s="34"/>
+      <c r="A617" s="34" t="s">
+        <v>1177</v>
+      </c>
       <c r="B617" s="51" t="s">
         <v>991</v>
       </c>
@@ -26474,7 +26686,9 @@
       <c r="F617" s="34"/>
     </row>
     <row r="618" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A618" s="34"/>
+      <c r="A618" s="34" t="s">
+        <v>1177</v>
+      </c>
       <c r="B618" s="51" t="s">
         <v>994</v>
       </c>
@@ -26488,7 +26702,9 @@
       <c r="F618" s="34"/>
     </row>
     <row r="619" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A619" s="55"/>
+      <c r="A619" s="34" t="s">
+        <v>1177</v>
+      </c>
       <c r="B619" s="94" t="s">
         <v>1100</v>
       </c>
@@ -26502,7 +26718,9 @@
       <c r="F619" s="55"/>
     </row>
     <row r="620" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A620" s="55"/>
+      <c r="A620" s="34" t="s">
+        <v>1177</v>
+      </c>
       <c r="B620" s="94" t="s">
         <v>1101</v>
       </c>
@@ -26516,7 +26734,9 @@
       <c r="F620" s="55"/>
     </row>
     <row r="621" spans="1:6" ht="114.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A621" s="34"/>
+      <c r="A621" s="34" t="s">
+        <v>1177</v>
+      </c>
       <c r="B621" s="51" t="s">
         <v>1102</v>
       </c>
@@ -26530,7 +26750,9 @@
       <c r="F621" s="34"/>
     </row>
     <row r="622" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A622" s="34"/>
+      <c r="A622" s="34" t="s">
+        <v>1177</v>
+      </c>
       <c r="B622" s="51" t="s">
         <v>1103</v>
       </c>
@@ -26544,7 +26766,9 @@
       <c r="F622" s="34"/>
     </row>
     <row r="623" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A623" s="34"/>
+      <c r="A623" s="34" t="s">
+        <v>1177</v>
+      </c>
       <c r="B623" s="51" t="s">
         <v>1104</v>
       </c>

--- a/Config/Release5.xlsx
+++ b/Config/Release5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lvgalvez/Documents/GitHub/MeralcoOnline/Config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejarcebido/Documents/Projects/Python/MeralcoOnline/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42802F8C-0F15-7F45-ACD1-91E3FB03941C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6615E42-883A-9D44-AF0C-9AFB58A9CC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="673" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="11020" tabRatio="673" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="1" r:id="rId1"/>
@@ -47,14 +47,14 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yvi  Aligam - Personal View" guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Sheena Marie F. Diaz (CheQ Systems Inc.) - Personal View" guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="674" activeSheetId="4"/>
+    <customWorkbookView name="Ma. Diana D. Carbon (CheQ Systems Inc.) - Personal View" guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="2"/>
+    <customWorkbookView name="Ayezha Abanador (CheQ Systems Inc.) - Personal View" guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" mergeInterval="0" personalView="1" maximized="1" xWindow="70" yWindow="-8" windowWidth="1218" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Angelito P. Magat (CheQ Systems Inc.) - Personal View" guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="583" activeSheetId="2"/>
+    <customWorkbookView name="Laminuette Emata - Personal View" guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="673" activeSheetId="2"/>
+    <customWorkbookView name="Jerome Allan G. Florendo - Personal View" guid="{7089F64A-F77B-480F-9643-8730755F04D6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
     <customWorkbookView name="Ayezha Abanador - Personal View" guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" mergeInterval="0" personalView="1" maximized="1" xWindow="66" yWindow="-8" windowWidth="1222" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Jerome Allan G. Florendo - Personal View" guid="{7089F64A-F77B-480F-9643-8730755F04D6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Laminuette Emata - Personal View" guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="673" activeSheetId="2"/>
-    <customWorkbookView name="Angelito P. Magat (CheQ Systems Inc.) - Personal View" guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="583" activeSheetId="2"/>
-    <customWorkbookView name="Ayezha Abanador (CheQ Systems Inc.) - Personal View" guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" mergeInterval="0" personalView="1" maximized="1" xWindow="70" yWindow="-8" windowWidth="1218" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Ma. Diana D. Carbon (CheQ Systems Inc.) - Personal View" guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="2"/>
-    <customWorkbookView name="Sheena Marie F. Diaz (CheQ Systems Inc.) - Personal View" guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="674" activeSheetId="4"/>
-    <customWorkbookView name="Yvi  Aligam - Personal View" guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3962" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="1137">
   <si>
     <t>Revision History</t>
   </si>
@@ -4542,8 +4542,8 @@
   </cellStyleXfs>
   <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4844,6 +4844,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4853,11 +4865,20 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4871,35 +4892,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4907,8 +4901,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6115,18 +6115,15 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}">
-      <selection activeCell="C17" sqref="C17"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}">
+      <selection activeCell="F15" sqref="F15"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}">
-      <selection activeCell="C4" sqref="C4"/>
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
+      <selection activeCell="D8" sqref="D7:D8"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}">
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}">
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
@@ -6134,16 +6131,19 @@
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}">
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
-      <selection activeCell="D8" sqref="D7:D8"/>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}">
-      <selection activeCell="F15" sqref="F15"/>
+    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}">
+      <selection activeCell="C4" sqref="C4"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}">
+      <selection activeCell="C17" sqref="C17"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -6162,7 +6162,7 @@
   </sheetPr>
   <dimension ref="A1:J631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C349" sqref="C349"/>
     </sheetView>
   </sheetViews>
@@ -6179,27 +6179,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
       <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="66"/>
     </row>
     <row r="3" spans="1:9" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6227,27 +6227,27 @@
       <c r="H3" s="66"/>
     </row>
     <row r="4" spans="1:9" s="27" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="I5" s="31" t="s">
         <v>24</v>
       </c>
@@ -6373,15 +6373,15 @@
       </c>
     </row>
     <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="105"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109"/>
     </row>
     <row r="13" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
@@ -6464,27 +6464,27 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
       <c r="H17" s="70"/>
     </row>
     <row r="18" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="103" t="s">
+      <c r="A18" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="105"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="109"/>
     </row>
     <row r="19" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="str">
@@ -7711,15 +7711,15 @@
       <c r="G90" s="36"/>
     </row>
     <row r="91" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="103" t="s">
+      <c r="A91" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="104"/>
-      <c r="C91" s="104"/>
-      <c r="D91" s="104"/>
-      <c r="E91" s="104"/>
-      <c r="F91" s="104"/>
-      <c r="G91" s="105"/>
+      <c r="B91" s="108"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="108"/>
+      <c r="F91" s="108"/>
+      <c r="G91" s="109"/>
     </row>
     <row r="92" spans="1:9" ht="23.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="32" t="s">
@@ -8356,15 +8356,15 @@
       <c r="G127" s="36"/>
     </row>
     <row r="128" spans="1:9" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="113" t="s">
+      <c r="A128" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="B128" s="114"/>
-      <c r="C128" s="114"/>
-      <c r="D128" s="114"/>
-      <c r="E128" s="114"/>
-      <c r="F128" s="114"/>
-      <c r="G128" s="114"/>
+      <c r="B128" s="104"/>
+      <c r="C128" s="104"/>
+      <c r="D128" s="104"/>
+      <c r="E128" s="104"/>
+      <c r="F128" s="104"/>
+      <c r="G128" s="104"/>
       <c r="H128" s="66"/>
     </row>
     <row r="129" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -9214,27 +9214,27 @@
       <c r="G176" s="36"/>
     </row>
     <row r="177" spans="1:10" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A177" s="106" t="s">
+      <c r="A177" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="B177" s="107"/>
-      <c r="C177" s="107"/>
-      <c r="D177" s="107"/>
-      <c r="E177" s="107"/>
-      <c r="F177" s="107"/>
-      <c r="G177" s="107"/>
+      <c r="B177" s="106"/>
+      <c r="C177" s="106"/>
+      <c r="D177" s="106"/>
+      <c r="E177" s="106"/>
+      <c r="F177" s="106"/>
+      <c r="G177" s="106"/>
       <c r="H177" s="70"/>
     </row>
     <row r="178" spans="1:10" s="38" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="115" t="s">
+      <c r="A178" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="B178" s="116"/>
-      <c r="C178" s="116"/>
-      <c r="D178" s="116"/>
-      <c r="E178" s="116"/>
-      <c r="F178" s="116"/>
-      <c r="G178" s="116"/>
+      <c r="B178" s="113"/>
+      <c r="C178" s="113"/>
+      <c r="D178" s="113"/>
+      <c r="E178" s="113"/>
+      <c r="F178" s="113"/>
+      <c r="G178" s="113"/>
       <c r="H178" s="70"/>
     </row>
     <row r="179" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -10022,15 +10022,15 @@
       </c>
     </row>
     <row r="224" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="113" t="s">
+      <c r="A224" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="B224" s="114"/>
-      <c r="C224" s="114"/>
-      <c r="D224" s="114"/>
-      <c r="E224" s="114"/>
-      <c r="F224" s="114"/>
-      <c r="G224" s="114"/>
+      <c r="B224" s="104"/>
+      <c r="C224" s="104"/>
+      <c r="D224" s="104"/>
+      <c r="E224" s="104"/>
+      <c r="F224" s="104"/>
+      <c r="G224" s="104"/>
     </row>
     <row r="225" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A225" s="32" t="str">
@@ -11985,15 +11985,15 @@
       <c r="G325" s="36"/>
     </row>
     <row r="326" spans="1:9" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="113" t="s">
+      <c r="A326" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="B326" s="114"/>
-      <c r="C326" s="114"/>
-      <c r="D326" s="114"/>
-      <c r="E326" s="114"/>
-      <c r="F326" s="114"/>
-      <c r="G326" s="114"/>
+      <c r="B326" s="104"/>
+      <c r="C326" s="104"/>
+      <c r="D326" s="104"/>
+      <c r="E326" s="104"/>
+      <c r="F326" s="104"/>
+      <c r="G326" s="104"/>
       <c r="H326" s="66"/>
     </row>
     <row r="327" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -12641,15 +12641,15 @@
       </c>
     </row>
     <row r="360" spans="1:9" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="113" t="s">
+      <c r="A360" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="B360" s="114"/>
-      <c r="C360" s="114"/>
-      <c r="D360" s="114"/>
-      <c r="E360" s="114"/>
-      <c r="F360" s="114"/>
-      <c r="G360" s="114"/>
+      <c r="B360" s="104"/>
+      <c r="C360" s="104"/>
+      <c r="D360" s="104"/>
+      <c r="E360" s="104"/>
+      <c r="F360" s="104"/>
+      <c r="G360" s="104"/>
       <c r="H360" s="66"/>
     </row>
     <row r="361" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -13320,15 +13320,15 @@
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A397" s="106" t="s">
+      <c r="A397" s="105" t="s">
         <v>257</v>
       </c>
-      <c r="B397" s="107"/>
-      <c r="C397" s="107"/>
-      <c r="D397" s="107"/>
-      <c r="E397" s="107"/>
-      <c r="F397" s="107"/>
-      <c r="G397" s="107"/>
+      <c r="B397" s="106"/>
+      <c r="C397" s="106"/>
+      <c r="D397" s="106"/>
+      <c r="E397" s="106"/>
+      <c r="F397" s="106"/>
+      <c r="G397" s="106"/>
     </row>
     <row r="398" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A398" s="32" t="str">
@@ -13612,15 +13612,15 @@
       <c r="G412" s="36"/>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A413" s="106" t="s">
+      <c r="A413" s="105" t="s">
         <v>277</v>
       </c>
-      <c r="B413" s="107"/>
-      <c r="C413" s="107"/>
-      <c r="D413" s="107"/>
-      <c r="E413" s="107"/>
-      <c r="F413" s="107"/>
-      <c r="G413" s="107"/>
+      <c r="B413" s="106"/>
+      <c r="C413" s="106"/>
+      <c r="D413" s="106"/>
+      <c r="E413" s="106"/>
+      <c r="F413" s="106"/>
+      <c r="G413" s="106"/>
     </row>
     <row r="414" spans="1:10" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A414" s="32" t="str">
@@ -13659,26 +13659,26 @@
       <c r="G415" s="36"/>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A416" s="106" t="s">
+      <c r="A416" s="105" t="s">
         <v>281</v>
       </c>
-      <c r="B416" s="107"/>
-      <c r="C416" s="107"/>
-      <c r="D416" s="107"/>
-      <c r="E416" s="107"/>
-      <c r="F416" s="107"/>
-      <c r="G416" s="107"/>
+      <c r="B416" s="106"/>
+      <c r="C416" s="106"/>
+      <c r="D416" s="106"/>
+      <c r="E416" s="106"/>
+      <c r="F416" s="106"/>
+      <c r="G416" s="106"/>
     </row>
     <row r="417" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A417" s="103" t="s">
+      <c r="A417" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B417" s="104"/>
-      <c r="C417" s="104"/>
-      <c r="D417" s="104"/>
-      <c r="E417" s="104"/>
-      <c r="F417" s="104"/>
-      <c r="G417" s="105"/>
+      <c r="B417" s="108"/>
+      <c r="C417" s="108"/>
+      <c r="D417" s="108"/>
+      <c r="E417" s="108"/>
+      <c r="F417" s="108"/>
+      <c r="G417" s="109"/>
     </row>
     <row r="418" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A418" s="32" t="str">
@@ -13695,7 +13695,7 @@
       <c r="E418" s="46"/>
       <c r="F418" s="45"/>
       <c r="G418" s="26"/>
-      <c r="H418" s="112" t="s">
+      <c r="H418" s="1" t="s">
         <v>284</v>
       </c>
       <c r="I418" s="31" t="s">
@@ -13716,7 +13716,7 @@
         <v>146</v>
       </c>
       <c r="G419" s="36"/>
-      <c r="H419" s="112"/>
+      <c r="H419" s="1"/>
     </row>
     <row r="420" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A420" s="36"/>
@@ -13732,7 +13732,7 @@
         <v>146</v>
       </c>
       <c r="G420" s="36"/>
-      <c r="H420" s="112"/>
+      <c r="H420" s="1"/>
     </row>
     <row r="421" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A421" s="36"/>
@@ -13748,7 +13748,7 @@
         <v>146</v>
       </c>
       <c r="G421" s="36"/>
-      <c r="H421" s="112"/>
+      <c r="H421" s="1"/>
     </row>
     <row r="422" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A422" s="36"/>
@@ -13764,7 +13764,7 @@
         <v>146</v>
       </c>
       <c r="G422" s="36"/>
-      <c r="H422" s="112"/>
+      <c r="H422" s="1"/>
     </row>
     <row r="423" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A423" s="36"/>
@@ -13780,7 +13780,7 @@
         <v>146</v>
       </c>
       <c r="G423" s="36"/>
-      <c r="H423" s="112"/>
+      <c r="H423" s="1"/>
     </row>
     <row r="424" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A424" s="32" t="str">
@@ -13797,7 +13797,7 @@
       <c r="E424" s="46"/>
       <c r="F424" s="33"/>
       <c r="G424" s="37"/>
-      <c r="H424" s="112"/>
+      <c r="H424" s="1"/>
       <c r="I424" s="31" t="s">
         <v>146</v>
       </c>
@@ -13816,7 +13816,7 @@
         <v>146</v>
       </c>
       <c r="G425" s="36"/>
-      <c r="H425" s="112"/>
+      <c r="H425" s="1"/>
     </row>
     <row r="426" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A426" s="32" t="str">
@@ -13833,7 +13833,7 @@
       <c r="E426" s="46"/>
       <c r="F426" s="33"/>
       <c r="G426" s="37"/>
-      <c r="H426" s="112"/>
+      <c r="H426" s="1"/>
       <c r="I426" s="31" t="s">
         <v>146</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>146</v>
       </c>
       <c r="G427" s="36"/>
-      <c r="H427" s="112"/>
+      <c r="H427" s="1"/>
     </row>
     <row r="428" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A428" s="36"/>
@@ -13868,7 +13868,7 @@
         <v>146</v>
       </c>
       <c r="G428" s="36"/>
-      <c r="H428" s="112"/>
+      <c r="H428" s="1"/>
     </row>
     <row r="429" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A429" s="36"/>
@@ -13884,7 +13884,7 @@
         <v>146</v>
       </c>
       <c r="G429" s="36"/>
-      <c r="H429" s="112"/>
+      <c r="H429" s="1"/>
     </row>
     <row r="430" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A430" s="36"/>
@@ -13900,7 +13900,7 @@
         <v>146</v>
       </c>
       <c r="G430" s="36"/>
-      <c r="H430" s="112"/>
+      <c r="H430" s="1"/>
     </row>
     <row r="431" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A431" s="36"/>
@@ -13916,7 +13916,7 @@
         <v>146</v>
       </c>
       <c r="G431" s="36"/>
-      <c r="H431" s="112"/>
+      <c r="H431" s="1"/>
     </row>
     <row r="432" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A432" s="36"/>
@@ -13932,7 +13932,7 @@
         <v>146</v>
       </c>
       <c r="G432" s="36"/>
-      <c r="H432" s="112"/>
+      <c r="H432" s="1"/>
     </row>
     <row r="433" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A433" s="36"/>
@@ -13948,7 +13948,7 @@
         <v>146</v>
       </c>
       <c r="G433" s="36"/>
-      <c r="H433" s="112"/>
+      <c r="H433" s="1"/>
     </row>
     <row r="434" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A434" s="36"/>
@@ -13964,7 +13964,7 @@
         <v>146</v>
       </c>
       <c r="G434" s="36"/>
-      <c r="H434" s="112"/>
+      <c r="H434" s="1"/>
     </row>
     <row r="435" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A435" s="36"/>
@@ -13980,7 +13980,7 @@
         <v>146</v>
       </c>
       <c r="G435" s="36"/>
-      <c r="H435" s="112"/>
+      <c r="H435" s="1"/>
     </row>
     <row r="436" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A436" s="36"/>
@@ -13996,7 +13996,7 @@
         <v>146</v>
       </c>
       <c r="G436" s="36"/>
-      <c r="H436" s="112"/>
+      <c r="H436" s="1"/>
     </row>
     <row r="437" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A437" s="36"/>
@@ -14012,7 +14012,7 @@
         <v>146</v>
       </c>
       <c r="G437" s="36"/>
-      <c r="H437" s="112"/>
+      <c r="H437" s="1"/>
     </row>
     <row r="438" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A438" s="36"/>
@@ -14028,7 +14028,7 @@
         <v>146</v>
       </c>
       <c r="G438" s="36"/>
-      <c r="H438" s="112"/>
+      <c r="H438" s="1"/>
     </row>
     <row r="439" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A439" s="36"/>
@@ -14044,7 +14044,7 @@
         <v>146</v>
       </c>
       <c r="G439" s="36"/>
-      <c r="H439" s="112"/>
+      <c r="H439" s="1"/>
     </row>
     <row r="440" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A440" s="32" t="str">
@@ -14061,7 +14061,7 @@
       <c r="E440" s="46"/>
       <c r="F440" s="33"/>
       <c r="G440" s="37"/>
-      <c r="H440" s="112"/>
+      <c r="H440" s="1"/>
       <c r="I440" s="31" t="s">
         <v>146</v>
       </c>
@@ -14080,7 +14080,7 @@
         <v>146</v>
       </c>
       <c r="G441" s="36"/>
-      <c r="H441" s="112"/>
+      <c r="H441" s="1"/>
     </row>
     <row r="442" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A442" s="36"/>
@@ -14096,7 +14096,7 @@
         <v>146</v>
       </c>
       <c r="G442" s="36"/>
-      <c r="H442" s="112"/>
+      <c r="H442" s="1"/>
     </row>
     <row r="443" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A443" s="36"/>
@@ -14112,7 +14112,7 @@
         <v>146</v>
       </c>
       <c r="G443" s="36"/>
-      <c r="H443" s="112"/>
+      <c r="H443" s="1"/>
     </row>
     <row r="444" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A444" s="36"/>
@@ -14128,18 +14128,18 @@
         <v>146</v>
       </c>
       <c r="G444" s="36"/>
-      <c r="H444" s="112"/>
+      <c r="H444" s="1"/>
     </row>
     <row r="445" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="103" t="s">
+      <c r="A445" s="107" t="s">
         <v>336</v>
       </c>
-      <c r="B445" s="104"/>
-      <c r="C445" s="104"/>
-      <c r="D445" s="104"/>
-      <c r="E445" s="104"/>
-      <c r="F445" s="104"/>
-      <c r="G445" s="105"/>
+      <c r="B445" s="108"/>
+      <c r="C445" s="108"/>
+      <c r="D445" s="108"/>
+      <c r="E445" s="108"/>
+      <c r="F445" s="108"/>
+      <c r="G445" s="109"/>
     </row>
     <row r="446" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A446" s="32" t="str">
@@ -14566,7 +14566,7 @@
       <c r="E467" s="46"/>
       <c r="F467" s="33"/>
       <c r="G467" s="37"/>
-      <c r="H467" s="112" t="s">
+      <c r="H467" s="1" t="s">
         <v>284</v>
       </c>
       <c r="I467" s="31" t="s">
@@ -14585,7 +14585,7 @@
       <c r="E468" s="35"/>
       <c r="F468" s="35"/>
       <c r="G468" s="36"/>
-      <c r="H468" s="112"/>
+      <c r="H468" s="1"/>
     </row>
     <row r="469" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A469" s="36"/>
@@ -14601,7 +14601,7 @@
         <v>146</v>
       </c>
       <c r="G469" s="36"/>
-      <c r="H469" s="112"/>
+      <c r="H469" s="1"/>
     </row>
     <row r="470" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A470" s="36"/>
@@ -14617,7 +14617,7 @@
         <v>146</v>
       </c>
       <c r="G470" s="36"/>
-      <c r="H470" s="112"/>
+      <c r="H470" s="1"/>
     </row>
     <row r="471" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A471" s="36"/>
@@ -14633,7 +14633,7 @@
         <v>146</v>
       </c>
       <c r="G471" s="36"/>
-      <c r="H471" s="112"/>
+      <c r="H471" s="1"/>
     </row>
     <row r="472" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A472" s="36"/>
@@ -14649,7 +14649,7 @@
         <v>146</v>
       </c>
       <c r="G472" s="36"/>
-      <c r="H472" s="112"/>
+      <c r="H472" s="1"/>
     </row>
     <row r="473" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A473" s="36"/>
@@ -14665,7 +14665,7 @@
         <v>146</v>
       </c>
       <c r="G473" s="36"/>
-      <c r="H473" s="112"/>
+      <c r="H473" s="1"/>
     </row>
     <row r="474" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A474" s="32" t="str">
@@ -15097,7 +15097,7 @@
       <c r="E495" s="46"/>
       <c r="F495" s="33"/>
       <c r="G495" s="37"/>
-      <c r="H495" s="112" t="s">
+      <c r="H495" s="1" t="s">
         <v>284</v>
       </c>
       <c r="I495" s="31" t="s">
@@ -15116,7 +15116,7 @@
       <c r="E496" s="35"/>
       <c r="F496" s="35"/>
       <c r="G496" s="36"/>
-      <c r="H496" s="112"/>
+      <c r="H496" s="1"/>
     </row>
     <row r="497" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A497" s="36"/>
@@ -15132,7 +15132,7 @@
         <v>146</v>
       </c>
       <c r="G497" s="36"/>
-      <c r="H497" s="112"/>
+      <c r="H497" s="1"/>
     </row>
     <row r="498" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A498" s="36"/>
@@ -15148,7 +15148,7 @@
         <v>146</v>
       </c>
       <c r="G498" s="36"/>
-      <c r="H498" s="112"/>
+      <c r="H498" s="1"/>
     </row>
     <row r="499" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A499" s="36"/>
@@ -15164,7 +15164,7 @@
         <v>146</v>
       </c>
       <c r="G499" s="36"/>
-      <c r="H499" s="112"/>
+      <c r="H499" s="1"/>
     </row>
     <row r="500" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A500" s="36"/>
@@ -15180,7 +15180,7 @@
         <v>146</v>
       </c>
       <c r="G500" s="36"/>
-      <c r="H500" s="112"/>
+      <c r="H500" s="1"/>
     </row>
     <row r="501" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A501" s="36"/>
@@ -15196,29 +15196,29 @@
         <v>146</v>
       </c>
       <c r="G501" s="36"/>
-      <c r="H501" s="112"/>
+      <c r="H501" s="1"/>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A502" s="106" t="s">
+      <c r="A502" s="105" t="s">
         <v>396</v>
       </c>
-      <c r="B502" s="107"/>
-      <c r="C502" s="107"/>
-      <c r="D502" s="107"/>
-      <c r="E502" s="107"/>
-      <c r="F502" s="107"/>
-      <c r="G502" s="107"/>
+      <c r="B502" s="106"/>
+      <c r="C502" s="106"/>
+      <c r="D502" s="106"/>
+      <c r="E502" s="106"/>
+      <c r="F502" s="106"/>
+      <c r="G502" s="106"/>
     </row>
     <row r="503" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A503" s="103" t="s">
+      <c r="A503" s="107" t="s">
         <v>397</v>
       </c>
-      <c r="B503" s="104"/>
-      <c r="C503" s="104"/>
-      <c r="D503" s="104"/>
-      <c r="E503" s="104"/>
-      <c r="F503" s="104"/>
-      <c r="G503" s="105"/>
+      <c r="B503" s="108"/>
+      <c r="C503" s="108"/>
+      <c r="D503" s="108"/>
+      <c r="E503" s="108"/>
+      <c r="F503" s="108"/>
+      <c r="G503" s="109"/>
     </row>
     <row r="504" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A504" s="32" t="str">
@@ -15248,12 +15248,12 @@
       <c r="B505" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="C505" s="108"/>
-      <c r="D505" s="109"/>
-      <c r="E505" s="109"/>
-      <c r="F505" s="110"/>
-      <c r="G505" s="110"/>
-      <c r="H505" s="111"/>
+      <c r="C505" s="115"/>
+      <c r="D505" s="116"/>
+      <c r="E505" s="116"/>
+      <c r="F505" s="117"/>
+      <c r="G505" s="117"/>
+      <c r="H505" s="118"/>
       <c r="I505" s="79"/>
       <c r="J505" s="80"/>
     </row>
@@ -15275,15 +15275,15 @@
       <c r="G506" s="36"/>
     </row>
     <row r="507" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A507" s="103" t="s">
+      <c r="A507" s="107" t="s">
         <v>403</v>
       </c>
-      <c r="B507" s="104"/>
-      <c r="C507" s="104"/>
-      <c r="D507" s="104"/>
-      <c r="E507" s="104"/>
-      <c r="F507" s="104"/>
-      <c r="G507" s="105"/>
+      <c r="B507" s="108"/>
+      <c r="C507" s="108"/>
+      <c r="D507" s="108"/>
+      <c r="E507" s="108"/>
+      <c r="F507" s="108"/>
+      <c r="G507" s="109"/>
     </row>
     <row r="508" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A508" s="32" t="str">
@@ -15391,26 +15391,26 @@
       <c r="G513" s="36"/>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A514" s="106" t="s">
+      <c r="A514" s="105" t="s">
         <v>410</v>
       </c>
-      <c r="B514" s="107"/>
-      <c r="C514" s="107"/>
-      <c r="D514" s="107"/>
-      <c r="E514" s="107"/>
-      <c r="F514" s="107"/>
-      <c r="G514" s="107"/>
+      <c r="B514" s="106"/>
+      <c r="C514" s="106"/>
+      <c r="D514" s="106"/>
+      <c r="E514" s="106"/>
+      <c r="F514" s="106"/>
+      <c r="G514" s="106"/>
     </row>
     <row r="515" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A515" s="103" t="s">
+      <c r="A515" s="107" t="s">
         <v>411</v>
       </c>
-      <c r="B515" s="104"/>
-      <c r="C515" s="104"/>
-      <c r="D515" s="104"/>
-      <c r="E515" s="104"/>
-      <c r="F515" s="104"/>
-      <c r="G515" s="105"/>
+      <c r="B515" s="108"/>
+      <c r="C515" s="108"/>
+      <c r="D515" s="108"/>
+      <c r="E515" s="108"/>
+      <c r="F515" s="108"/>
+      <c r="G515" s="109"/>
     </row>
     <row r="516" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A516" s="32" t="str">
@@ -16193,15 +16193,15 @@
       <c r="I555" s="48"/>
     </row>
     <row r="556" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="103" t="s">
+      <c r="A556" s="107" t="s">
         <v>429</v>
       </c>
-      <c r="B556" s="104"/>
-      <c r="C556" s="104"/>
-      <c r="D556" s="104"/>
-      <c r="E556" s="104"/>
-      <c r="F556" s="104"/>
-      <c r="G556" s="105"/>
+      <c r="B556" s="108"/>
+      <c r="C556" s="108"/>
+      <c r="D556" s="108"/>
+      <c r="E556" s="108"/>
+      <c r="F556" s="108"/>
+      <c r="G556" s="109"/>
     </row>
     <row r="557" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A557" s="32" t="str">
@@ -16439,15 +16439,15 @@
       </c>
     </row>
     <row r="569" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A569" s="103" t="s">
+      <c r="A569" s="107" t="s">
         <v>440</v>
       </c>
-      <c r="B569" s="104"/>
-      <c r="C569" s="104"/>
-      <c r="D569" s="104"/>
-      <c r="E569" s="104"/>
-      <c r="F569" s="104"/>
-      <c r="G569" s="105"/>
+      <c r="B569" s="108"/>
+      <c r="C569" s="108"/>
+      <c r="D569" s="108"/>
+      <c r="E569" s="108"/>
+      <c r="F569" s="108"/>
+      <c r="G569" s="109"/>
     </row>
     <row r="570" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A570" s="32" t="str">
@@ -16840,15 +16840,15 @@
       </c>
     </row>
     <row r="590" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="103" t="s">
+      <c r="A590" s="107" t="s">
         <v>453</v>
       </c>
-      <c r="B590" s="104"/>
-      <c r="C590" s="104"/>
-      <c r="D590" s="104"/>
-      <c r="E590" s="104"/>
-      <c r="F590" s="104"/>
-      <c r="G590" s="105"/>
+      <c r="B590" s="108"/>
+      <c r="C590" s="108"/>
+      <c r="D590" s="108"/>
+      <c r="E590" s="108"/>
+      <c r="F590" s="108"/>
+      <c r="G590" s="109"/>
     </row>
     <row r="591" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A591" s="32" t="str">
@@ -17125,15 +17125,15 @@
       </c>
     </row>
     <row r="605" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A605" s="103" t="s">
+      <c r="A605" s="107" t="s">
         <v>466</v>
       </c>
-      <c r="B605" s="104"/>
-      <c r="C605" s="104"/>
-      <c r="D605" s="104"/>
-      <c r="E605" s="104"/>
-      <c r="F605" s="104"/>
-      <c r="G605" s="105"/>
+      <c r="B605" s="108"/>
+      <c r="C605" s="108"/>
+      <c r="D605" s="108"/>
+      <c r="E605" s="108"/>
+      <c r="F605" s="108"/>
+      <c r="G605" s="109"/>
     </row>
     <row r="606" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A606" s="32" t="str">
@@ -17318,15 +17318,15 @@
       </c>
     </row>
     <row r="616" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A616" s="103" t="s">
+      <c r="A616" s="107" t="s">
         <v>477</v>
       </c>
-      <c r="B616" s="104"/>
-      <c r="C616" s="104"/>
-      <c r="D616" s="104"/>
-      <c r="E616" s="104"/>
-      <c r="F616" s="104"/>
-      <c r="G616" s="105"/>
+      <c r="B616" s="108"/>
+      <c r="C616" s="108"/>
+      <c r="D616" s="108"/>
+      <c r="E616" s="108"/>
+      <c r="F616" s="108"/>
+      <c r="G616" s="109"/>
     </row>
     <row r="617" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A617" s="32" t="str">
@@ -17417,10 +17417,10 @@
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F623" s="1" t="s">
+      <c r="F623" s="114" t="s">
         <v>484</v>
       </c>
-      <c r="G623" s="1"/>
+      <c r="G623" s="114"/>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F624" s="49" t="s">
@@ -17553,66 +17553,48 @@
   <autoFilter ref="A3:I3" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <dataConsolidate/>
   <customSheetViews>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" hiddenRows="1">
-      <selection activeCell="A52" sqref="A52"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" hiddenRows="1">
+      <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" topLeftCell="A16">
+      <selection activeCell="B40" sqref="B40"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85" topLeftCell="A4">
+      <selection activeCell="E13" sqref="E13"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="85">
+      <selection activeCell="B103" sqref="B103"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" showPageBreaks="1">
+      <selection activeCell="E129" sqref="E129"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+    </customSheetView>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" showPageBreaks="1">
+      <selection sqref="A1:D1"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
     </customSheetView>
     <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" hiddenRows="1">
       <selection activeCell="B8" sqref="B8"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" showPageBreaks="1">
-      <selection sqref="A1:D1"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" showPageBreaks="1">
-      <selection activeCell="E129" sqref="E129"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="85">
-      <selection activeCell="B103" sqref="B103"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
-    </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85" topLeftCell="A4">
-      <selection activeCell="E13" sqref="E13"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
-    </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" topLeftCell="A16">
-      <selection activeCell="B40" sqref="B40"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
     </customSheetView>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" hiddenRows="1">
-      <selection activeCell="B5" sqref="B5"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" hiddenRows="1">
+      <selection activeCell="A52" sqref="A52"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="34">
-    <mergeCell ref="H467:H473"/>
-    <mergeCell ref="H495:H501"/>
-    <mergeCell ref="A360:G360"/>
-    <mergeCell ref="A326:G326"/>
-    <mergeCell ref="A397:G397"/>
-    <mergeCell ref="A445:G445"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A177:G177"/>
-    <mergeCell ref="A224:G224"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A128:G128"/>
-    <mergeCell ref="A178:G178"/>
     <mergeCell ref="F623:G623"/>
     <mergeCell ref="A417:G417"/>
     <mergeCell ref="A413:G413"/>
@@ -17629,6 +17611,24 @@
     <mergeCell ref="A416:G416"/>
     <mergeCell ref="C505:H505"/>
     <mergeCell ref="H418:H444"/>
+    <mergeCell ref="A177:G177"/>
+    <mergeCell ref="A224:G224"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A128:G128"/>
+    <mergeCell ref="A178:G178"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="H467:H473"/>
+    <mergeCell ref="H495:H501"/>
+    <mergeCell ref="A360:G360"/>
+    <mergeCell ref="A326:G326"/>
+    <mergeCell ref="A397:G397"/>
+    <mergeCell ref="A445:G445"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="F450:F476 F388:F392 F379:F381 F394:F395 F478:F516 F520:F597 F272 F277 F282 F287 F292 F297 F302 F306 F311 F316 F321 F326:F377 F1:F230 F599:F1048576 F232:F267 F397:F448">
@@ -18056,11 +18056,11 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" state="hidden">
       <selection activeCell="K30" sqref="K30"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" state="hidden">
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
       <selection activeCell="K30" sqref="K30"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
@@ -18079,8 +18079,8 @@
   </sheetPr>
   <dimension ref="A1:F685"/>
   <sheetViews>
-    <sheetView topLeftCell="A451" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146:F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="65.33203125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -19756,7 +19756,7 @@
     </row>
     <row r="124" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="119" t="s">
-        <v>649</v>
+        <v>121</v>
       </c>
       <c r="B124" s="119"/>
       <c r="C124" s="119"/>
@@ -19863,7 +19863,9 @@
       <c r="F131" s="34"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="119"/>
+      <c r="A132" s="119" t="s">
+        <v>126</v>
+      </c>
       <c r="B132" s="119"/>
       <c r="C132" s="119"/>
       <c r="D132" s="119"/>
@@ -19927,7 +19929,9 @@
       <c r="F136" s="34"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="119"/>
+      <c r="A137" s="119" t="s">
+        <v>131</v>
+      </c>
       <c r="B137" s="119"/>
       <c r="C137" s="119"/>
       <c r="D137" s="119"/>
@@ -20047,7 +20051,9 @@
       <c r="F145" s="53"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="119"/>
+      <c r="A146" s="119" t="s">
+        <v>137</v>
+      </c>
       <c r="B146" s="119"/>
       <c r="C146" s="119"/>
       <c r="D146" s="119"/>
@@ -21225,14 +21231,14 @@
       <c r="F233" s="34"/>
     </row>
     <row r="234" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="120" t="s">
+      <c r="A234" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="B234" s="120"/>
-      <c r="C234" s="120"/>
-      <c r="D234" s="120"/>
-      <c r="E234" s="120"/>
-      <c r="F234" s="120"/>
+      <c r="B234" s="122"/>
+      <c r="C234" s="122"/>
+      <c r="D234" s="122"/>
+      <c r="E234" s="122"/>
+      <c r="F234" s="122"/>
     </row>
     <row r="235" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A235" s="34"/>
@@ -21696,7 +21702,7 @@
       <c r="F268" s="34"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A269" s="124" t="s">
+      <c r="A269" s="123" t="s">
         <v>34</v>
       </c>
       <c r="B269" s="119"/>
@@ -21748,7 +21754,7 @@
       <c r="F272" s="35"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273" s="124" t="s">
+      <c r="A273" s="123" t="s">
         <v>37</v>
       </c>
       <c r="B273" s="119"/>
@@ -21786,7 +21792,7 @@
       <c r="F275" s="34"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A276" s="124" t="s">
+      <c r="A276" s="123" t="s">
         <v>40</v>
       </c>
       <c r="B276" s="119"/>
@@ -23094,12 +23100,12 @@
       <c r="F379" s="36"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A380" s="120"/>
-      <c r="B380" s="120"/>
-      <c r="C380" s="120"/>
-      <c r="D380" s="120"/>
-      <c r="E380" s="120"/>
-      <c r="F380" s="120"/>
+      <c r="A380" s="122"/>
+      <c r="B380" s="122"/>
+      <c r="C380" s="122"/>
+      <c r="D380" s="122"/>
+      <c r="E380" s="122"/>
+      <c r="F380" s="122"/>
     </row>
     <row r="381" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B381" s="51" t="s">
@@ -23180,12 +23186,12 @@
       <c r="F386" s="36"/>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A387" s="120"/>
-      <c r="B387" s="120"/>
-      <c r="C387" s="120"/>
-      <c r="D387" s="120"/>
-      <c r="E387" s="120"/>
-      <c r="F387" s="120"/>
+      <c r="A387" s="122"/>
+      <c r="B387" s="122"/>
+      <c r="C387" s="122"/>
+      <c r="D387" s="122"/>
+      <c r="E387" s="122"/>
+      <c r="F387" s="122"/>
     </row>
     <row r="388" spans="1:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B388" s="51" t="s">
@@ -23201,12 +23207,12 @@
       <c r="F388" s="36"/>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A389" s="120"/>
-      <c r="B389" s="120"/>
-      <c r="C389" s="120"/>
-      <c r="D389" s="120"/>
-      <c r="E389" s="120"/>
-      <c r="F389" s="120"/>
+      <c r="A389" s="122"/>
+      <c r="B389" s="122"/>
+      <c r="C389" s="122"/>
+      <c r="D389" s="122"/>
+      <c r="E389" s="122"/>
+      <c r="F389" s="122"/>
     </row>
     <row r="390" spans="1:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B390" s="51" t="s">
@@ -25296,14 +25302,14 @@
       <c r="F551" s="53"/>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A552" s="120" t="s">
+      <c r="A552" s="122" t="s">
         <v>275</v>
       </c>
-      <c r="B552" s="120"/>
-      <c r="C552" s="120"/>
-      <c r="D552" s="120"/>
-      <c r="E552" s="120"/>
-      <c r="F552" s="120"/>
+      <c r="B552" s="122"/>
+      <c r="C552" s="122"/>
+      <c r="D552" s="122"/>
+      <c r="E552" s="122"/>
+      <c r="F552" s="122"/>
     </row>
     <row r="553" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B553" s="9" t="s">
@@ -25319,14 +25325,14 @@
       <c r="F553" s="36"/>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A554" s="120" t="s">
+      <c r="A554" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="B554" s="120"/>
-      <c r="C554" s="120"/>
-      <c r="D554" s="120"/>
-      <c r="E554" s="120"/>
-      <c r="F554" s="120"/>
+      <c r="B554" s="122"/>
+      <c r="C554" s="122"/>
+      <c r="D554" s="122"/>
+      <c r="E554" s="122"/>
+      <c r="F554" s="122"/>
     </row>
     <row r="555" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B555" s="51" t="s">
@@ -25355,14 +25361,14 @@
       <c r="F556" s="36"/>
     </row>
     <row r="557" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A557" s="121" t="s">
+      <c r="A557" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="B557" s="122"/>
-      <c r="C557" s="122"/>
-      <c r="D557" s="122"/>
-      <c r="E557" s="122"/>
-      <c r="F557" s="123"/>
+      <c r="B557" s="120"/>
+      <c r="C557" s="120"/>
+      <c r="D557" s="120"/>
+      <c r="E557" s="120"/>
+      <c r="F557" s="121"/>
     </row>
     <row r="558" spans="1:6" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B558" s="51" t="s">
@@ -25378,14 +25384,14 @@
       <c r="F558" s="36"/>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A559" s="120" t="s">
+      <c r="A559" s="122" t="s">
         <v>480</v>
       </c>
-      <c r="B559" s="120"/>
-      <c r="C559" s="120"/>
-      <c r="D559" s="120"/>
-      <c r="E559" s="120"/>
-      <c r="F559" s="120"/>
+      <c r="B559" s="122"/>
+      <c r="C559" s="122"/>
+      <c r="D559" s="122"/>
+      <c r="E559" s="122"/>
+      <c r="F559" s="122"/>
     </row>
     <row r="560" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B560" s="51" t="s">
@@ -25401,14 +25407,14 @@
       <c r="F560" s="36"/>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A561" s="120" t="s">
+      <c r="A561" s="122" t="s">
         <v>483</v>
       </c>
-      <c r="B561" s="120"/>
-      <c r="C561" s="120"/>
-      <c r="D561" s="120"/>
-      <c r="E561" s="120"/>
-      <c r="F561" s="120"/>
+      <c r="B561" s="122"/>
+      <c r="C561" s="122"/>
+      <c r="D561" s="122"/>
+      <c r="E561" s="122"/>
+      <c r="F561" s="122"/>
     </row>
     <row r="562" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B562" s="51" t="s">
@@ -25424,14 +25430,14 @@
       <c r="F562" s="36"/>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A563" s="120" t="s">
+      <c r="A563" s="122" t="s">
         <v>240</v>
       </c>
-      <c r="B563" s="120"/>
-      <c r="C563" s="120"/>
-      <c r="D563" s="120"/>
-      <c r="E563" s="120"/>
-      <c r="F563" s="120"/>
+      <c r="B563" s="122"/>
+      <c r="C563" s="122"/>
+      <c r="D563" s="122"/>
+      <c r="E563" s="122"/>
+      <c r="F563" s="122"/>
     </row>
     <row r="564" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B564" s="51" t="s">
@@ -25649,14 +25655,14 @@
       <c r="F579" s="53"/>
     </row>
     <row r="580" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A580" s="120" t="s">
+      <c r="A580" s="122" t="s">
         <v>192</v>
       </c>
-      <c r="B580" s="120"/>
-      <c r="C580" s="120"/>
-      <c r="D580" s="120"/>
-      <c r="E580" s="120"/>
-      <c r="F580" s="120"/>
+      <c r="B580" s="122"/>
+      <c r="C580" s="122"/>
+      <c r="D580" s="122"/>
+      <c r="E580" s="122"/>
+      <c r="F580" s="122"/>
     </row>
     <row r="581" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A581" s="34"/>
@@ -25827,12 +25833,12 @@
       <c r="F592" s="53"/>
     </row>
     <row r="593" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="122"/>
-      <c r="B593" s="122"/>
-      <c r="C593" s="122"/>
-      <c r="D593" s="122"/>
-      <c r="E593" s="122"/>
-      <c r="F593" s="123"/>
+      <c r="A593" s="120"/>
+      <c r="B593" s="120"/>
+      <c r="C593" s="120"/>
+      <c r="D593" s="120"/>
+      <c r="E593" s="120"/>
+      <c r="F593" s="121"/>
     </row>
     <row r="594" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A594" s="34"/>
@@ -25975,12 +25981,12 @@
       <c r="F603" s="53"/>
     </row>
     <row r="604" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A604" s="122"/>
-      <c r="B604" s="122"/>
-      <c r="C604" s="122"/>
-      <c r="D604" s="122"/>
-      <c r="E604" s="122"/>
-      <c r="F604" s="123"/>
+      <c r="A604" s="120"/>
+      <c r="B604" s="120"/>
+      <c r="C604" s="120"/>
+      <c r="D604" s="120"/>
+      <c r="E604" s="120"/>
+      <c r="F604" s="121"/>
     </row>
     <row r="605" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A605" s="34" t="s">
@@ -26127,12 +26133,12 @@
       <c r="F613" s="34"/>
     </row>
     <row r="614" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="122"/>
-      <c r="B614" s="122"/>
-      <c r="C614" s="122"/>
-      <c r="D614" s="122"/>
-      <c r="E614" s="122"/>
-      <c r="F614" s="123"/>
+      <c r="A614" s="120"/>
+      <c r="B614" s="120"/>
+      <c r="C614" s="120"/>
+      <c r="D614" s="120"/>
+      <c r="E614" s="120"/>
+      <c r="F614" s="121"/>
     </row>
     <row r="615" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A615" s="34"/>
@@ -26261,14 +26267,14 @@
       <c r="F623" s="34"/>
     </row>
     <row r="624" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A624" s="120" t="s">
+      <c r="A624" s="122" t="s">
         <v>205</v>
       </c>
-      <c r="B624" s="120"/>
-      <c r="C624" s="120"/>
-      <c r="D624" s="120"/>
-      <c r="E624" s="120"/>
-      <c r="F624" s="120"/>
+      <c r="B624" s="122"/>
+      <c r="C624" s="122"/>
+      <c r="D624" s="122"/>
+      <c r="E624" s="122"/>
+      <c r="F624" s="122"/>
     </row>
     <row r="625" spans="1:6" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A625" s="34"/>
@@ -27066,42 +27072,151 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" scale="85" topLeftCell="B1">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" scale="60" topLeftCell="A4">
+      <selection activeCell="F13" sqref="F13"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" scale="87" showPageBreaks="1" topLeftCell="A226">
+      <selection activeCell="F237" sqref="F237"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85">
+      <selection activeCell="G19" sqref="G19"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="55">
+      <selection activeCell="C9" sqref="C9"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" scale="85">
+      <selection activeCell="F6" sqref="F6"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" scale="85" state="hidden">
+      <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
     <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" scale="85">
       <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" scale="85" state="hidden">
-      <selection activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" scale="85" topLeftCell="B1">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" scale="85">
-      <selection activeCell="F6" sqref="F6"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="55">
-      <selection activeCell="C9" sqref="C9"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85">
-      <selection activeCell="G19" sqref="G19"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" scale="87" showPageBreaks="1" topLeftCell="A226">
-      <selection activeCell="F237" sqref="F237"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" scale="60" topLeftCell="A4">
-      <selection activeCell="F13" sqref="F13"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="133">
+    <mergeCell ref="A682:F682"/>
+    <mergeCell ref="A665:F665"/>
+    <mergeCell ref="A526:F526"/>
+    <mergeCell ref="A533:F533"/>
+    <mergeCell ref="A538:F538"/>
+    <mergeCell ref="A567:F567"/>
+    <mergeCell ref="A624:F624"/>
+    <mergeCell ref="A634:F634"/>
+    <mergeCell ref="A645:F645"/>
+    <mergeCell ref="A580:F580"/>
+    <mergeCell ref="A559:F559"/>
+    <mergeCell ref="A561:F561"/>
+    <mergeCell ref="A563:F563"/>
+    <mergeCell ref="A557:F557"/>
+    <mergeCell ref="A552:F552"/>
+    <mergeCell ref="A554:F554"/>
+    <mergeCell ref="A543:F543"/>
+    <mergeCell ref="A670:F670"/>
+    <mergeCell ref="A672:F672"/>
+    <mergeCell ref="A674:F674"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A473:F473"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A445:F445"/>
+    <mergeCell ref="A449:F449"/>
+    <mergeCell ref="A454:F454"/>
+    <mergeCell ref="A457:F457"/>
+    <mergeCell ref="A521:F521"/>
+    <mergeCell ref="A680:F680"/>
+    <mergeCell ref="A510:F510"/>
+    <mergeCell ref="A516:F516"/>
+    <mergeCell ref="A479:F479"/>
+    <mergeCell ref="A489:F489"/>
+    <mergeCell ref="A491:F491"/>
+    <mergeCell ref="A493:F493"/>
+    <mergeCell ref="A499:F499"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A678:F678"/>
+    <mergeCell ref="A405:F405"/>
+    <mergeCell ref="A407:F407"/>
+    <mergeCell ref="A409:F409"/>
+    <mergeCell ref="A461:F461"/>
+    <mergeCell ref="A465:F465"/>
+    <mergeCell ref="A426:F426"/>
+    <mergeCell ref="A396:F396"/>
+    <mergeCell ref="A399:F399"/>
+    <mergeCell ref="A401:F401"/>
+    <mergeCell ref="A403:F403"/>
+    <mergeCell ref="A414:F414"/>
+    <mergeCell ref="A417:F417"/>
+    <mergeCell ref="A420:F420"/>
+    <mergeCell ref="A423:F423"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A300:F300"/>
+    <mergeCell ref="A303:F303"/>
+    <mergeCell ref="A197:F197"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A175:F175"/>
+    <mergeCell ref="A243:F243"/>
+    <mergeCell ref="A234:F234"/>
+    <mergeCell ref="A266:F266"/>
+    <mergeCell ref="A269:F269"/>
+    <mergeCell ref="A216:F216"/>
+    <mergeCell ref="A225:F225"/>
+    <mergeCell ref="A253:F253"/>
+    <mergeCell ref="A273:F273"/>
+    <mergeCell ref="A276:F276"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:F293"/>
+    <mergeCell ref="A279:F279"/>
+    <mergeCell ref="A287:F287"/>
+    <mergeCell ref="A291:F291"/>
+    <mergeCell ref="A284:F284"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="A187:F187"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A337:F337"/>
+    <mergeCell ref="A305:F305"/>
+    <mergeCell ref="A314:F314"/>
+    <mergeCell ref="A320:F320"/>
+    <mergeCell ref="A327:F327"/>
+    <mergeCell ref="A309:F309"/>
+    <mergeCell ref="A317:F317"/>
+    <mergeCell ref="A323:F323"/>
+    <mergeCell ref="A334:F334"/>
     <mergeCell ref="A684:F684"/>
     <mergeCell ref="A593:F593"/>
     <mergeCell ref="A604:F604"/>
@@ -27126,115 +27241,6 @@
     <mergeCell ref="A380:F380"/>
     <mergeCell ref="A387:F387"/>
     <mergeCell ref="A376:F376"/>
-    <mergeCell ref="A337:F337"/>
-    <mergeCell ref="A305:F305"/>
-    <mergeCell ref="A314:F314"/>
-    <mergeCell ref="A320:F320"/>
-    <mergeCell ref="A327:F327"/>
-    <mergeCell ref="A309:F309"/>
-    <mergeCell ref="A317:F317"/>
-    <mergeCell ref="A323:F323"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="A187:F187"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A146:F146"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A300:F300"/>
-    <mergeCell ref="A303:F303"/>
-    <mergeCell ref="A197:F197"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A175:F175"/>
-    <mergeCell ref="A243:F243"/>
-    <mergeCell ref="A234:F234"/>
-    <mergeCell ref="A266:F266"/>
-    <mergeCell ref="A269:F269"/>
-    <mergeCell ref="A216:F216"/>
-    <mergeCell ref="A225:F225"/>
-    <mergeCell ref="A253:F253"/>
-    <mergeCell ref="A273:F273"/>
-    <mergeCell ref="A276:F276"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:F293"/>
-    <mergeCell ref="A279:F279"/>
-    <mergeCell ref="A287:F287"/>
-    <mergeCell ref="A291:F291"/>
-    <mergeCell ref="A284:F284"/>
-    <mergeCell ref="A405:F405"/>
-    <mergeCell ref="A407:F407"/>
-    <mergeCell ref="A409:F409"/>
-    <mergeCell ref="A461:F461"/>
-    <mergeCell ref="A465:F465"/>
-    <mergeCell ref="A426:F426"/>
-    <mergeCell ref="A396:F396"/>
-    <mergeCell ref="A399:F399"/>
-    <mergeCell ref="A401:F401"/>
-    <mergeCell ref="A403:F403"/>
-    <mergeCell ref="A414:F414"/>
-    <mergeCell ref="A417:F417"/>
-    <mergeCell ref="A420:F420"/>
-    <mergeCell ref="A423:F423"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A473:F473"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A445:F445"/>
-    <mergeCell ref="A449:F449"/>
-    <mergeCell ref="A454:F454"/>
-    <mergeCell ref="A457:F457"/>
-    <mergeCell ref="A521:F521"/>
-    <mergeCell ref="A680:F680"/>
-    <mergeCell ref="A510:F510"/>
-    <mergeCell ref="A516:F516"/>
-    <mergeCell ref="A479:F479"/>
-    <mergeCell ref="A489:F489"/>
-    <mergeCell ref="A491:F491"/>
-    <mergeCell ref="A493:F493"/>
-    <mergeCell ref="A499:F499"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A678:F678"/>
-    <mergeCell ref="A682:F682"/>
-    <mergeCell ref="A665:F665"/>
-    <mergeCell ref="A526:F526"/>
-    <mergeCell ref="A533:F533"/>
-    <mergeCell ref="A538:F538"/>
-    <mergeCell ref="A567:F567"/>
-    <mergeCell ref="A624:F624"/>
-    <mergeCell ref="A634:F634"/>
-    <mergeCell ref="A645:F645"/>
-    <mergeCell ref="A580:F580"/>
-    <mergeCell ref="A559:F559"/>
-    <mergeCell ref="A561:F561"/>
-    <mergeCell ref="A563:F563"/>
-    <mergeCell ref="A557:F557"/>
-    <mergeCell ref="A552:F552"/>
-    <mergeCell ref="A554:F554"/>
-    <mergeCell ref="A543:F543"/>
-    <mergeCell ref="A670:F670"/>
-    <mergeCell ref="A672:F672"/>
-    <mergeCell ref="A674:F674"/>
-    <mergeCell ref="A676:F676"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId3"/>
@@ -27245,9 +27251,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27474,19 +27483,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F03A4E3-7AEE-4350-9C0D-B148727606F6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51AF712D-A5A0-4EDF-9D46-785D33BE3E6A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -27511,9 +27516,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51AF712D-A5A0-4EDF-9D46-785D33BE3E6A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F03A4E3-7AEE-4350-9C0D-B148727606F6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Config/Release5.xlsx
+++ b/Config/Release5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArronSealmoy\PycharmProjects\MeralcoOnline\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ADCF4B-8C81-4398-AAB6-4245DE326900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A54AA30-8165-4742-8D40-003CDEDA5ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="673" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" tabRatio="673" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="1" r:id="rId1"/>
@@ -47,14 +47,14 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yvi  Aligam - Personal View" guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Sheena Marie F. Diaz (CheQ Systems Inc.) - Personal View" guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="674" activeSheetId="4"/>
+    <customWorkbookView name="Ma. Diana D. Carbon (CheQ Systems Inc.) - Personal View" guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="2"/>
+    <customWorkbookView name="Ayezha Abanador (CheQ Systems Inc.) - Personal View" guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" mergeInterval="0" personalView="1" maximized="1" xWindow="70" yWindow="-8" windowWidth="1218" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Angelito P. Magat (CheQ Systems Inc.) - Personal View" guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="583" activeSheetId="2"/>
+    <customWorkbookView name="Laminuette Emata - Personal View" guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="673" activeSheetId="2"/>
+    <customWorkbookView name="Jerome Allan G. Florendo - Personal View" guid="{7089F64A-F77B-480F-9643-8730755F04D6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
     <customWorkbookView name="Ayezha Abanador - Personal View" guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" mergeInterval="0" personalView="1" maximized="1" xWindow="66" yWindow="-8" windowWidth="1222" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Jerome Allan G. Florendo - Personal View" guid="{7089F64A-F77B-480F-9643-8730755F04D6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Laminuette Emata - Personal View" guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="673" activeSheetId="2"/>
-    <customWorkbookView name="Angelito P. Magat (CheQ Systems Inc.) - Personal View" guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="583" activeSheetId="2"/>
-    <customWorkbookView name="Ayezha Abanador (CheQ Systems Inc.) - Personal View" guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" mergeInterval="0" personalView="1" maximized="1" xWindow="70" yWindow="-8" windowWidth="1218" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Ma. Diana D. Carbon (CheQ Systems Inc.) - Personal View" guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="2"/>
-    <customWorkbookView name="Sheena Marie F. Diaz (CheQ Systems Inc.) - Personal View" guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="674" activeSheetId="4"/>
-    <customWorkbookView name="Yvi  Aligam - Personal View" guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4205" uniqueCount="1184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4201" uniqueCount="1185">
   <si>
     <t>Revision History</t>
   </si>
@@ -4245,6 +4245,9 @@
 Landline (optional)
 Birthday (optional)
 &gt; Click Next</t>
+  </si>
+  <si>
+    <t>Step 121</t>
   </si>
 </sst>
 </file>
@@ -4685,8 +4688,8 @@
   </cellStyleXfs>
   <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4987,6 +4990,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4996,11 +5011,20 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5014,35 +5038,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5050,8 +5047,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6258,18 +6261,15 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}">
-      <selection activeCell="C17" sqref="C17"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}">
+      <selection activeCell="F15" sqref="F15"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}">
-      <selection activeCell="C4" sqref="C4"/>
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
+      <selection activeCell="D8" sqref="D7:D8"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}">
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}">
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
@@ -6277,16 +6277,19 @@
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}">
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
-      <selection activeCell="D8" sqref="D7:D8"/>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}">
-      <selection activeCell="F15" sqref="F15"/>
+    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}">
+      <selection activeCell="C4" sqref="C4"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}">
+      <selection activeCell="C17" sqref="C17"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -6322,27 +6325,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
       <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="66"/>
     </row>
     <row r="3" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -6370,27 +6373,27 @@
       <c r="H3" s="66"/>
     </row>
     <row r="4" spans="1:9" s="27" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="I5" s="31" t="s">
         <v>24</v>
       </c>
@@ -6516,15 +6519,15 @@
       </c>
     </row>
     <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="105"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109"/>
     </row>
     <row r="13" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
@@ -6607,27 +6610,27 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
       <c r="H17" s="70"/>
     </row>
     <row r="18" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="103" t="s">
+      <c r="A18" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="105"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="109"/>
     </row>
     <row r="19" spans="1:9" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="str">
@@ -7854,15 +7857,15 @@
       <c r="G90" s="36"/>
     </row>
     <row r="91" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="103" t="s">
+      <c r="A91" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="104"/>
-      <c r="C91" s="104"/>
-      <c r="D91" s="104"/>
-      <c r="E91" s="104"/>
-      <c r="F91" s="104"/>
-      <c r="G91" s="105"/>
+      <c r="B91" s="108"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="108"/>
+      <c r="F91" s="108"/>
+      <c r="G91" s="109"/>
     </row>
     <row r="92" spans="1:9" ht="23.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="32" t="s">
@@ -8499,15 +8502,15 @@
       <c r="G127" s="36"/>
     </row>
     <row r="128" spans="1:9" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="113" t="s">
+      <c r="A128" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="B128" s="114"/>
-      <c r="C128" s="114"/>
-      <c r="D128" s="114"/>
-      <c r="E128" s="114"/>
-      <c r="F128" s="114"/>
-      <c r="G128" s="114"/>
+      <c r="B128" s="104"/>
+      <c r="C128" s="104"/>
+      <c r="D128" s="104"/>
+      <c r="E128" s="104"/>
+      <c r="F128" s="104"/>
+      <c r="G128" s="104"/>
       <c r="H128" s="66"/>
     </row>
     <row r="129" spans="1:9" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9357,27 +9360,27 @@
       <c r="G176" s="36"/>
     </row>
     <row r="177" spans="1:10" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A177" s="106" t="s">
+      <c r="A177" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="B177" s="107"/>
-      <c r="C177" s="107"/>
-      <c r="D177" s="107"/>
-      <c r="E177" s="107"/>
-      <c r="F177" s="107"/>
-      <c r="G177" s="107"/>
+      <c r="B177" s="106"/>
+      <c r="C177" s="106"/>
+      <c r="D177" s="106"/>
+      <c r="E177" s="106"/>
+      <c r="F177" s="106"/>
+      <c r="G177" s="106"/>
       <c r="H177" s="70"/>
     </row>
     <row r="178" spans="1:10" s="38" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="115" t="s">
+      <c r="A178" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="B178" s="116"/>
-      <c r="C178" s="116"/>
-      <c r="D178" s="116"/>
-      <c r="E178" s="116"/>
-      <c r="F178" s="116"/>
-      <c r="G178" s="116"/>
+      <c r="B178" s="113"/>
+      <c r="C178" s="113"/>
+      <c r="D178" s="113"/>
+      <c r="E178" s="113"/>
+      <c r="F178" s="113"/>
+      <c r="G178" s="113"/>
       <c r="H178" s="70"/>
     </row>
     <row r="179" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10219,15 +10222,15 @@
       </c>
     </row>
     <row r="224" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="113" t="s">
+      <c r="A224" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="B224" s="114"/>
-      <c r="C224" s="114"/>
-      <c r="D224" s="114"/>
-      <c r="E224" s="114"/>
-      <c r="F224" s="114"/>
-      <c r="G224" s="114"/>
+      <c r="B224" s="104"/>
+      <c r="C224" s="104"/>
+      <c r="D224" s="104"/>
+      <c r="E224" s="104"/>
+      <c r="F224" s="104"/>
+      <c r="G224" s="104"/>
     </row>
     <row r="225" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A225" s="32" t="str">
@@ -12340,15 +12343,15 @@
       <c r="G325" s="36"/>
     </row>
     <row r="326" spans="1:9" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="113" t="s">
+      <c r="A326" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="B326" s="114"/>
-      <c r="C326" s="114"/>
-      <c r="D326" s="114"/>
-      <c r="E326" s="114"/>
-      <c r="F326" s="114"/>
-      <c r="G326" s="114"/>
+      <c r="B326" s="104"/>
+      <c r="C326" s="104"/>
+      <c r="D326" s="104"/>
+      <c r="E326" s="104"/>
+      <c r="F326" s="104"/>
+      <c r="G326" s="104"/>
       <c r="H326" s="66"/>
     </row>
     <row r="327" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -12996,15 +12999,15 @@
       </c>
     </row>
     <row r="360" spans="1:9" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="113" t="s">
+      <c r="A360" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="B360" s="114"/>
-      <c r="C360" s="114"/>
-      <c r="D360" s="114"/>
-      <c r="E360" s="114"/>
-      <c r="F360" s="114"/>
-      <c r="G360" s="114"/>
+      <c r="B360" s="104"/>
+      <c r="C360" s="104"/>
+      <c r="D360" s="104"/>
+      <c r="E360" s="104"/>
+      <c r="F360" s="104"/>
+      <c r="G360" s="104"/>
       <c r="H360" s="66"/>
     </row>
     <row r="361" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -13675,15 +13678,15 @@
       </c>
     </row>
     <row r="397" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="106" t="s">
+      <c r="A397" s="105" t="s">
         <v>257</v>
       </c>
-      <c r="B397" s="107"/>
-      <c r="C397" s="107"/>
-      <c r="D397" s="107"/>
-      <c r="E397" s="107"/>
-      <c r="F397" s="107"/>
-      <c r="G397" s="107"/>
+      <c r="B397" s="106"/>
+      <c r="C397" s="106"/>
+      <c r="D397" s="106"/>
+      <c r="E397" s="106"/>
+      <c r="F397" s="106"/>
+      <c r="G397" s="106"/>
     </row>
     <row r="398" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A398" s="32" t="str">
@@ -13967,15 +13970,15 @@
       <c r="G412" s="36"/>
     </row>
     <row r="413" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="106" t="s">
+      <c r="A413" s="105" t="s">
         <v>277</v>
       </c>
-      <c r="B413" s="107"/>
-      <c r="C413" s="107"/>
-      <c r="D413" s="107"/>
-      <c r="E413" s="107"/>
-      <c r="F413" s="107"/>
-      <c r="G413" s="107"/>
+      <c r="B413" s="106"/>
+      <c r="C413" s="106"/>
+      <c r="D413" s="106"/>
+      <c r="E413" s="106"/>
+      <c r="F413" s="106"/>
+      <c r="G413" s="106"/>
     </row>
     <row r="414" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A414" s="32" t="str">
@@ -14014,26 +14017,26 @@
       <c r="G415" s="36"/>
     </row>
     <row r="416" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="106" t="s">
+      <c r="A416" s="105" t="s">
         <v>281</v>
       </c>
-      <c r="B416" s="107"/>
-      <c r="C416" s="107"/>
-      <c r="D416" s="107"/>
-      <c r="E416" s="107"/>
-      <c r="F416" s="107"/>
-      <c r="G416" s="107"/>
+      <c r="B416" s="106"/>
+      <c r="C416" s="106"/>
+      <c r="D416" s="106"/>
+      <c r="E416" s="106"/>
+      <c r="F416" s="106"/>
+      <c r="G416" s="106"/>
     </row>
     <row r="417" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="103" t="s">
+      <c r="A417" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B417" s="104"/>
-      <c r="C417" s="104"/>
-      <c r="D417" s="104"/>
-      <c r="E417" s="104"/>
-      <c r="F417" s="104"/>
-      <c r="G417" s="105"/>
+      <c r="B417" s="108"/>
+      <c r="C417" s="108"/>
+      <c r="D417" s="108"/>
+      <c r="E417" s="108"/>
+      <c r="F417" s="108"/>
+      <c r="G417" s="109"/>
     </row>
     <row r="418" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A418" s="32" t="str">
@@ -14050,7 +14053,7 @@
       <c r="E418" s="46"/>
       <c r="F418" s="45"/>
       <c r="G418" s="26"/>
-      <c r="H418" s="112" t="s">
+      <c r="H418" s="1" t="s">
         <v>284</v>
       </c>
       <c r="I418" s="31" t="s">
@@ -14071,7 +14074,7 @@
         <v>146</v>
       </c>
       <c r="G419" s="36"/>
-      <c r="H419" s="112"/>
+      <c r="H419" s="1"/>
     </row>
     <row r="420" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A420" s="36"/>
@@ -14087,7 +14090,7 @@
         <v>146</v>
       </c>
       <c r="G420" s="36"/>
-      <c r="H420" s="112"/>
+      <c r="H420" s="1"/>
     </row>
     <row r="421" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A421" s="36"/>
@@ -14103,7 +14106,7 @@
         <v>146</v>
       </c>
       <c r="G421" s="36"/>
-      <c r="H421" s="112"/>
+      <c r="H421" s="1"/>
     </row>
     <row r="422" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A422" s="36"/>
@@ -14119,7 +14122,7 @@
         <v>146</v>
       </c>
       <c r="G422" s="36"/>
-      <c r="H422" s="112"/>
+      <c r="H422" s="1"/>
     </row>
     <row r="423" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A423" s="36"/>
@@ -14135,7 +14138,7 @@
         <v>146</v>
       </c>
       <c r="G423" s="36"/>
-      <c r="H423" s="112"/>
+      <c r="H423" s="1"/>
     </row>
     <row r="424" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A424" s="32" t="str">
@@ -14152,7 +14155,7 @@
       <c r="E424" s="46"/>
       <c r="F424" s="33"/>
       <c r="G424" s="37"/>
-      <c r="H424" s="112"/>
+      <c r="H424" s="1"/>
       <c r="I424" s="31" t="s">
         <v>146</v>
       </c>
@@ -14171,7 +14174,7 @@
         <v>146</v>
       </c>
       <c r="G425" s="36"/>
-      <c r="H425" s="112"/>
+      <c r="H425" s="1"/>
     </row>
     <row r="426" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A426" s="32" t="str">
@@ -14188,7 +14191,7 @@
       <c r="E426" s="46"/>
       <c r="F426" s="33"/>
       <c r="G426" s="37"/>
-      <c r="H426" s="112"/>
+      <c r="H426" s="1"/>
       <c r="I426" s="31" t="s">
         <v>146</v>
       </c>
@@ -14207,7 +14210,7 @@
         <v>146</v>
       </c>
       <c r="G427" s="36"/>
-      <c r="H427" s="112"/>
+      <c r="H427" s="1"/>
     </row>
     <row r="428" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A428" s="36"/>
@@ -14223,7 +14226,7 @@
         <v>146</v>
       </c>
       <c r="G428" s="36"/>
-      <c r="H428" s="112"/>
+      <c r="H428" s="1"/>
     </row>
     <row r="429" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A429" s="36"/>
@@ -14239,7 +14242,7 @@
         <v>146</v>
       </c>
       <c r="G429" s="36"/>
-      <c r="H429" s="112"/>
+      <c r="H429" s="1"/>
     </row>
     <row r="430" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A430" s="36"/>
@@ -14255,7 +14258,7 @@
         <v>146</v>
       </c>
       <c r="G430" s="36"/>
-      <c r="H430" s="112"/>
+      <c r="H430" s="1"/>
     </row>
     <row r="431" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A431" s="36"/>
@@ -14271,7 +14274,7 @@
         <v>146</v>
       </c>
       <c r="G431" s="36"/>
-      <c r="H431" s="112"/>
+      <c r="H431" s="1"/>
     </row>
     <row r="432" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A432" s="36"/>
@@ -14287,7 +14290,7 @@
         <v>146</v>
       </c>
       <c r="G432" s="36"/>
-      <c r="H432" s="112"/>
+      <c r="H432" s="1"/>
     </row>
     <row r="433" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A433" s="36"/>
@@ -14303,7 +14306,7 @@
         <v>146</v>
       </c>
       <c r="G433" s="36"/>
-      <c r="H433" s="112"/>
+      <c r="H433" s="1"/>
     </row>
     <row r="434" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A434" s="36"/>
@@ -14319,7 +14322,7 @@
         <v>146</v>
       </c>
       <c r="G434" s="36"/>
-      <c r="H434" s="112"/>
+      <c r="H434" s="1"/>
     </row>
     <row r="435" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A435" s="36"/>
@@ -14335,7 +14338,7 @@
         <v>146</v>
       </c>
       <c r="G435" s="36"/>
-      <c r="H435" s="112"/>
+      <c r="H435" s="1"/>
     </row>
     <row r="436" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A436" s="36"/>
@@ -14351,7 +14354,7 @@
         <v>146</v>
       </c>
       <c r="G436" s="36"/>
-      <c r="H436" s="112"/>
+      <c r="H436" s="1"/>
     </row>
     <row r="437" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A437" s="36"/>
@@ -14367,7 +14370,7 @@
         <v>146</v>
       </c>
       <c r="G437" s="36"/>
-      <c r="H437" s="112"/>
+      <c r="H437" s="1"/>
     </row>
     <row r="438" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A438" s="36"/>
@@ -14383,7 +14386,7 @@
         <v>146</v>
       </c>
       <c r="G438" s="36"/>
-      <c r="H438" s="112"/>
+      <c r="H438" s="1"/>
     </row>
     <row r="439" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A439" s="36"/>
@@ -14399,7 +14402,7 @@
         <v>146</v>
       </c>
       <c r="G439" s="36"/>
-      <c r="H439" s="112"/>
+      <c r="H439" s="1"/>
     </row>
     <row r="440" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A440" s="32" t="str">
@@ -14416,7 +14419,7 @@
       <c r="E440" s="46"/>
       <c r="F440" s="33"/>
       <c r="G440" s="37"/>
-      <c r="H440" s="112"/>
+      <c r="H440" s="1"/>
       <c r="I440" s="31" t="s">
         <v>146</v>
       </c>
@@ -14435,7 +14438,7 @@
         <v>146</v>
       </c>
       <c r="G441" s="36"/>
-      <c r="H441" s="112"/>
+      <c r="H441" s="1"/>
     </row>
     <row r="442" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A442" s="36"/>
@@ -14451,7 +14454,7 @@
         <v>146</v>
       </c>
       <c r="G442" s="36"/>
-      <c r="H442" s="112"/>
+      <c r="H442" s="1"/>
     </row>
     <row r="443" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A443" s="36"/>
@@ -14467,7 +14470,7 @@
         <v>146</v>
       </c>
       <c r="G443" s="36"/>
-      <c r="H443" s="112"/>
+      <c r="H443" s="1"/>
     </row>
     <row r="444" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A444" s="36"/>
@@ -14483,18 +14486,18 @@
         <v>146</v>
       </c>
       <c r="G444" s="36"/>
-      <c r="H444" s="112"/>
+      <c r="H444" s="1"/>
     </row>
     <row r="445" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="103" t="s">
+      <c r="A445" s="107" t="s">
         <v>336</v>
       </c>
-      <c r="B445" s="104"/>
-      <c r="C445" s="104"/>
-      <c r="D445" s="104"/>
-      <c r="E445" s="104"/>
-      <c r="F445" s="104"/>
-      <c r="G445" s="105"/>
+      <c r="B445" s="108"/>
+      <c r="C445" s="108"/>
+      <c r="D445" s="108"/>
+      <c r="E445" s="108"/>
+      <c r="F445" s="108"/>
+      <c r="G445" s="109"/>
     </row>
     <row r="446" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A446" s="32" t="str">
@@ -14921,7 +14924,7 @@
       <c r="E467" s="46"/>
       <c r="F467" s="33"/>
       <c r="G467" s="37"/>
-      <c r="H467" s="112" t="s">
+      <c r="H467" s="1" t="s">
         <v>284</v>
       </c>
       <c r="I467" s="31" t="s">
@@ -14940,7 +14943,7 @@
       <c r="E468" s="35"/>
       <c r="F468" s="35"/>
       <c r="G468" s="36"/>
-      <c r="H468" s="112"/>
+      <c r="H468" s="1"/>
     </row>
     <row r="469" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A469" s="36"/>
@@ -14956,7 +14959,7 @@
         <v>146</v>
       </c>
       <c r="G469" s="36"/>
-      <c r="H469" s="112"/>
+      <c r="H469" s="1"/>
     </row>
     <row r="470" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A470" s="36"/>
@@ -14972,7 +14975,7 @@
         <v>146</v>
       </c>
       <c r="G470" s="36"/>
-      <c r="H470" s="112"/>
+      <c r="H470" s="1"/>
     </row>
     <row r="471" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A471" s="36"/>
@@ -14988,7 +14991,7 @@
         <v>146</v>
       </c>
       <c r="G471" s="36"/>
-      <c r="H471" s="112"/>
+      <c r="H471" s="1"/>
     </row>
     <row r="472" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A472" s="36"/>
@@ -15004,7 +15007,7 @@
         <v>146</v>
       </c>
       <c r="G472" s="36"/>
-      <c r="H472" s="112"/>
+      <c r="H472" s="1"/>
     </row>
     <row r="473" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A473" s="36"/>
@@ -15020,7 +15023,7 @@
         <v>146</v>
       </c>
       <c r="G473" s="36"/>
-      <c r="H473" s="112"/>
+      <c r="H473" s="1"/>
     </row>
     <row r="474" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A474" s="32" t="str">
@@ -15452,7 +15455,7 @@
       <c r="E495" s="46"/>
       <c r="F495" s="33"/>
       <c r="G495" s="37"/>
-      <c r="H495" s="112" t="s">
+      <c r="H495" s="1" t="s">
         <v>284</v>
       </c>
       <c r="I495" s="31" t="s">
@@ -15471,7 +15474,7 @@
       <c r="E496" s="35"/>
       <c r="F496" s="35"/>
       <c r="G496" s="36"/>
-      <c r="H496" s="112"/>
+      <c r="H496" s="1"/>
     </row>
     <row r="497" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A497" s="36"/>
@@ -15487,7 +15490,7 @@
         <v>146</v>
       </c>
       <c r="G497" s="36"/>
-      <c r="H497" s="112"/>
+      <c r="H497" s="1"/>
     </row>
     <row r="498" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A498" s="36"/>
@@ -15503,7 +15506,7 @@
         <v>146</v>
       </c>
       <c r="G498" s="36"/>
-      <c r="H498" s="112"/>
+      <c r="H498" s="1"/>
     </row>
     <row r="499" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A499" s="36"/>
@@ -15519,7 +15522,7 @@
         <v>146</v>
       </c>
       <c r="G499" s="36"/>
-      <c r="H499" s="112"/>
+      <c r="H499" s="1"/>
     </row>
     <row r="500" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A500" s="36"/>
@@ -15535,7 +15538,7 @@
         <v>146</v>
       </c>
       <c r="G500" s="36"/>
-      <c r="H500" s="112"/>
+      <c r="H500" s="1"/>
     </row>
     <row r="501" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A501" s="36"/>
@@ -15551,29 +15554,29 @@
         <v>146</v>
       </c>
       <c r="G501" s="36"/>
-      <c r="H501" s="112"/>
+      <c r="H501" s="1"/>
     </row>
     <row r="502" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="106" t="s">
+      <c r="A502" s="105" t="s">
         <v>396</v>
       </c>
-      <c r="B502" s="107"/>
-      <c r="C502" s="107"/>
-      <c r="D502" s="107"/>
-      <c r="E502" s="107"/>
-      <c r="F502" s="107"/>
-      <c r="G502" s="107"/>
+      <c r="B502" s="106"/>
+      <c r="C502" s="106"/>
+      <c r="D502" s="106"/>
+      <c r="E502" s="106"/>
+      <c r="F502" s="106"/>
+      <c r="G502" s="106"/>
     </row>
     <row r="503" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="103" t="s">
+      <c r="A503" s="107" t="s">
         <v>397</v>
       </c>
-      <c r="B503" s="104"/>
-      <c r="C503" s="104"/>
-      <c r="D503" s="104"/>
-      <c r="E503" s="104"/>
-      <c r="F503" s="104"/>
-      <c r="G503" s="105"/>
+      <c r="B503" s="108"/>
+      <c r="C503" s="108"/>
+      <c r="D503" s="108"/>
+      <c r="E503" s="108"/>
+      <c r="F503" s="108"/>
+      <c r="G503" s="109"/>
     </row>
     <row r="504" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A504" s="32" t="str">
@@ -15603,12 +15606,12 @@
       <c r="B505" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="C505" s="108"/>
-      <c r="D505" s="109"/>
-      <c r="E505" s="109"/>
-      <c r="F505" s="110"/>
-      <c r="G505" s="110"/>
-      <c r="H505" s="111"/>
+      <c r="C505" s="115"/>
+      <c r="D505" s="116"/>
+      <c r="E505" s="116"/>
+      <c r="F505" s="117"/>
+      <c r="G505" s="117"/>
+      <c r="H505" s="118"/>
       <c r="I505" s="79"/>
       <c r="J505" s="80"/>
     </row>
@@ -15628,15 +15631,15 @@
       <c r="G506" s="36"/>
     </row>
     <row r="507" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="103" t="s">
+      <c r="A507" s="107" t="s">
         <v>403</v>
       </c>
-      <c r="B507" s="104"/>
-      <c r="C507" s="104"/>
-      <c r="D507" s="104"/>
-      <c r="E507" s="104"/>
-      <c r="F507" s="104"/>
-      <c r="G507" s="105"/>
+      <c r="B507" s="108"/>
+      <c r="C507" s="108"/>
+      <c r="D507" s="108"/>
+      <c r="E507" s="108"/>
+      <c r="F507" s="108"/>
+      <c r="G507" s="109"/>
     </row>
     <row r="508" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A508" s="32" t="str">
@@ -15740,26 +15743,26 @@
       <c r="G513" s="36"/>
     </row>
     <row r="514" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="106" t="s">
+      <c r="A514" s="105" t="s">
         <v>410</v>
       </c>
-      <c r="B514" s="107"/>
-      <c r="C514" s="107"/>
-      <c r="D514" s="107"/>
-      <c r="E514" s="107"/>
-      <c r="F514" s="107"/>
-      <c r="G514" s="107"/>
+      <c r="B514" s="106"/>
+      <c r="C514" s="106"/>
+      <c r="D514" s="106"/>
+      <c r="E514" s="106"/>
+      <c r="F514" s="106"/>
+      <c r="G514" s="106"/>
     </row>
     <row r="515" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="103" t="s">
+      <c r="A515" s="107" t="s">
         <v>411</v>
       </c>
-      <c r="B515" s="104"/>
-      <c r="C515" s="104"/>
-      <c r="D515" s="104"/>
-      <c r="E515" s="104"/>
-      <c r="F515" s="104"/>
-      <c r="G515" s="105"/>
+      <c r="B515" s="108"/>
+      <c r="C515" s="108"/>
+      <c r="D515" s="108"/>
+      <c r="E515" s="108"/>
+      <c r="F515" s="108"/>
+      <c r="G515" s="109"/>
     </row>
     <row r="516" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A516" s="32" t="str">
@@ -16542,15 +16545,15 @@
       <c r="I555" s="48"/>
     </row>
     <row r="556" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="103" t="s">
+      <c r="A556" s="107" t="s">
         <v>429</v>
       </c>
-      <c r="B556" s="104"/>
-      <c r="C556" s="104"/>
-      <c r="D556" s="104"/>
-      <c r="E556" s="104"/>
-      <c r="F556" s="104"/>
-      <c r="G556" s="105"/>
+      <c r="B556" s="108"/>
+      <c r="C556" s="108"/>
+      <c r="D556" s="108"/>
+      <c r="E556" s="108"/>
+      <c r="F556" s="108"/>
+      <c r="G556" s="109"/>
     </row>
     <row r="557" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A557" s="32" t="str">
@@ -16788,15 +16791,15 @@
       </c>
     </row>
     <row r="569" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="103" t="s">
+      <c r="A569" s="107" t="s">
         <v>440</v>
       </c>
-      <c r="B569" s="104"/>
-      <c r="C569" s="104"/>
-      <c r="D569" s="104"/>
-      <c r="E569" s="104"/>
-      <c r="F569" s="104"/>
-      <c r="G569" s="105"/>
+      <c r="B569" s="108"/>
+      <c r="C569" s="108"/>
+      <c r="D569" s="108"/>
+      <c r="E569" s="108"/>
+      <c r="F569" s="108"/>
+      <c r="G569" s="109"/>
     </row>
     <row r="570" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A570" s="32" t="str">
@@ -17189,15 +17192,15 @@
       </c>
     </row>
     <row r="590" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A590" s="103" t="s">
+      <c r="A590" s="107" t="s">
         <v>453</v>
       </c>
-      <c r="B590" s="104"/>
-      <c r="C590" s="104"/>
-      <c r="D590" s="104"/>
-      <c r="E590" s="104"/>
-      <c r="F590" s="104"/>
-      <c r="G590" s="105"/>
+      <c r="B590" s="108"/>
+      <c r="C590" s="108"/>
+      <c r="D590" s="108"/>
+      <c r="E590" s="108"/>
+      <c r="F590" s="108"/>
+      <c r="G590" s="109"/>
     </row>
     <row r="591" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A591" s="32" t="str">
@@ -17474,15 +17477,15 @@
       </c>
     </row>
     <row r="605" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A605" s="103" t="s">
+      <c r="A605" s="107" t="s">
         <v>466</v>
       </c>
-      <c r="B605" s="104"/>
-      <c r="C605" s="104"/>
-      <c r="D605" s="104"/>
-      <c r="E605" s="104"/>
-      <c r="F605" s="104"/>
-      <c r="G605" s="105"/>
+      <c r="B605" s="108"/>
+      <c r="C605" s="108"/>
+      <c r="D605" s="108"/>
+      <c r="E605" s="108"/>
+      <c r="F605" s="108"/>
+      <c r="G605" s="109"/>
     </row>
     <row r="606" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A606" s="32" t="str">
@@ -17667,15 +17670,15 @@
       </c>
     </row>
     <row r="616" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A616" s="103" t="s">
+      <c r="A616" s="107" t="s">
         <v>477</v>
       </c>
-      <c r="B616" s="104"/>
-      <c r="C616" s="104"/>
-      <c r="D616" s="104"/>
-      <c r="E616" s="104"/>
-      <c r="F616" s="104"/>
-      <c r="G616" s="105"/>
+      <c r="B616" s="108"/>
+      <c r="C616" s="108"/>
+      <c r="D616" s="108"/>
+      <c r="E616" s="108"/>
+      <c r="F616" s="108"/>
+      <c r="G616" s="109"/>
     </row>
     <row r="617" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A617" s="32" t="str">
@@ -17766,10 +17769,10 @@
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F623" s="1" t="s">
+      <c r="F623" s="114" t="s">
         <v>484</v>
       </c>
-      <c r="G623" s="1"/>
+      <c r="G623" s="114"/>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F624" s="49" t="s">
@@ -17902,66 +17905,48 @@
   <autoFilter ref="A3:I3" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <dataConsolidate/>
   <customSheetViews>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" hiddenRows="1">
-      <selection activeCell="A52" sqref="A52"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" hiddenRows="1">
+      <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" topLeftCell="A16">
+      <selection activeCell="B40" sqref="B40"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85" topLeftCell="A4">
+      <selection activeCell="E13" sqref="E13"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="85">
+      <selection activeCell="B103" sqref="B103"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" showPageBreaks="1">
+      <selection activeCell="E129" sqref="E129"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+    </customSheetView>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" showPageBreaks="1">
+      <selection sqref="A1:D1"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
     </customSheetView>
     <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" hiddenRows="1">
       <selection activeCell="B8" sqref="B8"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" showPageBreaks="1">
-      <selection sqref="A1:D1"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" showPageBreaks="1">
-      <selection activeCell="E129" sqref="E129"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="85">
-      <selection activeCell="B103" sqref="B103"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
-    </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85" topLeftCell="A4">
-      <selection activeCell="E13" sqref="E13"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
-    </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" topLeftCell="A16">
-      <selection activeCell="B40" sqref="B40"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
     </customSheetView>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" hiddenRows="1">
-      <selection activeCell="B5" sqref="B5"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" hiddenRows="1">
+      <selection activeCell="A52" sqref="A52"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="34">
-    <mergeCell ref="H467:H473"/>
-    <mergeCell ref="H495:H501"/>
-    <mergeCell ref="A360:G360"/>
-    <mergeCell ref="A326:G326"/>
-    <mergeCell ref="A397:G397"/>
-    <mergeCell ref="A445:G445"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A177:G177"/>
-    <mergeCell ref="A224:G224"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A128:G128"/>
-    <mergeCell ref="A178:G178"/>
     <mergeCell ref="F623:G623"/>
     <mergeCell ref="A417:G417"/>
     <mergeCell ref="A413:G413"/>
@@ -17978,6 +17963,24 @@
     <mergeCell ref="A416:G416"/>
     <mergeCell ref="C505:H505"/>
     <mergeCell ref="H418:H444"/>
+    <mergeCell ref="A177:G177"/>
+    <mergeCell ref="A224:G224"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A128:G128"/>
+    <mergeCell ref="A178:G178"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="H467:H473"/>
+    <mergeCell ref="H495:H501"/>
+    <mergeCell ref="A360:G360"/>
+    <mergeCell ref="A326:G326"/>
+    <mergeCell ref="A397:G397"/>
+    <mergeCell ref="A445:G445"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="F450:F476 F388:F392 F379:F381 F394:F395 F478:F516 F520:F597 F272 F277 F282 F287 F292 F297 F302 F306 F311 F316 F321 F326:F377 F1:F230 F599:F1048576 F232:F267 F397:F448">
@@ -18405,11 +18408,11 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" state="hidden">
       <selection activeCell="K30" sqref="K30"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" state="hidden">
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
       <selection activeCell="K30" sqref="K30"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
@@ -18426,10 +18429,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F685"/>
+  <dimension ref="A1:F684"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A646" zoomScaleNormal="100" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="C653" sqref="C653"/>
+    <sheetView tabSelected="1" topLeftCell="A653" zoomScaleNormal="100" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="C654" sqref="C654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="65.28515625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -21686,14 +21689,14 @@
       <c r="F233" s="34"/>
     </row>
     <row r="234" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="120" t="s">
+      <c r="A234" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="B234" s="120"/>
-      <c r="C234" s="120"/>
-      <c r="D234" s="120"/>
-      <c r="E234" s="120"/>
-      <c r="F234" s="120"/>
+      <c r="B234" s="122"/>
+      <c r="C234" s="122"/>
+      <c r="D234" s="122"/>
+      <c r="E234" s="122"/>
+      <c r="F234" s="122"/>
     </row>
     <row r="235" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A235" s="34" t="s">
@@ -22173,7 +22176,7 @@
       <c r="F268" s="34"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="124" t="s">
+      <c r="A269" s="123" t="s">
         <v>34</v>
       </c>
       <c r="B269" s="119"/>
@@ -22225,7 +22228,7 @@
       <c r="F272" s="35"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="124" t="s">
+      <c r="A273" s="123" t="s">
         <v>37</v>
       </c>
       <c r="B273" s="119"/>
@@ -22263,7 +22266,7 @@
       <c r="F275" s="34"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="124" t="s">
+      <c r="A276" s="123" t="s">
         <v>40</v>
       </c>
       <c r="B276" s="119"/>
@@ -23571,12 +23574,12 @@
       <c r="F379" s="36"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A380" s="120"/>
-      <c r="B380" s="120"/>
-      <c r="C380" s="120"/>
-      <c r="D380" s="120"/>
-      <c r="E380" s="120"/>
-      <c r="F380" s="120"/>
+      <c r="A380" s="122"/>
+      <c r="B380" s="122"/>
+      <c r="C380" s="122"/>
+      <c r="D380" s="122"/>
+      <c r="E380" s="122"/>
+      <c r="F380" s="122"/>
     </row>
     <row r="381" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B381" s="51" t="s">
@@ -23657,12 +23660,12 @@
       <c r="F386" s="36"/>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" s="120"/>
-      <c r="B387" s="120"/>
-      <c r="C387" s="120"/>
-      <c r="D387" s="120"/>
-      <c r="E387" s="120"/>
-      <c r="F387" s="120"/>
+      <c r="A387" s="122"/>
+      <c r="B387" s="122"/>
+      <c r="C387" s="122"/>
+      <c r="D387" s="122"/>
+      <c r="E387" s="122"/>
+      <c r="F387" s="122"/>
     </row>
     <row r="388" spans="1:6" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B388" s="51" t="s">
@@ -23678,12 +23681,12 @@
       <c r="F388" s="36"/>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A389" s="120"/>
-      <c r="B389" s="120"/>
-      <c r="C389" s="120"/>
-      <c r="D389" s="120"/>
-      <c r="E389" s="120"/>
-      <c r="F389" s="120"/>
+      <c r="A389" s="122"/>
+      <c r="B389" s="122"/>
+      <c r="C389" s="122"/>
+      <c r="D389" s="122"/>
+      <c r="E389" s="122"/>
+      <c r="F389" s="122"/>
     </row>
     <row r="390" spans="1:6" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B390" s="51" t="s">
@@ -25767,14 +25770,14 @@
       <c r="F551" s="53"/>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A552" s="120" t="s">
+      <c r="A552" s="122" t="s">
         <v>275</v>
       </c>
-      <c r="B552" s="120"/>
-      <c r="C552" s="120"/>
-      <c r="D552" s="120"/>
-      <c r="E552" s="120"/>
-      <c r="F552" s="120"/>
+      <c r="B552" s="122"/>
+      <c r="C552" s="122"/>
+      <c r="D552" s="122"/>
+      <c r="E552" s="122"/>
+      <c r="F552" s="122"/>
     </row>
     <row r="553" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B553" s="9" t="s">
@@ -25790,14 +25793,14 @@
       <c r="F553" s="36"/>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A554" s="120" t="s">
+      <c r="A554" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="B554" s="120"/>
-      <c r="C554" s="120"/>
-      <c r="D554" s="120"/>
-      <c r="E554" s="120"/>
-      <c r="F554" s="120"/>
+      <c r="B554" s="122"/>
+      <c r="C554" s="122"/>
+      <c r="D554" s="122"/>
+      <c r="E554" s="122"/>
+      <c r="F554" s="122"/>
     </row>
     <row r="555" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B555" s="51" t="s">
@@ -25826,14 +25829,14 @@
       <c r="F556" s="36"/>
     </row>
     <row r="557" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A557" s="121" t="s">
+      <c r="A557" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="B557" s="122"/>
-      <c r="C557" s="122"/>
-      <c r="D557" s="122"/>
-      <c r="E557" s="122"/>
-      <c r="F557" s="123"/>
+      <c r="B557" s="120"/>
+      <c r="C557" s="120"/>
+      <c r="D557" s="120"/>
+      <c r="E557" s="120"/>
+      <c r="F557" s="121"/>
     </row>
     <row r="558" spans="1:6" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B558" s="51" t="s">
@@ -25849,14 +25852,14 @@
       <c r="F558" s="36"/>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A559" s="120" t="s">
+      <c r="A559" s="122" t="s">
         <v>480</v>
       </c>
-      <c r="B559" s="120"/>
-      <c r="C559" s="120"/>
-      <c r="D559" s="120"/>
-      <c r="E559" s="120"/>
-      <c r="F559" s="120"/>
+      <c r="B559" s="122"/>
+      <c r="C559" s="122"/>
+      <c r="D559" s="122"/>
+      <c r="E559" s="122"/>
+      <c r="F559" s="122"/>
     </row>
     <row r="560" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B560" s="51" t="s">
@@ -25872,14 +25875,14 @@
       <c r="F560" s="36"/>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A561" s="120" t="s">
+      <c r="A561" s="122" t="s">
         <v>483</v>
       </c>
-      <c r="B561" s="120"/>
-      <c r="C561" s="120"/>
-      <c r="D561" s="120"/>
-      <c r="E561" s="120"/>
-      <c r="F561" s="120"/>
+      <c r="B561" s="122"/>
+      <c r="C561" s="122"/>
+      <c r="D561" s="122"/>
+      <c r="E561" s="122"/>
+      <c r="F561" s="122"/>
     </row>
     <row r="562" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B562" s="51" t="s">
@@ -25895,14 +25898,14 @@
       <c r="F562" s="36"/>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A563" s="120" t="s">
+      <c r="A563" s="122" t="s">
         <v>240</v>
       </c>
-      <c r="B563" s="120"/>
-      <c r="C563" s="120"/>
-      <c r="D563" s="120"/>
-      <c r="E563" s="120"/>
-      <c r="F563" s="120"/>
+      <c r="B563" s="122"/>
+      <c r="C563" s="122"/>
+      <c r="D563" s="122"/>
+      <c r="E563" s="122"/>
+      <c r="F563" s="122"/>
     </row>
     <row r="564" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B564" s="51" t="s">
@@ -26146,14 +26149,14 @@
       <c r="F579" s="53"/>
     </row>
     <row r="580" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A580" s="120" t="s">
+      <c r="A580" s="122" t="s">
         <v>192</v>
       </c>
-      <c r="B580" s="120"/>
-      <c r="C580" s="120"/>
-      <c r="D580" s="120"/>
-      <c r="E580" s="120"/>
-      <c r="F580" s="120"/>
+      <c r="B580" s="122"/>
+      <c r="C580" s="122"/>
+      <c r="D580" s="122"/>
+      <c r="E580" s="122"/>
+      <c r="F580" s="122"/>
     </row>
     <row r="581" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A581" s="34" t="s">
@@ -26348,14 +26351,14 @@
       <c r="F592" s="53"/>
     </row>
     <row r="593" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A593" s="122" t="s">
+      <c r="A593" s="120" t="s">
         <v>195</v>
       </c>
-      <c r="B593" s="122"/>
-      <c r="C593" s="122"/>
-      <c r="D593" s="122"/>
-      <c r="E593" s="122"/>
-      <c r="F593" s="123"/>
+      <c r="B593" s="120"/>
+      <c r="C593" s="120"/>
+      <c r="D593" s="120"/>
+      <c r="E593" s="120"/>
+      <c r="F593" s="121"/>
     </row>
     <row r="594" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A594" s="34" t="s">
@@ -26518,14 +26521,14 @@
       <c r="F603" s="53"/>
     </row>
     <row r="604" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A604" s="122" t="s">
+      <c r="A604" s="120" t="s">
         <v>198</v>
       </c>
-      <c r="B604" s="122"/>
-      <c r="C604" s="122"/>
-      <c r="D604" s="122"/>
-      <c r="E604" s="122"/>
-      <c r="F604" s="123"/>
+      <c r="B604" s="120"/>
+      <c r="C604" s="120"/>
+      <c r="D604" s="120"/>
+      <c r="E604" s="120"/>
+      <c r="F604" s="121"/>
     </row>
     <row r="605" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A605" s="34" t="s">
@@ -26672,14 +26675,14 @@
       <c r="F613" s="34"/>
     </row>
     <row r="614" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="122" t="s">
+      <c r="A614" s="120" t="s">
         <v>201</v>
       </c>
-      <c r="B614" s="122"/>
-      <c r="C614" s="122"/>
-      <c r="D614" s="122"/>
-      <c r="E614" s="122"/>
-      <c r="F614" s="123"/>
+      <c r="B614" s="120"/>
+      <c r="C614" s="120"/>
+      <c r="D614" s="120"/>
+      <c r="E614" s="120"/>
+      <c r="F614" s="121"/>
     </row>
     <row r="615" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A615" s="34" t="s">
@@ -26826,14 +26829,14 @@
       <c r="F623" s="34"/>
     </row>
     <row r="624" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A624" s="120" t="s">
+      <c r="A624" s="122" t="s">
         <v>205</v>
       </c>
-      <c r="B624" s="120"/>
-      <c r="C624" s="120"/>
-      <c r="D624" s="120"/>
-      <c r="E624" s="120"/>
-      <c r="F624" s="120"/>
+      <c r="B624" s="122"/>
+      <c r="C624" s="122"/>
+      <c r="D624" s="122"/>
+      <c r="E624" s="122"/>
+      <c r="F624" s="122"/>
     </row>
     <row r="625" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A625" s="34" t="s">
@@ -27303,7 +27306,7 @@
       </c>
       <c r="F654" s="34"/>
     </row>
-    <row r="655" spans="1:6" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A655" s="34" t="s">
         <v>1182</v>
       </c>
@@ -27311,458 +27314,485 @@
         <v>1115</v>
       </c>
       <c r="C655" s="34" t="s">
-        <v>648</v>
+        <v>687</v>
       </c>
       <c r="D655" s="34" t="s">
-        <v>530</v>
-      </c>
-      <c r="E655" s="34"/>
-      <c r="F655" s="34"/>
+        <v>532</v>
+      </c>
+      <c r="E655" s="36"/>
+      <c r="F655" s="36"/>
     </row>
     <row r="656" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A656" s="34" t="s">
         <v>1182</v>
       </c>
-      <c r="B656" s="101" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C656" s="34" t="s">
-        <v>687</v>
+      <c r="B656" s="51" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C656" s="36" t="s">
+        <v>503</v>
       </c>
       <c r="D656" s="34" t="s">
-        <v>532</v>
-      </c>
-      <c r="E656" s="36"/>
-      <c r="F656" s="36"/>
-    </row>
-    <row r="657" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A657" s="34" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B657" s="51" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C657" s="36" t="s">
-        <v>503</v>
-      </c>
-      <c r="D657" s="34" t="s">
         <v>533</v>
       </c>
-      <c r="E657" s="53"/>
-      <c r="F657" s="53"/>
-    </row>
-    <row r="658" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A658" s="119" t="s">
+      <c r="E656" s="53"/>
+      <c r="F656" s="53"/>
+    </row>
+    <row r="657" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A657" s="119" t="s">
         <v>316</v>
       </c>
-      <c r="B658" s="119"/>
-      <c r="C658" s="119"/>
-      <c r="D658" s="119"/>
-      <c r="E658" s="119"/>
-      <c r="F658" s="119"/>
-    </row>
-    <row r="659" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B657" s="119"/>
+      <c r="C657" s="119"/>
+      <c r="D657" s="119"/>
+      <c r="E657" s="119"/>
+      <c r="F657" s="119"/>
+    </row>
+    <row r="658" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A658" s="34"/>
+      <c r="B658" s="99" t="s">
+        <v>987</v>
+      </c>
+      <c r="C658" s="34" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D658" s="36" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E658" s="34"/>
+      <c r="F658" s="35"/>
+    </row>
+    <row r="659" spans="1:6" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A659" s="34"/>
       <c r="B659" s="99" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C659" s="34" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D659" s="36" t="s">
-        <v>1038</v>
+        <v>820</v>
+      </c>
+      <c r="D659" s="34" t="s">
+        <v>1039</v>
       </c>
       <c r="E659" s="34"/>
       <c r="F659" s="35"/>
     </row>
-    <row r="660" spans="1:6" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A660" s="34"/>
-      <c r="B660" s="99" t="s">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A660" s="119" t="s">
+        <v>332</v>
+      </c>
+      <c r="B660" s="119"/>
+      <c r="C660" s="119"/>
+      <c r="D660" s="119"/>
+      <c r="E660" s="119"/>
+      <c r="F660" s="119"/>
+    </row>
+    <row r="661" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B661" s="51" t="s">
+        <v>987</v>
+      </c>
+      <c r="C661" s="36" t="s">
+        <v>673</v>
+      </c>
+      <c r="D661" s="34" t="s">
+        <v>660</v>
+      </c>
+      <c r="E661" s="36"/>
+      <c r="F661" s="36"/>
+    </row>
+    <row r="662" spans="1:6" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B662" s="51" t="s">
         <v>989</v>
       </c>
-      <c r="C660" s="34" t="s">
-        <v>820</v>
-      </c>
-      <c r="D660" s="34" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E660" s="34"/>
-      <c r="F660" s="35"/>
-    </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A661" s="119" t="s">
-        <v>332</v>
-      </c>
-      <c r="B661" s="119"/>
-      <c r="C661" s="119"/>
-      <c r="D661" s="119"/>
-      <c r="E661" s="119"/>
-      <c r="F661" s="119"/>
-    </row>
-    <row r="662" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B662" s="51" t="s">
-        <v>987</v>
-      </c>
       <c r="C662" s="36" t="s">
-        <v>673</v>
+        <v>1040</v>
       </c>
       <c r="D662" s="34" t="s">
-        <v>660</v>
+        <v>1041</v>
       </c>
       <c r="E662" s="36"/>
       <c r="F662" s="36"/>
     </row>
-    <row r="663" spans="1:6" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B663" s="51" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C663" s="36" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="D663" s="34" t="s">
-        <v>1041</v>
+        <v>855</v>
       </c>
       <c r="E663" s="36"/>
       <c r="F663" s="36"/>
     </row>
-    <row r="664" spans="1:6" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B664" s="51" t="s">
-        <v>991</v>
-      </c>
-      <c r="C664" s="36" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D664" s="34" t="s">
-        <v>855</v>
-      </c>
-      <c r="E664" s="36"/>
-      <c r="F664" s="36"/>
-    </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A665" s="119" t="s">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A664" s="119" t="s">
         <v>464</v>
       </c>
-      <c r="B665" s="119"/>
-      <c r="C665" s="119"/>
-      <c r="D665" s="119"/>
-      <c r="E665" s="119"/>
-      <c r="F665" s="119"/>
+      <c r="B664" s="119"/>
+      <c r="C664" s="119"/>
+      <c r="D664" s="119"/>
+      <c r="E664" s="119"/>
+      <c r="F664" s="119"/>
+    </row>
+    <row r="665" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B665" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="C665" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="D665" s="10" t="s">
+        <v>969</v>
+      </c>
+      <c r="E665" s="36"/>
+      <c r="F665" s="36"/>
     </row>
     <row r="666" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B666" s="4" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C666" s="10" t="s">
-        <v>968</v>
+        <v>1043</v>
       </c>
       <c r="D666" s="10" t="s">
-        <v>969</v>
+        <v>1044</v>
       </c>
       <c r="E666" s="36"/>
       <c r="F666" s="36"/>
     </row>
     <row r="667" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B667" s="4" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C667" s="10" t="s">
-        <v>1043</v>
+        <v>972</v>
       </c>
       <c r="D667" s="10" t="s">
-        <v>1044</v>
+        <v>973</v>
       </c>
       <c r="E667" s="36"/>
       <c r="F667" s="36"/>
     </row>
     <row r="668" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B668" s="4" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="C668" s="10" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="D668" s="10" t="s">
-        <v>973</v>
+        <v>520</v>
       </c>
       <c r="E668" s="36"/>
       <c r="F668" s="36"/>
     </row>
-    <row r="669" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B669" s="4" t="s">
-        <v>994</v>
-      </c>
-      <c r="C669" s="10" t="s">
-        <v>977</v>
-      </c>
-      <c r="D669" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="E669" s="36"/>
-      <c r="F669" s="36"/>
-    </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A670" s="119" t="s">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A669" s="119" t="s">
         <v>289</v>
       </c>
-      <c r="B670" s="119"/>
-      <c r="C670" s="119"/>
-      <c r="D670" s="119"/>
-      <c r="E670" s="119"/>
-      <c r="F670" s="119"/>
-    </row>
-    <row r="671" spans="1:6" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A671" s="34"/>
-      <c r="B671" s="99" t="s">
+      <c r="B669" s="119"/>
+      <c r="C669" s="119"/>
+      <c r="D669" s="119"/>
+      <c r="E669" s="119"/>
+      <c r="F669" s="119"/>
+    </row>
+    <row r="670" spans="1:6" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A670" s="34"/>
+      <c r="B670" s="99" t="s">
         <v>987</v>
       </c>
-      <c r="C671" s="34" t="s">
+      <c r="C670" s="34" t="s">
         <v>1045</v>
       </c>
-      <c r="D671" s="34" t="s">
+      <c r="D670" s="34" t="s">
         <v>1046</v>
       </c>
-      <c r="E671" s="34"/>
-      <c r="F671" s="35"/>
-    </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A672" s="119" t="s">
+      <c r="E670" s="34"/>
+      <c r="F670" s="35"/>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A671" s="119" t="s">
         <v>363</v>
       </c>
-      <c r="B672" s="119"/>
-      <c r="C672" s="119"/>
-      <c r="D672" s="119"/>
-      <c r="E672" s="119"/>
-      <c r="F672" s="119"/>
-    </row>
-    <row r="673" spans="1:6" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A673" s="34"/>
-      <c r="B673" s="99" t="s">
+      <c r="B671" s="119"/>
+      <c r="C671" s="119"/>
+      <c r="D671" s="119"/>
+      <c r="E671" s="119"/>
+      <c r="F671" s="119"/>
+    </row>
+    <row r="672" spans="1:6" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A672" s="34"/>
+      <c r="B672" s="99" t="s">
         <v>987</v>
       </c>
-      <c r="C673" s="34" t="s">
+      <c r="C672" s="34" t="s">
         <v>1047</v>
       </c>
-      <c r="D673" s="34" t="s">
+      <c r="D672" s="34" t="s">
         <v>1048</v>
       </c>
-      <c r="E673" s="34"/>
-      <c r="F673" s="35"/>
-    </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A674" s="119" t="s">
+      <c r="E672" s="34"/>
+      <c r="F672" s="35"/>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A673" s="119" t="s">
         <v>365</v>
       </c>
-      <c r="B674" s="119"/>
-      <c r="C674" s="119"/>
-      <c r="D674" s="119"/>
-      <c r="E674" s="119"/>
-      <c r="F674" s="119"/>
-    </row>
-    <row r="675" spans="1:6" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A675" s="34"/>
-      <c r="B675" s="99" t="s">
+      <c r="B673" s="119"/>
+      <c r="C673" s="119"/>
+      <c r="D673" s="119"/>
+      <c r="E673" s="119"/>
+      <c r="F673" s="119"/>
+    </row>
+    <row r="674" spans="1:6" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A674" s="34"/>
+      <c r="B674" s="99" t="s">
         <v>987</v>
       </c>
-      <c r="C675" s="34" t="s">
+      <c r="C674" s="34" t="s">
         <v>1049</v>
       </c>
-      <c r="D675" s="34" t="s">
+      <c r="D674" s="34" t="s">
         <v>1050</v>
       </c>
-      <c r="E675" s="34"/>
-      <c r="F675" s="35"/>
-    </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A676" s="119" t="s">
+      <c r="E674" s="34"/>
+      <c r="F674" s="35"/>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A675" s="119" t="s">
         <v>367</v>
       </c>
-      <c r="B676" s="119"/>
-      <c r="C676" s="119"/>
-      <c r="D676" s="119"/>
-      <c r="E676" s="119"/>
-      <c r="F676" s="119"/>
-    </row>
-    <row r="677" spans="1:6" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A677" s="34"/>
-      <c r="B677" s="99" t="s">
+      <c r="B675" s="119"/>
+      <c r="C675" s="119"/>
+      <c r="D675" s="119"/>
+      <c r="E675" s="119"/>
+      <c r="F675" s="119"/>
+    </row>
+    <row r="676" spans="1:6" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A676" s="34"/>
+      <c r="B676" s="99" t="s">
         <v>987</v>
       </c>
-      <c r="C677" s="34" t="s">
+      <c r="C676" s="34" t="s">
         <v>1051</v>
       </c>
-      <c r="D677" s="34" t="s">
+      <c r="D676" s="34" t="s">
         <v>1052</v>
       </c>
-      <c r="E677" s="34"/>
-      <c r="F677" s="35"/>
-    </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A678" s="119" t="s">
+      <c r="E676" s="34"/>
+      <c r="F676" s="35"/>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A677" s="119" t="s">
         <v>369</v>
       </c>
-      <c r="B678" s="119"/>
-      <c r="C678" s="119"/>
-      <c r="D678" s="119"/>
-      <c r="E678" s="119"/>
-      <c r="F678" s="119"/>
-    </row>
-    <row r="679" spans="1:6" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A679" s="34"/>
-      <c r="B679" s="99" t="s">
+      <c r="B677" s="119"/>
+      <c r="C677" s="119"/>
+      <c r="D677" s="119"/>
+      <c r="E677" s="119"/>
+      <c r="F677" s="119"/>
+    </row>
+    <row r="678" spans="1:6" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A678" s="34"/>
+      <c r="B678" s="99" t="s">
         <v>987</v>
       </c>
-      <c r="C679" s="34" t="s">
+      <c r="C678" s="34" t="s">
         <v>1053</v>
       </c>
-      <c r="D679" s="34" t="s">
+      <c r="D678" s="34" t="s">
         <v>1054</v>
       </c>
-      <c r="E679" s="34"/>
-      <c r="F679" s="35"/>
-    </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A680" s="119" t="s">
+      <c r="E678" s="34"/>
+      <c r="F678" s="35"/>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A679" s="119" t="s">
         <v>371</v>
       </c>
-      <c r="B680" s="119"/>
-      <c r="C680" s="119"/>
-      <c r="D680" s="119"/>
-      <c r="E680" s="119"/>
-      <c r="F680" s="119"/>
-    </row>
-    <row r="681" spans="1:6" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A681" s="34"/>
-      <c r="B681" s="99" t="s">
+      <c r="B679" s="119"/>
+      <c r="C679" s="119"/>
+      <c r="D679" s="119"/>
+      <c r="E679" s="119"/>
+      <c r="F679" s="119"/>
+    </row>
+    <row r="680" spans="1:6" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A680" s="34"/>
+      <c r="B680" s="99" t="s">
         <v>987</v>
       </c>
-      <c r="C681" s="34" t="s">
+      <c r="C680" s="34" t="s">
         <v>1055</v>
       </c>
-      <c r="D681" s="34" t="s">
+      <c r="D680" s="34" t="s">
         <v>1056</v>
       </c>
-      <c r="E681" s="34"/>
-      <c r="F681" s="35"/>
-    </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A682" s="119" t="s">
+      <c r="E680" s="34"/>
+      <c r="F680" s="35"/>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A681" s="119" t="s">
         <v>374</v>
       </c>
-      <c r="B682" s="119"/>
-      <c r="C682" s="119"/>
-      <c r="D682" s="119"/>
-      <c r="E682" s="119"/>
-      <c r="F682" s="119"/>
-    </row>
-    <row r="683" spans="1:6" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A683" s="34"/>
-      <c r="B683" s="99" t="s">
+      <c r="B681" s="119"/>
+      <c r="C681" s="119"/>
+      <c r="D681" s="119"/>
+      <c r="E681" s="119"/>
+      <c r="F681" s="119"/>
+    </row>
+    <row r="682" spans="1:6" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A682" s="34"/>
+      <c r="B682" s="99" t="s">
         <v>987</v>
       </c>
-      <c r="C683" s="34" t="s">
+      <c r="C682" s="34" t="s">
         <v>1057</v>
       </c>
-      <c r="D683" s="34" t="s">
+      <c r="D682" s="34" t="s">
         <v>1058</v>
       </c>
-      <c r="E683" s="34"/>
-      <c r="F683" s="35"/>
-    </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A684" s="119" t="s">
+      <c r="E682" s="34"/>
+      <c r="F682" s="35"/>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A683" s="119" t="s">
         <v>1059</v>
       </c>
-      <c r="B684" s="119"/>
-      <c r="C684" s="119"/>
-      <c r="D684" s="119"/>
-      <c r="E684" s="119"/>
-      <c r="F684" s="119"/>
-    </row>
-    <row r="685" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A685" s="34"/>
-      <c r="B685" s="99" t="s">
+      <c r="B683" s="119"/>
+      <c r="C683" s="119"/>
+      <c r="D683" s="119"/>
+      <c r="E683" s="119"/>
+      <c r="F683" s="119"/>
+    </row>
+    <row r="684" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A684" s="34"/>
+      <c r="B684" s="99" t="s">
         <v>987</v>
       </c>
-      <c r="C685" s="34" t="s">
+      <c r="C684" s="34" t="s">
         <v>1057</v>
       </c>
-      <c r="D685" s="34" t="s">
+      <c r="D684" s="34" t="s">
         <v>1060</v>
       </c>
-      <c r="E685" s="34"/>
-      <c r="F685" s="35"/>
+      <c r="E684" s="34"/>
+      <c r="F684" s="35"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" scale="85" topLeftCell="B1">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" scale="60" topLeftCell="A4">
+      <selection activeCell="F13" sqref="F13"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" scale="87" showPageBreaks="1" topLeftCell="A226">
+      <selection activeCell="F237" sqref="F237"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85">
+      <selection activeCell="G19" sqref="G19"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="55">
+      <selection activeCell="C9" sqref="C9"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" scale="85">
+      <selection activeCell="F6" sqref="F6"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" scale="85" state="hidden">
+      <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
     <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" scale="85">
       <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" scale="85" state="hidden">
-      <selection activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" scale="85" topLeftCell="B1">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" scale="85">
-      <selection activeCell="F6" sqref="F6"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="55">
-      <selection activeCell="C9" sqref="C9"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85">
-      <selection activeCell="G19" sqref="G19"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" scale="87" showPageBreaks="1" topLeftCell="A226">
-      <selection activeCell="F237" sqref="F237"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" scale="60" topLeftCell="A4">
-      <selection activeCell="F13" sqref="F13"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="133">
-    <mergeCell ref="A684:F684"/>
-    <mergeCell ref="A593:F593"/>
-    <mergeCell ref="A604:F604"/>
-    <mergeCell ref="A614:F614"/>
-    <mergeCell ref="A358:F358"/>
-    <mergeCell ref="A661:F661"/>
-    <mergeCell ref="A340:F340"/>
-    <mergeCell ref="A345:F345"/>
-    <mergeCell ref="A355:F355"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A360:F360"/>
-    <mergeCell ref="A658:F658"/>
-    <mergeCell ref="A378:F378"/>
-    <mergeCell ref="A365:F365"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="A372:F372"/>
-    <mergeCell ref="A374:F374"/>
-    <mergeCell ref="A389:F389"/>
-    <mergeCell ref="A411:F411"/>
-    <mergeCell ref="A391:F391"/>
-    <mergeCell ref="A394:F394"/>
-    <mergeCell ref="A380:F380"/>
-    <mergeCell ref="A387:F387"/>
-    <mergeCell ref="A376:F376"/>
-    <mergeCell ref="A337:F337"/>
-    <mergeCell ref="A305:F305"/>
-    <mergeCell ref="A314:F314"/>
-    <mergeCell ref="A320:F320"/>
-    <mergeCell ref="A327:F327"/>
-    <mergeCell ref="A309:F309"/>
-    <mergeCell ref="A317:F317"/>
-    <mergeCell ref="A323:F323"/>
-    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A681:F681"/>
+    <mergeCell ref="A664:F664"/>
+    <mergeCell ref="A526:F526"/>
+    <mergeCell ref="A533:F533"/>
+    <mergeCell ref="A538:F538"/>
+    <mergeCell ref="A567:F567"/>
+    <mergeCell ref="A624:F624"/>
+    <mergeCell ref="A634:F634"/>
+    <mergeCell ref="A645:F645"/>
+    <mergeCell ref="A580:F580"/>
+    <mergeCell ref="A559:F559"/>
+    <mergeCell ref="A561:F561"/>
+    <mergeCell ref="A563:F563"/>
+    <mergeCell ref="A557:F557"/>
+    <mergeCell ref="A552:F552"/>
+    <mergeCell ref="A554:F554"/>
+    <mergeCell ref="A543:F543"/>
+    <mergeCell ref="A669:F669"/>
+    <mergeCell ref="A671:F671"/>
+    <mergeCell ref="A673:F673"/>
+    <mergeCell ref="A675:F675"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A473:F473"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A445:F445"/>
+    <mergeCell ref="A449:F449"/>
+    <mergeCell ref="A454:F454"/>
+    <mergeCell ref="A457:F457"/>
+    <mergeCell ref="A521:F521"/>
+    <mergeCell ref="A679:F679"/>
+    <mergeCell ref="A510:F510"/>
+    <mergeCell ref="A516:F516"/>
+    <mergeCell ref="A479:F479"/>
+    <mergeCell ref="A489:F489"/>
+    <mergeCell ref="A491:F491"/>
+    <mergeCell ref="A493:F493"/>
+    <mergeCell ref="A499:F499"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A677:F677"/>
+    <mergeCell ref="A405:F405"/>
+    <mergeCell ref="A407:F407"/>
+    <mergeCell ref="A409:F409"/>
+    <mergeCell ref="A461:F461"/>
+    <mergeCell ref="A465:F465"/>
+    <mergeCell ref="A426:F426"/>
+    <mergeCell ref="A396:F396"/>
+    <mergeCell ref="A399:F399"/>
+    <mergeCell ref="A401:F401"/>
+    <mergeCell ref="A403:F403"/>
+    <mergeCell ref="A414:F414"/>
+    <mergeCell ref="A417:F417"/>
+    <mergeCell ref="A420:F420"/>
+    <mergeCell ref="A423:F423"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A300:F300"/>
+    <mergeCell ref="A303:F303"/>
+    <mergeCell ref="A197:F197"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A175:F175"/>
+    <mergeCell ref="A243:F243"/>
+    <mergeCell ref="A234:F234"/>
+    <mergeCell ref="A266:F266"/>
+    <mergeCell ref="A269:F269"/>
+    <mergeCell ref="A216:F216"/>
+    <mergeCell ref="A225:F225"/>
+    <mergeCell ref="A253:F253"/>
+    <mergeCell ref="A273:F273"/>
+    <mergeCell ref="A276:F276"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:F293"/>
+    <mergeCell ref="A279:F279"/>
+    <mergeCell ref="A287:F287"/>
+    <mergeCell ref="A291:F291"/>
+    <mergeCell ref="A284:F284"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A35:F35"/>
@@ -27787,82 +27817,39 @@
     <mergeCell ref="A116:F116"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A300:F300"/>
-    <mergeCell ref="A303:F303"/>
-    <mergeCell ref="A197:F197"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A175:F175"/>
-    <mergeCell ref="A243:F243"/>
-    <mergeCell ref="A234:F234"/>
-    <mergeCell ref="A266:F266"/>
-    <mergeCell ref="A269:F269"/>
-    <mergeCell ref="A216:F216"/>
-    <mergeCell ref="A225:F225"/>
-    <mergeCell ref="A253:F253"/>
-    <mergeCell ref="A273:F273"/>
-    <mergeCell ref="A276:F276"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:F293"/>
-    <mergeCell ref="A279:F279"/>
-    <mergeCell ref="A287:F287"/>
-    <mergeCell ref="A291:F291"/>
-    <mergeCell ref="A284:F284"/>
-    <mergeCell ref="A405:F405"/>
-    <mergeCell ref="A407:F407"/>
-    <mergeCell ref="A409:F409"/>
-    <mergeCell ref="A461:F461"/>
-    <mergeCell ref="A465:F465"/>
-    <mergeCell ref="A426:F426"/>
-    <mergeCell ref="A396:F396"/>
-    <mergeCell ref="A399:F399"/>
-    <mergeCell ref="A401:F401"/>
-    <mergeCell ref="A403:F403"/>
-    <mergeCell ref="A414:F414"/>
-    <mergeCell ref="A417:F417"/>
-    <mergeCell ref="A420:F420"/>
-    <mergeCell ref="A423:F423"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A473:F473"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A445:F445"/>
-    <mergeCell ref="A449:F449"/>
-    <mergeCell ref="A454:F454"/>
-    <mergeCell ref="A457:F457"/>
-    <mergeCell ref="A521:F521"/>
-    <mergeCell ref="A680:F680"/>
-    <mergeCell ref="A510:F510"/>
-    <mergeCell ref="A516:F516"/>
-    <mergeCell ref="A479:F479"/>
-    <mergeCell ref="A489:F489"/>
-    <mergeCell ref="A491:F491"/>
-    <mergeCell ref="A493:F493"/>
-    <mergeCell ref="A499:F499"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A678:F678"/>
-    <mergeCell ref="A682:F682"/>
-    <mergeCell ref="A665:F665"/>
-    <mergeCell ref="A526:F526"/>
-    <mergeCell ref="A533:F533"/>
-    <mergeCell ref="A538:F538"/>
-    <mergeCell ref="A567:F567"/>
-    <mergeCell ref="A624:F624"/>
-    <mergeCell ref="A634:F634"/>
-    <mergeCell ref="A645:F645"/>
-    <mergeCell ref="A580:F580"/>
-    <mergeCell ref="A559:F559"/>
-    <mergeCell ref="A561:F561"/>
-    <mergeCell ref="A563:F563"/>
-    <mergeCell ref="A557:F557"/>
-    <mergeCell ref="A552:F552"/>
-    <mergeCell ref="A554:F554"/>
-    <mergeCell ref="A543:F543"/>
-    <mergeCell ref="A670:F670"/>
-    <mergeCell ref="A672:F672"/>
-    <mergeCell ref="A674:F674"/>
-    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A337:F337"/>
+    <mergeCell ref="A305:F305"/>
+    <mergeCell ref="A314:F314"/>
+    <mergeCell ref="A320:F320"/>
+    <mergeCell ref="A327:F327"/>
+    <mergeCell ref="A309:F309"/>
+    <mergeCell ref="A317:F317"/>
+    <mergeCell ref="A323:F323"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A683:F683"/>
+    <mergeCell ref="A593:F593"/>
+    <mergeCell ref="A604:F604"/>
+    <mergeCell ref="A614:F614"/>
+    <mergeCell ref="A358:F358"/>
+    <mergeCell ref="A660:F660"/>
+    <mergeCell ref="A340:F340"/>
+    <mergeCell ref="A345:F345"/>
+    <mergeCell ref="A355:F355"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A360:F360"/>
+    <mergeCell ref="A657:F657"/>
+    <mergeCell ref="A378:F378"/>
+    <mergeCell ref="A365:F365"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="A372:F372"/>
+    <mergeCell ref="A374:F374"/>
+    <mergeCell ref="A389:F389"/>
+    <mergeCell ref="A411:F411"/>
+    <mergeCell ref="A391:F391"/>
+    <mergeCell ref="A394:F394"/>
+    <mergeCell ref="A380:F380"/>
+    <mergeCell ref="A387:F387"/>
+    <mergeCell ref="A376:F376"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId3"/>
@@ -27873,6 +27860,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C71B05ED7860F1429BB192A8AD3ECF9C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7bb17ca7624675e957ee0f1a62aa5509">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1dc586d3-033a-453c-a736-0de408b0dcee" xmlns:ns4="da96f4a7-4178-4915-9502-40e1bdbdebc7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f4946a5cb97ee8e437c64f89eb7aa62" ns3:_="" ns4:_="">
     <xsd:import namespace="1dc586d3-033a-453c-a736-0de408b0dcee"/>
@@ -28095,22 +28097,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F03A4E3-7AEE-4350-9C0D-B148727606F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51AF712D-A5A0-4EDF-9D46-785D33BE3E6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28ED1B3B-119A-4870-957A-0D939EB4F5C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28127,21 +28131,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51AF712D-A5A0-4EDF-9D46-785D33BE3E6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F03A4E3-7AEE-4350-9C0D-B148727606F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>